--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\Employee - SFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0142D-733F-41F3-B912-A2A69A658B39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67C5744-4974-45C2-BF86-52A680FA4D2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AEA6A1DC-F652-4756-A6AC-A4373A729D46}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8395" uniqueCount="1500">
   <si>
     <t>EmpID</t>
   </si>
@@ -4456,6 +4456,78 @@
   </si>
   <si>
     <t>SUPRANEE  PANCHAN</t>
+  </si>
+  <si>
+    <t>BTA_ASM</t>
+  </si>
+  <si>
+    <t>CLA_ASM</t>
+  </si>
+  <si>
+    <t>S-STDH04</t>
+  </si>
+  <si>
+    <t>WISSANU  YENKLAM</t>
+  </si>
+  <si>
+    <t>WANCHANOK  SEESOOK</t>
+  </si>
+  <si>
+    <t>METHISA  SUNGPERM</t>
+  </si>
+  <si>
+    <t>NUTCHANAT  PHETSIT</t>
+  </si>
+  <si>
+    <t>SUNUN  UTSAHA</t>
+  </si>
+  <si>
+    <t>THITIRAT  ARIYASAKULCHAI</t>
+  </si>
+  <si>
+    <t>JEERAWAN  SAENNOO</t>
+  </si>
+  <si>
+    <t>PHACHNAN  PONJAN</t>
+  </si>
+  <si>
+    <t>PRAJOUB  KONGYOOT</t>
+  </si>
+  <si>
+    <t>CHARAPON  KAEWPITAK</t>
+  </si>
+  <si>
+    <t>KANOKPORN  KHONGMAN</t>
+  </si>
+  <si>
+    <t>DARAPORN  PONCHAN</t>
+  </si>
+  <si>
+    <t>PENNAPA  OUNFAH</t>
+  </si>
+  <si>
+    <t>PANTHITA  CHAEMCHOI</t>
+  </si>
+  <si>
+    <t>DETNARIN  SRISAWAD</t>
+  </si>
+  <si>
+    <t>PIYAWUT  MANORAT</t>
+  </si>
+  <si>
+    <t>THANAPHON  SEENUAN</t>
+  </si>
+  <si>
+    <t>NITCHAKAN  LADBUABAN</t>
+  </si>
+  <si>
+    <t>THIRAPHAT  PHIKUNHOM</t>
+  </si>
+  <si>
+    <t>AKSHAYAKUMARA MALLAPURA  SHETTY</t>
+  </si>
+  <si>
+    <t>SANDEEP VITTHAL  SHINDE</t>
   </si>
 </sst>
 </file>
@@ -4879,10 +4951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E42548-D0B6-4352-8827-ABFFB6F69E7A}">
-  <dimension ref="A1:N1316"/>
+  <dimension ref="A1:N1337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A1309" workbookViewId="0">
+      <selection activeCell="G1330" sqref="G1330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27127,189 +27199,546 @@
       </c>
     </row>
     <row r="1306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1306" s="13">
+      <c r="A1306" s="10">
         <v>6227</v>
       </c>
-      <c r="B1306" s="14" t="s">
+      <c r="B1306" s="11" t="s">
         <v>1465</v>
       </c>
-      <c r="C1306" s="15" t="s">
+      <c r="C1306" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1306" s="15" t="s">
+      <c r="D1306" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E1306" s="16">
+      <c r="E1306" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1307" s="13">
+      <c r="A1307" s="10">
         <v>6228</v>
       </c>
-      <c r="B1307" s="14" t="s">
+      <c r="B1307" s="11" t="s">
         <v>1466</v>
       </c>
-      <c r="C1307" s="15" t="s">
+      <c r="C1307" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1307" s="15" t="s">
+      <c r="D1307" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E1307" s="16">
+      <c r="E1307" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1308" s="13">
+      <c r="A1308" s="10">
         <v>6229</v>
       </c>
-      <c r="B1308" s="14" t="s">
+      <c r="B1308" s="11" t="s">
         <v>1467</v>
       </c>
-      <c r="C1308" s="15" t="s">
+      <c r="C1308" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1308" s="15" t="s">
+      <c r="D1308" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E1308" s="16">
+      <c r="E1308" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1309" s="13">
+      <c r="A1309" s="10">
         <v>6230</v>
       </c>
-      <c r="B1309" s="14" t="s">
+      <c r="B1309" s="11" t="s">
         <v>1468</v>
       </c>
-      <c r="C1309" s="15" t="s">
+      <c r="C1309" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1309" s="15" t="s">
+      <c r="D1309" s="12" t="s">
         <v>1387</v>
       </c>
-      <c r="E1309" s="16">
+      <c r="E1309" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1310" s="13">
+      <c r="A1310" s="10">
         <v>6231</v>
       </c>
-      <c r="B1310" s="14" t="s">
+      <c r="B1310" s="11" t="s">
         <v>1469</v>
       </c>
-      <c r="C1310" s="15" t="s">
+      <c r="C1310" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D1310" s="15" t="s">
+      <c r="D1310" s="12" t="s">
         <v>1421</v>
       </c>
-      <c r="E1310" s="16">
+      <c r="E1310" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1311" s="13">
+      <c r="A1311" s="10">
         <v>6232</v>
       </c>
-      <c r="B1311" s="14" t="s">
+      <c r="B1311" s="11" t="s">
         <v>1470</v>
       </c>
-      <c r="C1311" s="15" t="s">
+      <c r="C1311" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D1311" s="15" t="s">
+      <c r="D1311" s="12" t="s">
         <v>1420</v>
       </c>
-      <c r="E1311" s="16">
+      <c r="E1311" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1312" s="13">
+      <c r="A1312" s="10">
         <v>6233</v>
       </c>
-      <c r="B1312" s="14" t="s">
+      <c r="B1312" s="11" t="s">
         <v>1471</v>
       </c>
-      <c r="C1312" s="15" t="s">
+      <c r="C1312" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D1312" s="15" t="s">
+      <c r="D1312" s="12" t="s">
         <v>1420</v>
       </c>
-      <c r="E1312" s="16">
+      <c r="E1312" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1313" s="13">
+      <c r="A1313" s="10">
         <v>6234</v>
       </c>
-      <c r="B1313" s="14" t="s">
+      <c r="B1313" s="11" t="s">
         <v>1472</v>
       </c>
-      <c r="C1313" s="15" t="s">
+      <c r="C1313" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D1313" s="15" t="s">
+      <c r="D1313" s="12" t="s">
         <v>1464</v>
       </c>
-      <c r="E1313" s="16">
+      <c r="E1313" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1314" s="13">
+      <c r="A1314" s="10">
         <v>6235</v>
       </c>
-      <c r="B1314" s="14" t="s">
+      <c r="B1314" s="11" t="s">
         <v>1473</v>
       </c>
-      <c r="C1314" s="15" t="s">
+      <c r="C1314" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D1314" s="15" t="s">
+      <c r="D1314" s="12" t="s">
         <v>1074</v>
       </c>
-      <c r="E1314" s="16">
+      <c r="E1314" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1315" s="13">
+      <c r="A1315" s="10">
         <v>6236</v>
       </c>
-      <c r="B1315" s="14" t="s">
+      <c r="B1315" s="11" t="s">
         <v>1474</v>
       </c>
-      <c r="C1315" s="15" t="s">
+      <c r="C1315" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D1315" s="15" t="s">
+      <c r="D1315" s="12" t="s">
         <v>1074</v>
       </c>
-      <c r="E1315" s="16">
+      <c r="E1315" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1316" s="13">
+      <c r="A1316" s="10">
         <v>6237</v>
       </c>
-      <c r="B1316" s="14" t="s">
+      <c r="B1316" s="11" t="s">
         <v>1475</v>
       </c>
-      <c r="C1316" s="15" t="s">
+      <c r="C1316" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D1316" s="15" t="s">
+      <c r="D1316" s="12" t="s">
         <v>881</v>
       </c>
-      <c r="E1316" s="16">
+      <c r="E1316" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1317" s="13">
+        <v>6240</v>
+      </c>
+      <c r="B1317" s="14" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C1317" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1317" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1317" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1318" s="13">
+        <v>6241</v>
+      </c>
+      <c r="B1318" s="14" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C1318" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1318" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1318" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1319" s="13">
+        <v>6242</v>
+      </c>
+      <c r="B1319" s="14" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C1319" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1319" s="15" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1319" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1320" s="13">
+        <v>6243</v>
+      </c>
+      <c r="B1320" s="14" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C1320" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1320" s="15" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1320" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1321" s="13">
+        <v>6244</v>
+      </c>
+      <c r="B1321" s="14" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C1321" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1321" s="15" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1321" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1322" s="13">
+        <v>6245</v>
+      </c>
+      <c r="B1322" s="14" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C1322" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1322" s="15" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1322" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1323" s="13">
+        <v>6246</v>
+      </c>
+      <c r="B1323" s="14" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C1323" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1323" s="15" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1323" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1324" s="13">
+        <v>6247</v>
+      </c>
+      <c r="B1324" s="14" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C1324" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1324" s="15" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1324" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1325" s="13">
+        <v>6248</v>
+      </c>
+      <c r="B1325" s="14" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C1325" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1325" s="15" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E1325" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1326" s="13">
+        <v>6249</v>
+      </c>
+      <c r="B1326" s="14" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C1326" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1326" s="15" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E1326" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1327" s="13">
+        <v>6250</v>
+      </c>
+      <c r="B1327" s="14" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C1327" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1327" s="15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E1327" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1328" s="13">
+        <v>6251</v>
+      </c>
+      <c r="B1328" s="14" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C1328" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1328" s="15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E1328" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1329" s="13">
+        <v>6252</v>
+      </c>
+      <c r="B1329" s="14" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C1329" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1329" s="15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E1329" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1330" s="13">
+        <v>6253</v>
+      </c>
+      <c r="B1330" s="14" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C1330" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1330" s="15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E1330" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1331" s="13">
+        <v>6254</v>
+      </c>
+      <c r="B1331" s="14" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C1331" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1331" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="E1331" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1332" s="13">
+        <v>80051</v>
+      </c>
+      <c r="B1332" s="14" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C1332" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1332" s="15" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E1332" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1333" s="13">
+        <v>80052</v>
+      </c>
+      <c r="B1333" s="14" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C1333" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1333" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1333" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1334" s="13">
+        <v>80053</v>
+      </c>
+      <c r="B1334" s="14" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C1334" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1334" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1334" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1335" s="13">
+        <v>80054</v>
+      </c>
+      <c r="B1335" s="14" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C1335" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1335" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1335" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1336" s="13">
+        <v>6182</v>
+      </c>
+      <c r="B1336" s="14" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C1336" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1336" s="15" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E1336" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1337" s="13">
+        <v>6226</v>
+      </c>
+      <c r="B1337" s="14" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C1337" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1337" s="15" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E1337" s="16">
         <v>1</v>
       </c>
     </row>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\Employee - SFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67C5744-4974-45C2-BF86-52A680FA4D2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF5C0ED-8DC5-48EA-9B1B-D385F4E2672C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AEA6A1DC-F652-4756-A6AC-A4373A729D46}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8395" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="1511">
   <si>
     <t>EmpID</t>
   </si>
@@ -4528,6 +4528,39 @@
   </si>
   <si>
     <t>SANDEEP VITTHAL  SHINDE</t>
+  </si>
+  <si>
+    <t>BUNTHAN  BUTTALAT</t>
+  </si>
+  <si>
+    <t>PERAPOL  MONGPOE</t>
+  </si>
+  <si>
+    <t>WASSANA  PRAEKHAO</t>
+  </si>
+  <si>
+    <t>WATCHARA  THIANSAEN</t>
+  </si>
+  <si>
+    <t>JANTAWAN  KHUNNEM</t>
+  </si>
+  <si>
+    <t>TOM  BOONYARIT</t>
+  </si>
+  <si>
+    <t>SUMITTA  SIKHAM</t>
+  </si>
+  <si>
+    <t>CHONTHICHA  SOMBOON</t>
+  </si>
+  <si>
+    <t>OATCHARA  ANUYAHONG</t>
+  </si>
+  <si>
+    <t>THIPYADA  GLAOGAM</t>
+  </si>
+  <si>
+    <t>MAWIN  TUBSRI</t>
   </si>
 </sst>
 </file>
@@ -4571,7 +4604,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4592,7 +4625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4609,7 +4648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4631,12 +4670,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4951,10 +4994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E42548-D0B6-4352-8827-ABFFB6F69E7A}">
-  <dimension ref="A1:N1337"/>
+  <dimension ref="A1:N1348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1309" workbookViewId="0">
-      <selection activeCell="G1330" sqref="G1330"/>
+    <sheetView tabSelected="1" topLeftCell="A1315" workbookViewId="0">
+      <selection activeCell="B1331" sqref="B1331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15794,20 +15837,20 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="4">
+      <c r="A638" s="13">
         <v>5357</v>
       </c>
-      <c r="B638" s="4" t="s">
+      <c r="B638" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="C638" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D638" s="5" t="s">
+      <c r="C638" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D638" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E638" s="4">
-        <v>1</v>
+      <c r="E638" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
@@ -27386,359 +27429,546 @@
       </c>
     </row>
     <row r="1317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1317" s="13">
+      <c r="A1317" s="10">
         <v>6240</v>
       </c>
-      <c r="B1317" s="14" t="s">
+      <c r="B1317" s="11" t="s">
         <v>1479</v>
       </c>
-      <c r="C1317" s="15" t="s">
+      <c r="C1317" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1317" s="15" t="s">
+      <c r="D1317" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="E1317" s="16">
+      <c r="E1317" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1318" s="13">
+      <c r="A1318" s="10">
         <v>6241</v>
       </c>
-      <c r="B1318" s="14" t="s">
+      <c r="B1318" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="C1318" s="15" t="s">
+      <c r="C1318" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1318" s="15" t="s">
+      <c r="D1318" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="E1318" s="16">
+      <c r="E1318" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1319" s="13">
+      <c r="A1319" s="10">
         <v>6242</v>
       </c>
-      <c r="B1319" s="14" t="s">
+      <c r="B1319" s="11" t="s">
         <v>1481</v>
       </c>
-      <c r="C1319" s="15" t="s">
+      <c r="C1319" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1319" s="15" t="s">
+      <c r="D1319" s="12" t="s">
         <v>1476</v>
       </c>
-      <c r="E1319" s="16">
+      <c r="E1319" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1320" s="13">
+      <c r="A1320" s="10">
         <v>6243</v>
       </c>
-      <c r="B1320" s="14" t="s">
+      <c r="B1320" s="11" t="s">
         <v>1482</v>
       </c>
-      <c r="C1320" s="15" t="s">
+      <c r="C1320" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1320" s="15" t="s">
+      <c r="D1320" s="12" t="s">
         <v>1476</v>
       </c>
-      <c r="E1320" s="16">
+      <c r="E1320" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1321" s="13">
+      <c r="A1321" s="10">
         <v>6244</v>
       </c>
-      <c r="B1321" s="14" t="s">
+      <c r="B1321" s="11" t="s">
         <v>1483</v>
       </c>
-      <c r="C1321" s="15" t="s">
+      <c r="C1321" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1321" s="15" t="s">
+      <c r="D1321" s="12" t="s">
         <v>1476</v>
       </c>
-      <c r="E1321" s="16">
+      <c r="E1321" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1322" s="13">
+      <c r="A1322" s="10">
         <v>6245</v>
       </c>
-      <c r="B1322" s="14" t="s">
+      <c r="B1322" s="11" t="s">
         <v>1484</v>
       </c>
-      <c r="C1322" s="15" t="s">
+      <c r="C1322" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1322" s="15" t="s">
+      <c r="D1322" s="12" t="s">
         <v>1476</v>
       </c>
-      <c r="E1322" s="16">
+      <c r="E1322" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1323" s="13">
+      <c r="A1323" s="10">
         <v>6246</v>
       </c>
-      <c r="B1323" s="14" t="s">
+      <c r="B1323" s="11" t="s">
         <v>1485</v>
       </c>
-      <c r="C1323" s="15" t="s">
+      <c r="C1323" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1323" s="15" t="s">
+      <c r="D1323" s="12" t="s">
         <v>1476</v>
       </c>
-      <c r="E1323" s="16">
+      <c r="E1323" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1324" s="13">
+      <c r="A1324" s="10">
         <v>6247</v>
       </c>
-      <c r="B1324" s="14" t="s">
+      <c r="B1324" s="11" t="s">
         <v>1486</v>
       </c>
-      <c r="C1324" s="15" t="s">
+      <c r="C1324" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1324" s="15" t="s">
+      <c r="D1324" s="12" t="s">
         <v>1476</v>
       </c>
-      <c r="E1324" s="16">
+      <c r="E1324" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1325" s="13">
+      <c r="A1325" s="10">
         <v>6248</v>
       </c>
-      <c r="B1325" s="14" t="s">
+      <c r="B1325" s="11" t="s">
         <v>1487</v>
       </c>
-      <c r="C1325" s="15" t="s">
+      <c r="C1325" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1325" s="15" t="s">
+      <c r="D1325" s="12" t="s">
         <v>1477</v>
       </c>
-      <c r="E1325" s="16">
+      <c r="E1325" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1326" s="13">
+      <c r="A1326" s="10">
         <v>6249</v>
       </c>
-      <c r="B1326" s="14" t="s">
+      <c r="B1326" s="11" t="s">
         <v>1488</v>
       </c>
-      <c r="C1326" s="15" t="s">
+      <c r="C1326" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1326" s="15" t="s">
+      <c r="D1326" s="12" t="s">
         <v>1407</v>
       </c>
-      <c r="E1326" s="16">
+      <c r="E1326" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1327" s="13">
+      <c r="A1327" s="10">
         <v>6250</v>
       </c>
-      <c r="B1327" s="14" t="s">
+      <c r="B1327" s="11" t="s">
         <v>1489</v>
       </c>
-      <c r="C1327" s="15" t="s">
+      <c r="C1327" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1327" s="15" t="s">
+      <c r="D1327" s="12" t="s">
         <v>1387</v>
       </c>
-      <c r="E1327" s="16">
+      <c r="E1327" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1328" s="13">
+      <c r="A1328" s="10">
         <v>6251</v>
       </c>
-      <c r="B1328" s="14" t="s">
+      <c r="B1328" s="11" t="s">
         <v>1490</v>
       </c>
-      <c r="C1328" s="15" t="s">
+      <c r="C1328" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1328" s="15" t="s">
+      <c r="D1328" s="12" t="s">
         <v>1387</v>
       </c>
-      <c r="E1328" s="16">
+      <c r="E1328" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1329" s="13">
+      <c r="A1329" s="10">
         <v>6252</v>
       </c>
-      <c r="B1329" s="14" t="s">
+      <c r="B1329" s="11" t="s">
         <v>1491</v>
       </c>
-      <c r="C1329" s="15" t="s">
+      <c r="C1329" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1329" s="15" t="s">
+      <c r="D1329" s="12" t="s">
         <v>1387</v>
       </c>
-      <c r="E1329" s="16">
+      <c r="E1329" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1330" s="13">
+      <c r="A1330" s="10">
         <v>6253</v>
       </c>
-      <c r="B1330" s="14" t="s">
+      <c r="B1330" s="11" t="s">
         <v>1492</v>
       </c>
-      <c r="C1330" s="15" t="s">
+      <c r="C1330" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1330" s="15" t="s">
+      <c r="D1330" s="12" t="s">
         <v>1387</v>
       </c>
-      <c r="E1330" s="16">
+      <c r="E1330" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1331" s="13">
+      <c r="A1331" s="10">
         <v>6254</v>
       </c>
-      <c r="B1331" s="14" t="s">
+      <c r="B1331" s="11" t="s">
         <v>1493</v>
       </c>
-      <c r="C1331" s="15" t="s">
+      <c r="C1331" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D1331" s="15" t="s">
+      <c r="D1331" s="12" t="s">
         <v>881</v>
       </c>
-      <c r="E1331" s="16">
+      <c r="E1331" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1332" s="13">
+      <c r="A1332" s="10">
         <v>80051</v>
       </c>
-      <c r="B1332" s="14" t="s">
+      <c r="B1332" s="11" t="s">
         <v>1494</v>
       </c>
-      <c r="C1332" s="15" t="s">
+      <c r="C1332" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D1332" s="15" t="s">
+      <c r="D1332" s="12" t="s">
         <v>1478</v>
       </c>
-      <c r="E1332" s="16">
+      <c r="E1332" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1333" s="13">
+      <c r="A1333" s="10">
         <v>80052</v>
       </c>
-      <c r="B1333" s="14" t="s">
+      <c r="B1333" s="11" t="s">
         <v>1495</v>
       </c>
-      <c r="C1333" s="15" t="s">
+      <c r="C1333" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1333" s="15" t="s">
+      <c r="D1333" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1333" s="16">
+      <c r="E1333" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1334" s="13">
+      <c r="A1334" s="10">
         <v>80053</v>
       </c>
-      <c r="B1334" s="14" t="s">
+      <c r="B1334" s="11" t="s">
         <v>1496</v>
       </c>
-      <c r="C1334" s="15" t="s">
+      <c r="C1334" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1334" s="15" t="s">
+      <c r="D1334" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1334" s="16">
+      <c r="E1334" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1335" s="13">
+      <c r="A1335" s="10">
         <v>80054</v>
       </c>
-      <c r="B1335" s="14" t="s">
+      <c r="B1335" s="11" t="s">
         <v>1497</v>
       </c>
-      <c r="C1335" s="15" t="s">
+      <c r="C1335" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D1335" s="15" t="s">
+      <c r="D1335" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E1335" s="16">
+      <c r="E1335" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1336" s="13">
+      <c r="A1336" s="10">
         <v>6182</v>
       </c>
-      <c r="B1336" s="14" t="s">
+      <c r="B1336" s="11" t="s">
         <v>1498</v>
       </c>
-      <c r="C1336" s="15" t="s">
+      <c r="C1336" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1336" s="15" t="s">
+      <c r="D1336" s="12" t="s">
         <v>1407</v>
       </c>
-      <c r="E1336" s="16">
+      <c r="E1336" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1337" s="13">
+      <c r="A1337" s="10">
         <v>6226</v>
       </c>
-      <c r="B1337" s="14" t="s">
+      <c r="B1337" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="C1337" s="15" t="s">
+      <c r="C1337" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1337" s="15" t="s">
+      <c r="D1337" s="12" t="s">
         <v>1407</v>
       </c>
-      <c r="E1337" s="16">
+      <c r="E1337" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1338" s="15">
+        <v>6255</v>
+      </c>
+      <c r="B1338" s="16" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C1338" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1338" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1338" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1339" s="15">
+        <v>6256</v>
+      </c>
+      <c r="B1339" s="16" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C1339" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1339" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1339" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1340" s="15">
+        <v>6257</v>
+      </c>
+      <c r="B1340" s="16" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C1340" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1340" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1340" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1341" s="15">
+        <v>6258</v>
+      </c>
+      <c r="B1341" s="16" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C1341" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1341" s="17" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E1341" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1342" s="15">
+        <v>6259</v>
+      </c>
+      <c r="B1342" s="16" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C1342" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1342" s="17" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1342" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1343" s="15">
+        <v>6260</v>
+      </c>
+      <c r="B1343" s="16" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C1343" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1343" s="17" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1343" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1344" s="15">
+        <v>6261</v>
+      </c>
+      <c r="B1344" s="16" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C1344" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1344" s="17" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1344" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1345" s="15">
+        <v>6262</v>
+      </c>
+      <c r="B1345" s="16" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C1345" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1345" s="17" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1345" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1346" s="15">
+        <v>6263</v>
+      </c>
+      <c r="B1346" s="16" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C1346" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1346" s="17" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E1346" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1347" s="15">
+        <v>6264</v>
+      </c>
+      <c r="B1347" s="16" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C1347" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1347" s="17" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E1347" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1348" s="15">
+        <v>6265</v>
+      </c>
+      <c r="B1348" s="16" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C1348" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1348" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="E1348" s="18">
         <v>1</v>
       </c>
     </row>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\Employee - SFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF5C0ED-8DC5-48EA-9B1B-D385F4E2672C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB28E03-F023-4BDA-A96E-B817B4B17BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AEA6A1DC-F652-4756-A6AC-A4373A729D46}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1348</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="1511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4127" uniqueCount="1540">
   <si>
     <t>EmpID</t>
   </si>
@@ -4561,6 +4561,93 @@
   </si>
   <si>
     <t>MAWIN  TUBSRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL </t>
+  </si>
+  <si>
+    <t>SUPHAPORN  SOISOMSRI</t>
+  </si>
+  <si>
+    <t>SAWINI  ARTBURAI</t>
+  </si>
+  <si>
+    <t>CHAIYAKORN  LEAUHIRUN</t>
+  </si>
+  <si>
+    <t>THANAKON  TECHANOI</t>
+  </si>
+  <si>
+    <t>ARPRONPAN  INTASON</t>
+  </si>
+  <si>
+    <t>ANUKUN  INTHASON</t>
+  </si>
+  <si>
+    <t>HATHAIPHAT  TIWAWILAI</t>
+  </si>
+  <si>
+    <t>NATLADA  SINGYAI</t>
+  </si>
+  <si>
+    <t>MUDWAII  NUCHSUP</t>
+  </si>
+  <si>
+    <t>RITTICHAI  SIRIWONG</t>
+  </si>
+  <si>
+    <t>SUDARAT  PHOPAYAK</t>
+  </si>
+  <si>
+    <t>BUNYALAK  PHOTHICHAN</t>
+  </si>
+  <si>
+    <t>SITTICHAI  WANJAI</t>
+  </si>
+  <si>
+    <t>AMONRAT  ONTHAWON</t>
+  </si>
+  <si>
+    <t>SUPITCHA  SILATHAEN</t>
+  </si>
+  <si>
+    <t>NOPPANAN  PINSANG</t>
+  </si>
+  <si>
+    <t>PORNSUDA  LAMLOES</t>
+  </si>
+  <si>
+    <t>THANACHOT  SANGSOM</t>
+  </si>
+  <si>
+    <t>NILAWAN  WANOON</t>
+  </si>
+  <si>
+    <t>ADISAK  THONGCHAN</t>
+  </si>
+  <si>
+    <t>BORWORNRAT  BOONYADIT</t>
+  </si>
+  <si>
+    <t>EAKAWIT  WONGSASON</t>
+  </si>
+  <si>
+    <t>WISANUCHAI  SEETHONG</t>
+  </si>
+  <si>
+    <t>SONGYOOT  SAMPAO</t>
+  </si>
+  <si>
+    <t>CHIRATCHAYA  KAEWRUNG</t>
+  </si>
+  <si>
+    <t>PRATTANA  SRIMUANG</t>
+  </si>
+  <si>
+    <t>CHONTICHA  KUACHUAY</t>
   </si>
 </sst>
 </file>
@@ -4604,7 +4691,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4625,13 +4712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4648,7 +4729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4670,16 +4751,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4994,10 +5076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E42548-D0B6-4352-8827-ABFFB6F69E7A}">
-  <dimension ref="A1:N1348"/>
+  <dimension ref="A1:N1375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1315" workbookViewId="0">
-      <selection activeCell="B1331" sqref="B1331"/>
+    <sheetView tabSelected="1" topLeftCell="A1338" workbookViewId="0">
+      <selection activeCell="E1357" sqref="E1357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15837,19 +15919,19 @@
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A638" s="13">
+      <c r="A638" s="2">
         <v>5357</v>
       </c>
-      <c r="B638" s="13" t="s">
+      <c r="B638" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C638" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D638" s="14" t="s">
+      <c r="C638" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D638" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E638" s="13">
+      <c r="E638" s="2">
         <v>0</v>
       </c>
     </row>
@@ -27786,194 +27868,653 @@
       </c>
     </row>
     <row r="1338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1338" s="15">
+      <c r="A1338" s="13">
         <v>6255</v>
       </c>
-      <c r="B1338" s="16" t="s">
+      <c r="B1338" s="14" t="s">
         <v>1500</v>
       </c>
-      <c r="C1338" s="17" t="s">
+      <c r="C1338" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1338" s="17" t="s">
+      <c r="D1338" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="E1338" s="18">
+      <c r="E1338" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1339" s="15">
+      <c r="A1339" s="13">
         <v>6256</v>
       </c>
-      <c r="B1339" s="16" t="s">
+      <c r="B1339" s="14" t="s">
         <v>1501</v>
       </c>
-      <c r="C1339" s="17" t="s">
+      <c r="C1339" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1339" s="17" t="s">
+      <c r="D1339" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="E1339" s="18">
+      <c r="E1339" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1340" s="15">
+      <c r="A1340" s="13">
         <v>6257</v>
       </c>
-      <c r="B1340" s="16" t="s">
+      <c r="B1340" s="14" t="s">
         <v>1502</v>
       </c>
-      <c r="C1340" s="17" t="s">
+      <c r="C1340" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1340" s="17" t="s">
+      <c r="D1340" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="E1340" s="18">
+      <c r="E1340" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1341" s="15">
+      <c r="A1341" s="13">
         <v>6258</v>
       </c>
-      <c r="B1341" s="16" t="s">
+      <c r="B1341" s="14" t="s">
         <v>1503</v>
       </c>
-      <c r="C1341" s="17" t="s">
+      <c r="C1341" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1341" s="17" t="s">
+      <c r="D1341" s="15" t="s">
         <v>1477</v>
       </c>
-      <c r="E1341" s="18">
+      <c r="E1341" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1342" s="15">
+      <c r="A1342" s="13">
         <v>6259</v>
       </c>
-      <c r="B1342" s="16" t="s">
+      <c r="B1342" s="14" t="s">
         <v>1504</v>
       </c>
-      <c r="C1342" s="17" t="s">
+      <c r="C1342" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1342" s="17" t="s">
+      <c r="D1342" s="15" t="s">
         <v>1476</v>
       </c>
-      <c r="E1342" s="18">
+      <c r="E1342" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1343" s="15">
+      <c r="A1343" s="13">
         <v>6260</v>
       </c>
-      <c r="B1343" s="16" t="s">
+      <c r="B1343" s="14" t="s">
         <v>1505</v>
       </c>
-      <c r="C1343" s="17" t="s">
+      <c r="C1343" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1343" s="17" t="s">
+      <c r="D1343" s="15" t="s">
         <v>1476</v>
       </c>
-      <c r="E1343" s="18">
+      <c r="E1343" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1344" s="15">
+      <c r="A1344" s="13">
         <v>6261</v>
       </c>
-      <c r="B1344" s="16" t="s">
+      <c r="B1344" s="14" t="s">
         <v>1506</v>
       </c>
-      <c r="C1344" s="17" t="s">
+      <c r="C1344" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1344" s="17" t="s">
+      <c r="D1344" s="15" t="s">
         <v>1476</v>
       </c>
-      <c r="E1344" s="18">
+      <c r="E1344" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1345" s="15">
+      <c r="A1345" s="13">
         <v>6262</v>
       </c>
-      <c r="B1345" s="16" t="s">
+      <c r="B1345" s="14" t="s">
         <v>1507</v>
       </c>
-      <c r="C1345" s="17" t="s">
+      <c r="C1345" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1345" s="17" t="s">
+      <c r="D1345" s="15" t="s">
         <v>1476</v>
       </c>
-      <c r="E1345" s="18">
+      <c r="E1345" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1346" s="15">
+      <c r="A1346" s="13">
         <v>6263</v>
       </c>
-      <c r="B1346" s="16" t="s">
+      <c r="B1346" s="14" t="s">
         <v>1508</v>
       </c>
-      <c r="C1346" s="17" t="s">
+      <c r="C1346" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1346" s="17" t="s">
+      <c r="D1346" s="15" t="s">
         <v>1407</v>
       </c>
-      <c r="E1346" s="18">
+      <c r="E1346" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1347" s="15">
+      <c r="A1347" s="13">
         <v>6264</v>
       </c>
-      <c r="B1347" s="16" t="s">
+      <c r="B1347" s="14" t="s">
         <v>1509</v>
       </c>
-      <c r="C1347" s="17" t="s">
+      <c r="C1347" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1347" s="17" t="s">
+      <c r="D1347" s="15" t="s">
         <v>1379</v>
       </c>
-      <c r="E1347" s="18">
+      <c r="E1347" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1348" s="15">
+      <c r="A1348" s="13">
         <v>6265</v>
       </c>
-      <c r="B1348" s="16" t="s">
+      <c r="B1348" s="14" t="s">
         <v>1510</v>
       </c>
-      <c r="C1348" s="17" t="s">
+      <c r="C1348" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1348" s="17" t="s">
+      <c r="D1348" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="E1348" s="18">
+      <c r="E1348" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1349" s="16">
+        <v>6269</v>
+      </c>
+      <c r="B1349" s="17" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1349" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1349" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1349" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1350" s="16">
+        <v>6270</v>
+      </c>
+      <c r="B1350" s="17" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C1350" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1350" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1350" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1351" s="16">
+        <v>6271</v>
+      </c>
+      <c r="B1351" s="17" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C1351" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1351" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1351" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1352" s="16">
+        <v>6272</v>
+      </c>
+      <c r="B1352" s="17" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C1352" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1352" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1352" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1353" s="16">
+        <v>6273</v>
+      </c>
+      <c r="B1353" s="17" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1353" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1353" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1353" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1354" s="16">
+        <v>6274</v>
+      </c>
+      <c r="B1354" s="17" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C1354" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1354" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1354" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1355" s="16">
+        <v>6275</v>
+      </c>
+      <c r="B1355" s="17" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C1355" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1355" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1355" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1356" s="16">
+        <v>6276</v>
+      </c>
+      <c r="B1356" s="17" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C1356" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1356" s="18" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E1356" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1357" s="16">
+        <v>6277</v>
+      </c>
+      <c r="B1357" s="17" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C1357" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1357" s="18" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E1357" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1358" s="16">
+        <v>6278</v>
+      </c>
+      <c r="B1358" s="17" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1358" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1358" s="18" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E1358" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1359" s="16">
+        <v>6279</v>
+      </c>
+      <c r="B1359" s="17" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C1359" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1359" s="18" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E1359" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1360" s="16">
+        <v>6280</v>
+      </c>
+      <c r="B1360" s="17" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C1360" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1360" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1360" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1361" s="16">
+        <v>6281</v>
+      </c>
+      <c r="B1361" s="17" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C1361" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1361" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="E1361" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1362" s="16">
+        <v>6282</v>
+      </c>
+      <c r="B1362" s="17" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C1362" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1362" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="E1362" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1363" s="16">
+        <v>6283</v>
+      </c>
+      <c r="B1363" s="17" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C1363" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1363" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="E1363" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1364" s="16">
+        <v>6284</v>
+      </c>
+      <c r="B1364" s="17" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C1364" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1364" s="18" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E1364" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1365" s="16">
+        <v>6285</v>
+      </c>
+      <c r="B1365" s="17" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C1365" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1365" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1365" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1366" s="16">
+        <v>6286</v>
+      </c>
+      <c r="B1366" s="17" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C1366" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1366" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1366" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1367" s="16">
+        <v>6287</v>
+      </c>
+      <c r="B1367" s="17" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C1367" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1367" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1367" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1368" s="16">
+        <v>6288</v>
+      </c>
+      <c r="B1368" s="17" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C1368" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1368" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1368" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1369" s="16">
+        <v>6289</v>
+      </c>
+      <c r="B1369" s="17" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C1369" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1369" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1369" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1370" s="16">
+        <v>6290</v>
+      </c>
+      <c r="B1370" s="17" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C1370" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1370" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1370" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1371" s="16">
+        <v>6291</v>
+      </c>
+      <c r="B1371" s="17" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C1371" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1371" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1371" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1372" s="16">
+        <v>6292</v>
+      </c>
+      <c r="B1372" s="17" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C1372" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1372" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1372" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1373" s="16">
+        <v>6293</v>
+      </c>
+      <c r="B1373" s="17" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C1373" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1373" s="18" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E1373" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1374" s="16">
+        <v>6294</v>
+      </c>
+      <c r="B1374" s="17" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C1374" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1374" s="18" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E1374" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1375" s="16">
+        <v>6295</v>
+      </c>
+      <c r="B1375" s="17" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1375" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1375" s="18" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E1375" s="19">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1316" xr:uid="{6B2167CF-FA61-42C9-8AD8-0B4C36BB88A7}"/>
+  <autoFilter ref="A1:E1348" xr:uid="{6B2167CF-FA61-42C9-8AD8-0B4C36BB88A7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\Employee - SFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB28E03-F023-4BDA-A96E-B817B4B17BCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9D287F-0B1C-400A-8687-B45A31BA6B32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AEA6A1DC-F652-4756-A6AC-A4373A729D46}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4127" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4193" uniqueCount="1563">
   <si>
     <t>EmpID</t>
   </si>
@@ -4648,13 +4648,82 @@
   </si>
   <si>
     <t>CHONTICHA  KUACHUAY</t>
+  </si>
+  <si>
+    <t>AD-SER</t>
+  </si>
+  <si>
+    <t>PRISANA  TONGSANTEI</t>
+  </si>
+  <si>
+    <t>SASITORN  JANJAEM</t>
+  </si>
+  <si>
+    <t>PIYAPHONG  KHUPHONG</t>
+  </si>
+  <si>
+    <t>THITAPHA  OUDSUAN</t>
+  </si>
+  <si>
+    <t>YUWADEE  KONGPAOPONG</t>
+  </si>
+  <si>
+    <t>OANCHARIKA  SUTHAMMA</t>
+  </si>
+  <si>
+    <t>SUTHI  NGONNGOEN</t>
+  </si>
+  <si>
+    <t>MONGKHON  CHOEMKRACHAE</t>
+  </si>
+  <si>
+    <t>JARUGIT  TONGDANG</t>
+  </si>
+  <si>
+    <t>PORNLAPAS  YOMSIN</t>
+  </si>
+  <si>
+    <t>NIRUN  SUKNA</t>
+  </si>
+  <si>
+    <t>SUPANEE  HIRANPERM</t>
+  </si>
+  <si>
+    <t>NAHATHAI  JUEY</t>
+  </si>
+  <si>
+    <t>TINNAPHOP  BUTDAWONG</t>
+  </si>
+  <si>
+    <t>TITA  SAENGWIROT</t>
+  </si>
+  <si>
+    <t>WANWISA  CHATPUK</t>
+  </si>
+  <si>
+    <t>RATTANACHOK  KLIPKARAKET</t>
+  </si>
+  <si>
+    <t>PANNAPRAD  RUNGCHAT</t>
+  </si>
+  <si>
+    <t>KITTIPHAT  PENGJAEM</t>
+  </si>
+  <si>
+    <t>NIPAPORN  LEKON</t>
+  </si>
+  <si>
+    <t>PURIM  KONGSAENG</t>
+  </si>
+  <si>
+    <t>SUTASINEE  JINDASRI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4690,6 +4759,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4712,7 +4788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4729,7 +4805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4756,12 +4832,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5076,10 +5155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E42548-D0B6-4352-8827-ABFFB6F69E7A}">
-  <dimension ref="A1:N1375"/>
+  <dimension ref="A1:N1397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1338" workbookViewId="0">
-      <selection activeCell="E1357" sqref="E1357"/>
+    <sheetView tabSelected="1" topLeftCell="A1367" workbookViewId="0">
+      <selection activeCell="B1398" sqref="B1398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28055,461 +28134,835 @@
       </c>
     </row>
     <row r="1349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1349" s="16">
+      <c r="A1349" s="13">
         <v>6269</v>
       </c>
-      <c r="B1349" s="17" t="s">
+      <c r="B1349" s="14" t="s">
         <v>1513</v>
       </c>
-      <c r="C1349" s="18" t="s">
+      <c r="C1349" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1349" s="18" t="s">
+      <c r="D1349" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E1349" s="19">
+      <c r="E1349" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1350" s="16">
+      <c r="A1350" s="13">
         <v>6270</v>
       </c>
-      <c r="B1350" s="17" t="s">
+      <c r="B1350" s="14" t="s">
         <v>1514</v>
       </c>
-      <c r="C1350" s="18" t="s">
+      <c r="C1350" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1350" s="18" t="s">
+      <c r="D1350" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E1350" s="19">
+      <c r="E1350" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1351" s="16">
+      <c r="A1351" s="13">
         <v>6271</v>
       </c>
-      <c r="B1351" s="17" t="s">
+      <c r="B1351" s="14" t="s">
         <v>1515</v>
       </c>
-      <c r="C1351" s="18" t="s">
+      <c r="C1351" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1351" s="18" t="s">
+      <c r="D1351" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E1351" s="19">
+      <c r="E1351" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1352" s="16">
+      <c r="A1352" s="13">
         <v>6272</v>
       </c>
-      <c r="B1352" s="17" t="s">
+      <c r="B1352" s="14" t="s">
         <v>1516</v>
       </c>
-      <c r="C1352" s="18" t="s">
+      <c r="C1352" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1352" s="18" t="s">
+      <c r="D1352" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E1352" s="19">
+      <c r="E1352" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1353" s="16">
+      <c r="A1353" s="13">
         <v>6273</v>
       </c>
-      <c r="B1353" s="17" t="s">
+      <c r="B1353" s="14" t="s">
         <v>1517</v>
       </c>
-      <c r="C1353" s="18" t="s">
+      <c r="C1353" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1353" s="18" t="s">
+      <c r="D1353" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E1353" s="19">
+      <c r="E1353" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1354" s="16">
+      <c r="A1354" s="13">
         <v>6274</v>
       </c>
-      <c r="B1354" s="17" t="s">
+      <c r="B1354" s="14" t="s">
         <v>1518</v>
       </c>
-      <c r="C1354" s="18" t="s">
+      <c r="C1354" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1354" s="18" t="s">
+      <c r="D1354" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E1354" s="19">
+      <c r="E1354" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1355" s="16">
+      <c r="A1355" s="13">
         <v>6275</v>
       </c>
-      <c r="B1355" s="17" t="s">
+      <c r="B1355" s="14" t="s">
         <v>1519</v>
       </c>
-      <c r="C1355" s="18" t="s">
+      <c r="C1355" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1355" s="18" t="s">
+      <c r="D1355" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E1355" s="19">
+      <c r="E1355" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1356" s="16">
+      <c r="A1356" s="13">
         <v>6276</v>
       </c>
-      <c r="B1356" s="17" t="s">
+      <c r="B1356" s="14" t="s">
         <v>1520</v>
       </c>
-      <c r="C1356" s="18" t="s">
+      <c r="C1356" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1356" s="18" t="s">
+      <c r="D1356" s="15" t="s">
         <v>1511</v>
       </c>
-      <c r="E1356" s="19">
+      <c r="E1356" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1357" s="16">
+      <c r="A1357" s="13">
         <v>6277</v>
       </c>
-      <c r="B1357" s="17" t="s">
+      <c r="B1357" s="14" t="s">
         <v>1521</v>
       </c>
-      <c r="C1357" s="18" t="s">
+      <c r="C1357" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1357" s="18" t="s">
+      <c r="D1357" s="15" t="s">
         <v>1387</v>
       </c>
-      <c r="E1357" s="19">
+      <c r="E1357" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1358" s="16">
+      <c r="A1358" s="13">
         <v>6278</v>
       </c>
-      <c r="B1358" s="17" t="s">
+      <c r="B1358" s="14" t="s">
         <v>1522</v>
       </c>
-      <c r="C1358" s="18" t="s">
+      <c r="C1358" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1358" s="18" t="s">
+      <c r="D1358" s="15" t="s">
         <v>1387</v>
       </c>
-      <c r="E1358" s="19">
+      <c r="E1358" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1359" s="16">
+      <c r="A1359" s="13">
         <v>6279</v>
       </c>
-      <c r="B1359" s="17" t="s">
+      <c r="B1359" s="14" t="s">
         <v>1523</v>
       </c>
-      <c r="C1359" s="18" t="s">
+      <c r="C1359" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1359" s="18" t="s">
+      <c r="D1359" s="15" t="s">
         <v>1387</v>
       </c>
-      <c r="E1359" s="19">
+      <c r="E1359" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1360" s="16">
+      <c r="A1360" s="13">
         <v>6280</v>
       </c>
-      <c r="B1360" s="17" t="s">
+      <c r="B1360" s="14" t="s">
         <v>1524</v>
       </c>
-      <c r="C1360" s="18" t="s">
+      <c r="C1360" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1360" s="18" t="s">
+      <c r="D1360" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="E1360" s="19">
+      <c r="E1360" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1361" s="16">
+      <c r="A1361" s="13">
         <v>6281</v>
       </c>
-      <c r="B1361" s="17" t="s">
+      <c r="B1361" s="14" t="s">
         <v>1525</v>
       </c>
-      <c r="C1361" s="18" t="s">
+      <c r="C1361" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1361" s="18" t="s">
+      <c r="D1361" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="E1361" s="19">
+      <c r="E1361" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1362" s="16">
+      <c r="A1362" s="13">
         <v>6282</v>
       </c>
-      <c r="B1362" s="17" t="s">
+      <c r="B1362" s="14" t="s">
         <v>1526</v>
       </c>
-      <c r="C1362" s="18" t="s">
+      <c r="C1362" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1362" s="18" t="s">
+      <c r="D1362" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="E1362" s="19">
+      <c r="E1362" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1363" s="16">
+      <c r="A1363" s="13">
         <v>6283</v>
       </c>
-      <c r="B1363" s="17" t="s">
+      <c r="B1363" s="14" t="s">
         <v>1527</v>
       </c>
-      <c r="C1363" s="18" t="s">
+      <c r="C1363" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1363" s="18" t="s">
+      <c r="D1363" s="15" t="s">
         <v>881</v>
       </c>
-      <c r="E1363" s="19">
+      <c r="E1363" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1364" s="16">
+      <c r="A1364" s="13">
         <v>6284</v>
       </c>
-      <c r="B1364" s="17" t="s">
+      <c r="B1364" s="14" t="s">
         <v>1528</v>
       </c>
-      <c r="C1364" s="18" t="s">
+      <c r="C1364" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D1364" s="18" t="s">
+      <c r="D1364" s="15" t="s">
         <v>1074</v>
       </c>
-      <c r="E1364" s="19">
+      <c r="E1364" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1365" s="16">
+      <c r="A1365" s="13">
         <v>6285</v>
       </c>
-      <c r="B1365" s="17" t="s">
+      <c r="B1365" s="14" t="s">
         <v>1529</v>
       </c>
-      <c r="C1365" s="18" t="s">
+      <c r="C1365" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D1365" s="18" t="s">
+      <c r="D1365" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E1365" s="19">
+      <c r="E1365" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1366" s="16">
+      <c r="A1366" s="13">
         <v>6286</v>
       </c>
-      <c r="B1366" s="17" t="s">
+      <c r="B1366" s="14" t="s">
         <v>1530</v>
       </c>
-      <c r="C1366" s="18" t="s">
+      <c r="C1366" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D1366" s="18" t="s">
+      <c r="D1366" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E1366" s="19">
+      <c r="E1366" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1367" s="16">
+      <c r="A1367" s="13">
         <v>6287</v>
       </c>
-      <c r="B1367" s="17" t="s">
+      <c r="B1367" s="14" t="s">
         <v>1531</v>
       </c>
-      <c r="C1367" s="18" t="s">
+      <c r="C1367" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D1367" s="18" t="s">
+      <c r="D1367" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E1367" s="19">
+      <c r="E1367" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1368" s="16">
+      <c r="A1368" s="13">
         <v>6288</v>
       </c>
-      <c r="B1368" s="17" t="s">
+      <c r="B1368" s="14" t="s">
         <v>1532</v>
       </c>
-      <c r="C1368" s="18" t="s">
+      <c r="C1368" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1368" s="18" t="s">
+      <c r="D1368" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E1368" s="19">
+      <c r="E1368" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1369" s="16">
+      <c r="A1369" s="13">
         <v>6289</v>
       </c>
-      <c r="B1369" s="17" t="s">
+      <c r="B1369" s="14" t="s">
         <v>1533</v>
       </c>
-      <c r="C1369" s="18" t="s">
+      <c r="C1369" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D1369" s="18" t="s">
+      <c r="D1369" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E1369" s="19">
+      <c r="E1369" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1370" s="16">
+      <c r="A1370" s="13">
         <v>6290</v>
       </c>
-      <c r="B1370" s="17" t="s">
+      <c r="B1370" s="14" t="s">
         <v>1534</v>
       </c>
-      <c r="C1370" s="18" t="s">
+      <c r="C1370" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D1370" s="18" t="s">
+      <c r="D1370" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E1370" s="19">
+      <c r="E1370" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1371" s="16">
+      <c r="A1371" s="13">
         <v>6291</v>
       </c>
-      <c r="B1371" s="17" t="s">
+      <c r="B1371" s="14" t="s">
         <v>1535</v>
       </c>
-      <c r="C1371" s="18" t="s">
+      <c r="C1371" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D1371" s="18" t="s">
+      <c r="D1371" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="E1371" s="19">
+      <c r="E1371" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1372" s="16">
+      <c r="A1372" s="13">
         <v>6292</v>
       </c>
-      <c r="B1372" s="17" t="s">
+      <c r="B1372" s="14" t="s">
         <v>1536</v>
       </c>
-      <c r="C1372" s="18" t="s">
+      <c r="C1372" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D1372" s="18" t="s">
+      <c r="D1372" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E1372" s="19">
+      <c r="E1372" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1373" s="16">
+      <c r="A1373" s="13">
         <v>6293</v>
       </c>
-      <c r="B1373" s="17" t="s">
+      <c r="B1373" s="14" t="s">
         <v>1537</v>
       </c>
-      <c r="C1373" s="18" t="s">
+      <c r="C1373" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D1373" s="18" t="s">
+      <c r="D1373" s="15" t="s">
         <v>1512</v>
       </c>
-      <c r="E1373" s="19">
+      <c r="E1373" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1374" s="16">
+      <c r="A1374" s="13">
         <v>6294</v>
       </c>
-      <c r="B1374" s="17" t="s">
+      <c r="B1374" s="14" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1374" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1374" s="15" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E1374" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1375" s="13">
+        <v>6295</v>
+      </c>
+      <c r="B1375" s="14" t="s">
         <v>1538</v>
       </c>
-      <c r="C1374" s="18" t="s">
+      <c r="C1375" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1374" s="18" t="s">
+      <c r="D1375" s="15" t="s">
         <v>1511</v>
       </c>
-      <c r="E1374" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1375" s="16">
-        <v>6295</v>
-      </c>
-      <c r="B1375" s="17" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C1375" s="18" t="s">
+      <c r="E1375" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1376" s="13">
+        <v>6296</v>
+      </c>
+      <c r="B1376" s="14" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C1376" s="15" t="s">
         <v>1376</v>
       </c>
-      <c r="D1375" s="18" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E1375" s="19">
+      <c r="D1376" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1376" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1377" s="13">
+        <v>6297</v>
+      </c>
+      <c r="B1377" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C1377" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1377" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1377" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1378" s="13">
+        <v>6298</v>
+      </c>
+      <c r="B1378" s="14" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C1378" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1378" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1378" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1379" s="13">
+        <v>6299</v>
+      </c>
+      <c r="B1379" s="14" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C1379" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1379" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1379" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1380" s="13">
+        <v>6300</v>
+      </c>
+      <c r="B1380" s="14" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C1380" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1380" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1380" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1381" s="13">
+        <v>6301</v>
+      </c>
+      <c r="B1381" s="14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C1381" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1381" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1381" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1382" s="13">
+        <v>6302</v>
+      </c>
+      <c r="B1382" s="14" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C1382" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1382" s="15" t="s">
+        <v>881</v>
+      </c>
+      <c r="E1382" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1383" s="13">
+        <v>6303</v>
+      </c>
+      <c r="B1383" s="14" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C1383" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1383" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1383" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1384" s="13">
+        <v>6304</v>
+      </c>
+      <c r="B1384" s="14" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C1384" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1384" s="15" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E1384" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1385" s="13">
+        <v>6305</v>
+      </c>
+      <c r="B1385" s="14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C1385" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1385" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1385" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1386" s="13">
+        <v>80055</v>
+      </c>
+      <c r="B1386" s="14" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C1386" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1386" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1386" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1387" s="13">
+        <v>80056</v>
+      </c>
+      <c r="B1387" s="14" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C1387" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1387" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1387" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1388" s="13">
+        <v>6308</v>
+      </c>
+      <c r="B1388" s="14" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C1388" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1388" s="15" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E1388" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1389" s="13">
+        <v>6309</v>
+      </c>
+      <c r="B1389" s="14" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C1389" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1389" s="15" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E1389" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1390" s="13">
+        <v>6310</v>
+      </c>
+      <c r="B1390" s="14" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C1390" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1390" s="15" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E1390" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1391" s="13">
+        <v>6311</v>
+      </c>
+      <c r="B1391" s="14" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C1391" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1391" s="15" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E1391" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1392" s="13">
+        <v>81008</v>
+      </c>
+      <c r="B1392" s="14" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C1392" s="15" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1392" s="15" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E1392" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1393" s="17">
+        <v>81009</v>
+      </c>
+      <c r="B1393" s="17" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C1393" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1393" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1393" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1394" s="17">
+        <v>81010</v>
+      </c>
+      <c r="B1394" s="17" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C1394" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1394" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1394" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1395" s="17">
+        <v>81011</v>
+      </c>
+      <c r="B1395" s="17" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C1395" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1395" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1395" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1396" s="20">
+        <v>6313</v>
+      </c>
+      <c r="B1396" s="17" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C1396" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1396" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1396" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1397" s="20">
+        <v>6314</v>
+      </c>
+      <c r="B1397" s="17" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C1397" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1397" s="18" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E1397" s="19">
         <v>1</v>
       </c>
     </row>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\Employee - SFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9D287F-0B1C-400A-8687-B45A31BA6B32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C83976-6272-4C6A-ADCB-2F36D301F4A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AEA6A1DC-F652-4756-A6AC-A4373A729D46}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1348</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1413</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4193" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8845" uniqueCount="1581">
   <si>
     <t>EmpID</t>
   </si>
@@ -4717,13 +4717,67 @@
   </si>
   <si>
     <t>SUTASINEE  JINDASRI</t>
+  </si>
+  <si>
+    <t>KITTITUCH  KAEWPINGCHAI</t>
+  </si>
+  <si>
+    <t>APHISIT  CHANPANYA</t>
+  </si>
+  <si>
+    <t>THANIDA  SENAKHAN</t>
+  </si>
+  <si>
+    <t>PHUMIN  DUANGTADAM</t>
+  </si>
+  <si>
+    <t>SIRIWAPA  JUNLEK</t>
+  </si>
+  <si>
+    <t>KANTIDA  PHUENGCHEEN</t>
+  </si>
+  <si>
+    <t>SUPHAPHON  KHAMSING</t>
+  </si>
+  <si>
+    <t>VUTTHICHAI  UTHAI</t>
+  </si>
+  <si>
+    <t>ORASA  SUAIKANG</t>
+  </si>
+  <si>
+    <t>WANNISA  SORDTA</t>
+  </si>
+  <si>
+    <t>RATTANA  YONGYAUNGPAN</t>
+  </si>
+  <si>
+    <t>SANTHOSHKUMAR  VIJAYARUMU</t>
+  </si>
+  <si>
+    <t>KHAJA HUSSAIN  GAJULA</t>
+  </si>
+  <si>
+    <t>HARISH  ADIVEPPA KURTAKOTI</t>
+  </si>
+  <si>
+    <t>MRITYUNJAY  SINGH</t>
+  </si>
+  <si>
+    <t>CHANDANA  CHIKKASWAMY</t>
+  </si>
+  <si>
+    <t>BUPPA  INTCHAT</t>
+  </si>
+  <si>
+    <t>CHOMPHU  DUNGKAEO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4766,6 +4820,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4802,10 +4861,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4841,9 +4901,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5155,10 +5217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E42548-D0B6-4352-8827-ABFFB6F69E7A}">
-  <dimension ref="A1:N1397"/>
+  <dimension ref="A1:N1415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1367" workbookViewId="0">
-      <selection activeCell="B1398" sqref="B1398"/>
+    <sheetView tabSelected="1" topLeftCell="A1394" workbookViewId="0">
+      <selection activeCell="C1421" sqref="C1421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5679,20 +5741,20 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="2">
         <v>22105</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="4">
-        <v>1</v>
+      <c r="E31" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -28882,92 +28944,398 @@
       </c>
     </row>
     <row r="1393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1393" s="17">
+      <c r="A1393" s="11">
         <v>81009</v>
       </c>
-      <c r="B1393" s="17" t="s">
+      <c r="B1393" s="11" t="s">
         <v>1558</v>
       </c>
-      <c r="C1393" s="18" t="s">
+      <c r="C1393" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1393" s="18" t="s">
+      <c r="D1393" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1393" s="19">
+      <c r="E1393" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="1394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1394" s="17">
+      <c r="A1394" s="11">
         <v>81010</v>
       </c>
-      <c r="B1394" s="17" t="s">
+      <c r="B1394" s="11" t="s">
         <v>1559</v>
       </c>
-      <c r="C1394" s="18" t="s">
+      <c r="C1394" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1394" s="18" t="s">
+      <c r="D1394" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="E1394" s="19">
+      <c r="E1394" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="1395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1395" s="17">
+      <c r="A1395" s="11">
         <v>81011</v>
       </c>
-      <c r="B1395" s="17" t="s">
+      <c r="B1395" s="11" t="s">
         <v>1560</v>
       </c>
-      <c r="C1395" s="18" t="s">
+      <c r="C1395" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1395" s="18" t="s">
+      <c r="D1395" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="E1395" s="19">
+      <c r="E1395" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="1396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1396" s="20">
+      <c r="A1396" s="10">
         <v>6313</v>
       </c>
-      <c r="B1396" s="17" t="s">
+      <c r="B1396" s="11" t="s">
         <v>1561</v>
       </c>
-      <c r="C1396" s="18" t="s">
+      <c r="C1396" s="12" t="s">
         <v>1376</v>
       </c>
-      <c r="D1396" s="18" t="s">
+      <c r="D1396" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="E1396" s="19">
+      <c r="E1396" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="1397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1397" s="20">
+      <c r="A1397" s="10">
         <v>6314</v>
       </c>
-      <c r="B1397" s="17" t="s">
+      <c r="B1397" s="11" t="s">
         <v>1562</v>
       </c>
-      <c r="C1397" s="18" t="s">
+      <c r="C1397" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D1397" s="18" t="s">
+      <c r="D1397" s="12" t="s">
         <v>1422</v>
       </c>
-      <c r="E1397" s="19">
+      <c r="E1397" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1398" s="20">
+        <v>6315</v>
+      </c>
+      <c r="B1398" s="17" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C1398" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1398" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1398" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1399" s="20">
+        <v>6316</v>
+      </c>
+      <c r="B1399" s="17" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C1399" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1399" s="18" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E1399" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1400" s="20">
+        <v>6317</v>
+      </c>
+      <c r="B1400" s="17" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C1400" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1400" s="18" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E1400" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1401" s="20">
+        <v>6318</v>
+      </c>
+      <c r="B1401" s="17" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C1401" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1401" s="18" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E1401" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1402" s="20">
+        <v>6319</v>
+      </c>
+      <c r="B1402" s="17" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C1402" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1402" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="E1402" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1403" s="20">
+        <v>6320</v>
+      </c>
+      <c r="B1403" s="17" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C1403" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1403" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="E1403" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1404" s="20">
+        <v>6321</v>
+      </c>
+      <c r="B1404" s="17" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C1404" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1404" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="E1404" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1405" s="20">
+        <v>6322</v>
+      </c>
+      <c r="B1405" s="17" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C1405" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1405" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1405" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1406" s="20">
+        <v>6323</v>
+      </c>
+      <c r="B1406" s="17" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C1406" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1406" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1406" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1407" s="20">
+        <v>6324</v>
+      </c>
+      <c r="B1407" s="17" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C1407" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1407" s="18" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E1407" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1408" s="20">
+        <v>6325</v>
+      </c>
+      <c r="B1408" s="17" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C1408" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1408" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1408" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1409" s="20">
+        <v>6266</v>
+      </c>
+      <c r="B1409" s="17" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C1409" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1409" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1409" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1410" s="20">
+        <v>6268</v>
+      </c>
+      <c r="B1410" s="17" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C1410" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1410" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1410" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1411" s="20">
+        <v>6306</v>
+      </c>
+      <c r="B1411" s="17" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C1411" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1411" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E1411" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1412" s="20">
+        <v>6307</v>
+      </c>
+      <c r="B1412" s="17" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C1412" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1412" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1412" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1413" s="20">
+        <v>6312</v>
+      </c>
+      <c r="B1413" s="17" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C1413" s="18" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D1413" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1413" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1414" s="20">
+        <v>80058</v>
+      </c>
+      <c r="B1414" s="17" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C1414" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1414" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1414" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1415" s="20">
+        <v>80059</v>
+      </c>
+      <c r="B1415" s="17" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C1415" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1415" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1415" s="19">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1348" xr:uid="{6B2167CF-FA61-42C9-8AD8-0B4C36BB88A7}"/>
+  <autoFilter ref="A1:E1413" xr:uid="{6B2167CF-FA61-42C9-8AD8-0B4C36BB88A7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\Employee - SFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{014A4AD8-F5C0-4FFF-A7E3-E952B3FD6E69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9224142-C2CF-4DD7-A440-EF6CC13B867C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AEA6A1DC-F652-4756-A6AC-A4373A729D46}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4469" uniqueCount="1656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="1695">
   <si>
     <t>EmpID</t>
   </si>
@@ -4996,13 +4996,130 @@
   </si>
   <si>
     <t>PRAMOD SURESHKUMAR</t>
+  </si>
+  <si>
+    <t>PREEYAPORN  BOONIM</t>
+  </si>
+  <si>
+    <t>CHALERMPON  RODPRASERT</t>
+  </si>
+  <si>
+    <t>TEERASUK  SUWAMAS</t>
+  </si>
+  <si>
+    <t>CHANCHAI  KASANG</t>
+  </si>
+  <si>
+    <t>ATKARADET  PORNCHAI</t>
+  </si>
+  <si>
+    <t>SAKKARIN  THAPHAN</t>
+  </si>
+  <si>
+    <t>MANOTHAI  JANTHUNG</t>
+  </si>
+  <si>
+    <t>CHAKKAROEK  SOMBOONPHOL</t>
+  </si>
+  <si>
+    <t>JIRASAK CHANKHAMPHA</t>
+  </si>
+  <si>
+    <t>THANACHOT  SARASIT</t>
+  </si>
+  <si>
+    <t>ANAN  SUAYDEE</t>
+  </si>
+  <si>
+    <t>NAI  PHIALA</t>
+  </si>
+  <si>
+    <t>JANTIMA  PHUANGPHIKUL</t>
+  </si>
+  <si>
+    <t>BUDSABA  NACHOM</t>
+  </si>
+  <si>
+    <t>PHANUMAT  WATSUNGNOEN</t>
+  </si>
+  <si>
+    <t>RUNGNAPHA  YONSUK</t>
+  </si>
+  <si>
+    <t>RUNGRUEDEE  PHOLCHAIYO</t>
+  </si>
+  <si>
+    <t>SOMPONG  PHOLA-AOR</t>
+  </si>
+  <si>
+    <t>SAWINEE  SRISIT</t>
+  </si>
+  <si>
+    <t>CHANCHIRA  KANYATI</t>
+  </si>
+  <si>
+    <t>NOPPORN  SAIBOR</t>
+  </si>
+  <si>
+    <t>THANAWAT  CHOOKAEW</t>
+  </si>
+  <si>
+    <t>PANYA  PAKPRAJAM</t>
+  </si>
+  <si>
+    <t>KITTIPONG  THONGKORN</t>
+  </si>
+  <si>
+    <t>KITTIPHONG  RATCHAUAONG</t>
+  </si>
+  <si>
+    <t>TAMOLWAN  LAMNUAN</t>
+  </si>
+  <si>
+    <t>PONGSAKORN  JUNDIT</t>
+  </si>
+  <si>
+    <t>JETTAPHON  RAKSASAWAD</t>
+  </si>
+  <si>
+    <t>NATTAPONG  RAREUKCHAT</t>
+  </si>
+  <si>
+    <t>PHANUWAT  LOTKAEO</t>
+  </si>
+  <si>
+    <t>WORAWET  PUTTHAISONG</t>
+  </si>
+  <si>
+    <t>SAKCHAI  CHAMSANO</t>
+  </si>
+  <si>
+    <t>WILAWAN  ARMATMONTRI</t>
+  </si>
+  <si>
+    <t>NATTHAWUT  KLINKHAJORN</t>
+  </si>
+  <si>
+    <t>CHETSADAKON  BUKKHACHAMPA</t>
+  </si>
+  <si>
+    <t>JUTHARAT  SIRILUK</t>
+  </si>
+  <si>
+    <t>NATTHAWUT  SATSARA</t>
+  </si>
+  <si>
+    <t>ATSADAWUT  PUTTAOWART</t>
+  </si>
+  <si>
+    <t>WORAWUT  THONGPHAENG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5046,6 +5163,13 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5146,15 +5270,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5470,10 +5594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E42548-D0B6-4352-8827-ABFFB6F69E7A}">
-  <dimension ref="A1:N1489"/>
+  <dimension ref="A1:N1528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1456" workbookViewId="0">
-      <selection activeCell="G1483" sqref="G1483"/>
+    <sheetView tabSelected="1" topLeftCell="A1431" workbookViewId="0">
+      <selection activeCell="B1530" sqref="B1530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30731,121 +30855,784 @@
       </c>
     </row>
     <row r="1483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1483" s="31">
+      <c r="A1483" s="13">
         <v>6399</v>
       </c>
-      <c r="B1483" s="32" t="s">
+      <c r="B1483" s="28" t="s">
         <v>1649</v>
       </c>
-      <c r="C1483" s="33" t="s">
+      <c r="C1483" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1483" s="33" t="s">
+      <c r="D1483" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1483" s="34">
+      <c r="E1483" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1484" s="31">
+      <c r="A1484" s="13">
         <v>6400</v>
       </c>
-      <c r="B1484" s="32" t="s">
+      <c r="B1484" s="28" t="s">
         <v>1650</v>
       </c>
-      <c r="C1484" s="33" t="s">
+      <c r="C1484" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1484" s="33" t="s">
+      <c r="D1484" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E1484" s="34">
+      <c r="E1484" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1485" s="31">
+      <c r="A1485" s="13">
         <v>6401</v>
       </c>
-      <c r="B1485" s="32" t="s">
+      <c r="B1485" s="28" t="s">
         <v>1651</v>
       </c>
-      <c r="C1485" s="33" t="s">
+      <c r="C1485" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1485" s="33" t="s">
+      <c r="D1485" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E1485" s="34">
+      <c r="E1485" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1486" s="35">
+      <c r="A1486" s="34">
         <v>81012</v>
       </c>
-      <c r="B1486" s="32" t="s">
+      <c r="B1486" s="28" t="s">
         <v>1652</v>
       </c>
-      <c r="C1486" s="33" t="s">
+      <c r="C1486" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1486" s="33" t="s">
+      <c r="D1486" s="16" t="s">
         <v>1409</v>
       </c>
-      <c r="E1486" s="34">
+      <c r="E1486" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1487" s="35">
+      <c r="A1487" s="34">
         <v>80060</v>
       </c>
-      <c r="B1487" s="32" t="s">
+      <c r="B1487" s="28" t="s">
         <v>1653</v>
       </c>
-      <c r="C1487" s="33" t="s">
+      <c r="C1487" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D1487" s="33" t="s">
+      <c r="D1487" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E1487" s="34">
+      <c r="E1487" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1488" s="35">
+      <c r="A1488" s="34">
         <v>80061</v>
       </c>
-      <c r="B1488" s="32" t="s">
+      <c r="B1488" s="28" t="s">
         <v>1654</v>
       </c>
-      <c r="C1488" s="33" t="s">
+      <c r="C1488" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D1488" s="33" t="s">
+      <c r="D1488" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E1488" s="34">
+      <c r="E1488" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1489" s="31">
+      <c r="A1489" s="13">
         <v>6355</v>
       </c>
-      <c r="B1489" s="32" t="s">
+      <c r="B1489" s="28" t="s">
         <v>1655</v>
       </c>
-      <c r="C1489" s="33" t="s">
+      <c r="C1489" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D1489" s="33" t="s">
+      <c r="D1489" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E1489" s="34">
+      <c r="E1489" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1490" s="32">
+        <v>6403</v>
+      </c>
+      <c r="B1490" s="35" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C1490" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1490" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E1490" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1491" s="32">
+        <v>6404</v>
+      </c>
+      <c r="B1491" s="35" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1491" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1491" s="33" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1491" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1492" s="32">
+        <v>6405</v>
+      </c>
+      <c r="B1492" s="35" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C1492" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1492" s="33" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1492" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1493" s="32">
+        <v>6406</v>
+      </c>
+      <c r="B1493" s="35" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C1493" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1493" s="33" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1493" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1494" s="32">
+        <v>6407</v>
+      </c>
+      <c r="B1494" s="35" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C1494" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1494" s="33" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1494" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1495" s="32">
+        <v>6408</v>
+      </c>
+      <c r="B1495" s="35" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C1495" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1495" s="33" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1495" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1496" s="32">
+        <v>6409</v>
+      </c>
+      <c r="B1496" s="35" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C1496" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1496" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1496" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1497" s="32">
+        <v>6410</v>
+      </c>
+      <c r="B1497" s="35" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C1497" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1497" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1497" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1498" s="32">
+        <v>6411</v>
+      </c>
+      <c r="B1498" s="35" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C1498" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1498" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1498" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1499" s="32">
+        <v>6412</v>
+      </c>
+      <c r="B1499" s="35" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C1499" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1499" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1499" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1500" s="32">
+        <v>6413</v>
+      </c>
+      <c r="B1500" s="35" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C1500" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1500" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1500" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1501" s="32">
+        <v>6414</v>
+      </c>
+      <c r="B1501" s="35" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C1501" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1501" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1501" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1502" s="32">
+        <v>6415</v>
+      </c>
+      <c r="B1502" s="35" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C1502" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1502" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1502" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1503" s="32">
+        <v>6416</v>
+      </c>
+      <c r="B1503" s="35" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C1503" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1503" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1503" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1504" s="32">
+        <v>6417</v>
+      </c>
+      <c r="B1504" s="35" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C1504" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1504" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1504" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1505" s="32">
+        <v>6418</v>
+      </c>
+      <c r="B1505" s="35" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C1505" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1505" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1505" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1506" s="32">
+        <v>6419</v>
+      </c>
+      <c r="B1506" s="35" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C1506" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1506" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1506" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1507" s="32">
+        <v>6420</v>
+      </c>
+      <c r="B1507" s="35" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C1507" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1507" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1507" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1508" s="32">
+        <v>6421</v>
+      </c>
+      <c r="B1508" s="35" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C1508" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1508" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1508" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1509" s="32">
+        <v>6422</v>
+      </c>
+      <c r="B1509" s="35" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1509" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1509" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1509" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1510" s="32">
+        <v>6423</v>
+      </c>
+      <c r="B1510" s="35" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C1510" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1510" s="33" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E1510" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1511" s="32">
+        <v>6424</v>
+      </c>
+      <c r="B1511" s="35" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1511" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1511" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1511" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1512" s="32">
+        <v>6425</v>
+      </c>
+      <c r="B1512" s="35" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C1512" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1512" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1512" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1513" s="32">
+        <v>6426</v>
+      </c>
+      <c r="B1513" s="35" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1513" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1513" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1513" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1514" s="32">
+        <v>6427</v>
+      </c>
+      <c r="B1514" s="35" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C1514" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1514" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1514" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1515" s="32">
+        <v>6428</v>
+      </c>
+      <c r="B1515" s="35" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1515" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1515" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1515" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1516" s="32">
+        <v>6429</v>
+      </c>
+      <c r="B1516" s="35" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C1516" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1516" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1516" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1517" s="32">
+        <v>6430</v>
+      </c>
+      <c r="B1517" s="35" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1517" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1517" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1517" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1518" s="32">
+        <v>6431</v>
+      </c>
+      <c r="B1518" s="35" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C1518" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1518" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1518" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1519" s="32">
+        <v>6432</v>
+      </c>
+      <c r="B1519" s="35" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C1519" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1519" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1519" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1520" s="32">
+        <v>6433</v>
+      </c>
+      <c r="B1520" s="35" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C1520" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1520" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1520" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1521" s="32">
+        <v>6434</v>
+      </c>
+      <c r="B1521" s="35" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C1521" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1521" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1521" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1522" s="32">
+        <v>6435</v>
+      </c>
+      <c r="B1522" s="35" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C1522" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1522" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1522" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1523" s="32">
+        <v>6436</v>
+      </c>
+      <c r="B1523" s="35" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C1523" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1523" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1523" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1524" s="32">
+        <v>6437</v>
+      </c>
+      <c r="B1524" s="35" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C1524" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1524" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1524" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1525" s="32">
+        <v>6438</v>
+      </c>
+      <c r="B1525" s="35" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C1525" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1525" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1525" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1526" s="32">
+        <v>6439</v>
+      </c>
+      <c r="B1526" s="35" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C1526" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1526" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1526" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1527" s="32">
+        <v>6440</v>
+      </c>
+      <c r="B1527" s="35" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1527" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1527" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1527" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1528" s="32">
+        <v>6441</v>
+      </c>
+      <c r="B1528" s="35" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C1528" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1528" s="33" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E1528" s="31">
         <v>1</v>
       </c>
     </row>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\Employee - SFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9224142-C2CF-4DD7-A440-EF6CC13B867C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6577B4B-971D-438F-9C21-E5C359684FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AEA6A1DC-F652-4756-A6AC-A4373A729D46}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1467</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1528</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="1695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10120" uniqueCount="1715">
   <si>
     <t>EmpID</t>
   </si>
@@ -5113,6 +5113,66 @@
   </si>
   <si>
     <t>WORAWUT  THONGPHAENG</t>
+  </si>
+  <si>
+    <t>PHODCHANAN  CHANGPRASOET</t>
+  </si>
+  <si>
+    <t>PASSAKORN  CHUNHACHAROENSIRI</t>
+  </si>
+  <si>
+    <t>ATHIPONG  BUNNAK</t>
+  </si>
+  <si>
+    <t>SUPAKORN  PETCHARUTH</t>
+  </si>
+  <si>
+    <t>SUTHIPHONG  INTARAKHUNTHOD</t>
+  </si>
+  <si>
+    <t>SONGPHON  SAOKASEM</t>
+  </si>
+  <si>
+    <t>KAW  MAL</t>
+  </si>
+  <si>
+    <t>APHIRADET  SAKATHOK</t>
+  </si>
+  <si>
+    <t>CHAWANWIT  NOIYA</t>
+  </si>
+  <si>
+    <t>PRAJAK  WONGKAEW</t>
+  </si>
+  <si>
+    <t>NATTHAWOOT  CHAIWAN</t>
+  </si>
+  <si>
+    <t>WANWIPHA  RALUEKTHUENG</t>
+  </si>
+  <si>
+    <t>ORASA  SANITNOY</t>
+  </si>
+  <si>
+    <t>MAHAPARK  CHUJANG</t>
+  </si>
+  <si>
+    <t>NATTHAPON  PHOLPANTHIN</t>
+  </si>
+  <si>
+    <t>WEEKIT  JOMFONG</t>
+  </si>
+  <si>
+    <t>CHITAPHON  CHANRAEM</t>
+  </si>
+  <si>
+    <t>TANAPHAT  SISOM</t>
+  </si>
+  <si>
+    <t>JONGRAK  THAWORNFANG</t>
+  </si>
+  <si>
+    <t>PORADA  TIANCHANTHUK</t>
   </si>
 </sst>
 </file>
@@ -5169,7 +5229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5271,14 +5331,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5594,10 +5654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E42548-D0B6-4352-8827-ABFFB6F69E7A}">
-  <dimension ref="A1:N1528"/>
+  <dimension ref="A1:N1548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1431" workbookViewId="0">
-      <selection activeCell="B1530" sqref="B1530"/>
+    <sheetView tabSelected="1" topLeftCell="A1516" workbookViewId="0">
+      <selection activeCell="D1488" sqref="D1488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9008,20 +9068,20 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="4">
+      <c r="A201" s="2">
         <v>30841</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C201" s="4" t="s">
+      <c r="C201" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D201" s="4" t="s">
+      <c r="D201" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E201" s="4">
-        <v>1</v>
+      <c r="E201" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -10844,20 +10904,20 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="4">
+      <c r="A309" s="2">
         <v>31952</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C309" s="4" t="s">
+      <c r="C309" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D309" s="4" t="s">
+      <c r="D309" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E309" s="4">
-        <v>1</v>
+      <c r="E309" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -13326,20 +13386,20 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455" s="4">
+      <c r="A455" s="2">
         <v>4067</v>
       </c>
-      <c r="B455" s="4" t="s">
+      <c r="B455" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C455" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D455" s="4" t="s">
+      <c r="C455" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D455" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E455" s="4">
-        <v>1</v>
+      <c r="E455" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -14839,20 +14899,20 @@
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A544" s="4">
+      <c r="A544" s="2">
         <v>4694</v>
       </c>
-      <c r="B544" s="4" t="s">
+      <c r="B544" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C544" s="4" t="s">
+      <c r="C544" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D544" s="4" t="s">
+      <c r="D544" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E544" s="4">
-        <v>1</v>
+      <c r="E544" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
@@ -19293,20 +19353,20 @@
       </c>
     </row>
     <row r="806" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A806" s="4">
+      <c r="A806" s="2">
         <v>5865</v>
       </c>
-      <c r="B806" s="4" t="s">
+      <c r="B806" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="C806" s="4" t="s">
+      <c r="C806" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D806" s="4" t="s">
+      <c r="D806" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E806" s="4">
-        <v>1</v>
+      <c r="E806" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:5" x14ac:dyDescent="0.25">
@@ -19480,20 +19540,20 @@
       </c>
     </row>
     <row r="817" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A817" s="4">
+      <c r="A817" s="2">
         <v>5882</v>
       </c>
-      <c r="B817" s="4" t="s">
+      <c r="B817" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="C817" s="4" t="s">
+      <c r="C817" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D817" s="4" t="s">
+      <c r="D817" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="E817" s="4">
-        <v>1</v>
+      <c r="E817" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:5" x14ac:dyDescent="0.25">
@@ -23594,20 +23654,20 @@
       </c>
     </row>
     <row r="1059" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1059" s="4">
+      <c r="A1059" s="2">
         <v>6156</v>
       </c>
-      <c r="B1059" s="4" t="s">
+      <c r="B1059" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="C1059" s="5" t="s">
+      <c r="C1059" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D1059" s="4" t="s">
+      <c r="D1059" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E1059" s="4">
-        <v>1</v>
+      <c r="E1059" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:14" x14ac:dyDescent="0.25">
@@ -29784,20 +29844,20 @@
       </c>
     </row>
     <row r="1420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1420" s="13">
+      <c r="A1420" s="21">
         <v>6333</v>
       </c>
-      <c r="B1420" s="14" t="s">
+      <c r="B1420" s="22" t="s">
         <v>1585</v>
       </c>
-      <c r="C1420" s="16" t="s">
+      <c r="C1420" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D1420" s="16" t="s">
+      <c r="D1420" s="30" t="s">
         <v>880</v>
       </c>
-      <c r="E1420" s="8">
-        <v>1</v>
+      <c r="E1420" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="1421" spans="1:5" x14ac:dyDescent="0.25">
@@ -30906,7 +30966,7 @@
       </c>
     </row>
     <row r="1486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1486" s="34">
+      <c r="A1486" s="32">
         <v>81012</v>
       </c>
       <c r="B1486" s="28" t="s">
@@ -30923,7 +30983,7 @@
       </c>
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1487" s="34">
+      <c r="A1487" s="32">
         <v>80060</v>
       </c>
       <c r="B1487" s="28" t="s">
@@ -30940,7 +31000,7 @@
       </c>
     </row>
     <row r="1488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1488" s="34">
+      <c r="A1488" s="32">
         <v>80061</v>
       </c>
       <c r="B1488" s="28" t="s">
@@ -30974,670 +31034,1010 @@
       </c>
     </row>
     <row r="1490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1490" s="32">
+      <c r="A1490" s="13">
         <v>6403</v>
       </c>
-      <c r="B1490" s="35" t="s">
+      <c r="B1490" s="28" t="s">
         <v>1656</v>
       </c>
-      <c r="C1490" s="33" t="s">
+      <c r="C1490" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1490" s="33" t="s">
+      <c r="D1490" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="E1490" s="31">
+      <c r="E1490" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1491" s="32">
+      <c r="A1491" s="13">
         <v>6404</v>
       </c>
-      <c r="B1491" s="35" t="s">
+      <c r="B1491" s="28" t="s">
         <v>1657</v>
       </c>
-      <c r="C1491" s="33" t="s">
+      <c r="C1491" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1491" s="33" t="s">
+      <c r="D1491" s="16" t="s">
         <v>1406</v>
       </c>
-      <c r="E1491" s="31">
+      <c r="E1491" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1492" s="32">
+      <c r="A1492" s="13">
         <v>6405</v>
       </c>
-      <c r="B1492" s="35" t="s">
+      <c r="B1492" s="28" t="s">
         <v>1658</v>
       </c>
-      <c r="C1492" s="33" t="s">
+      <c r="C1492" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1492" s="33" t="s">
+      <c r="D1492" s="16" t="s">
         <v>1406</v>
       </c>
-      <c r="E1492" s="31">
+      <c r="E1492" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1493" s="32">
+      <c r="A1493" s="13">
         <v>6406</v>
       </c>
-      <c r="B1493" s="35" t="s">
+      <c r="B1493" s="28" t="s">
         <v>1659</v>
       </c>
-      <c r="C1493" s="33" t="s">
+      <c r="C1493" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1493" s="33" t="s">
+      <c r="D1493" s="16" t="s">
         <v>1475</v>
       </c>
-      <c r="E1493" s="31">
+      <c r="E1493" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1494" s="32">
+      <c r="A1494" s="13">
         <v>6407</v>
       </c>
-      <c r="B1494" s="35" t="s">
+      <c r="B1494" s="28" t="s">
         <v>1660</v>
       </c>
-      <c r="C1494" s="33" t="s">
+      <c r="C1494" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1494" s="33" t="s">
+      <c r="D1494" s="16" t="s">
         <v>1475</v>
       </c>
-      <c r="E1494" s="31">
+      <c r="E1494" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1495" s="32">
+      <c r="A1495" s="13">
         <v>6408</v>
       </c>
-      <c r="B1495" s="35" t="s">
+      <c r="B1495" s="28" t="s">
         <v>1661</v>
       </c>
-      <c r="C1495" s="33" t="s">
+      <c r="C1495" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1495" s="33" t="s">
+      <c r="D1495" s="16" t="s">
         <v>1475</v>
       </c>
-      <c r="E1495" s="31">
+      <c r="E1495" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1496" s="32">
+      <c r="A1496" s="13">
         <v>6409</v>
       </c>
-      <c r="B1496" s="35" t="s">
+      <c r="B1496" s="28" t="s">
         <v>1662</v>
       </c>
-      <c r="C1496" s="33" t="s">
+      <c r="C1496" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1496" s="33" t="s">
+      <c r="D1496" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1496" s="31">
+      <c r="E1496" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1497" s="32">
+      <c r="A1497" s="13">
         <v>6410</v>
       </c>
-      <c r="B1497" s="35" t="s">
+      <c r="B1497" s="28" t="s">
         <v>1663</v>
       </c>
-      <c r="C1497" s="33" t="s">
+      <c r="C1497" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1497" s="33" t="s">
+      <c r="D1497" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1497" s="31">
+      <c r="E1497" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1498" s="32">
+      <c r="A1498" s="13">
         <v>6411</v>
       </c>
-      <c r="B1498" s="35" t="s">
+      <c r="B1498" s="28" t="s">
         <v>1664</v>
       </c>
-      <c r="C1498" s="33" t="s">
+      <c r="C1498" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1498" s="33" t="s">
+      <c r="D1498" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1498" s="31">
+      <c r="E1498" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1499" s="32">
+      <c r="A1499" s="13">
         <v>6412</v>
       </c>
-      <c r="B1499" s="35" t="s">
+      <c r="B1499" s="28" t="s">
         <v>1665</v>
       </c>
-      <c r="C1499" s="33" t="s">
+      <c r="C1499" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1499" s="33" t="s">
+      <c r="D1499" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1499" s="31">
+      <c r="E1499" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1500" s="32">
+      <c r="A1500" s="13">
         <v>6413</v>
       </c>
-      <c r="B1500" s="35" t="s">
+      <c r="B1500" s="28" t="s">
         <v>1666</v>
       </c>
-      <c r="C1500" s="33" t="s">
+      <c r="C1500" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1500" s="33" t="s">
+      <c r="D1500" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1500" s="31">
+      <c r="E1500" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1501" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1501" s="32">
+      <c r="A1501" s="13">
         <v>6414</v>
       </c>
-      <c r="B1501" s="35" t="s">
+      <c r="B1501" s="28" t="s">
         <v>1667</v>
       </c>
-      <c r="C1501" s="33" t="s">
+      <c r="C1501" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1501" s="33" t="s">
+      <c r="D1501" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1501" s="31">
+      <c r="E1501" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1502" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1502" s="32">
+      <c r="A1502" s="13">
         <v>6415</v>
       </c>
-      <c r="B1502" s="35" t="s">
+      <c r="B1502" s="28" t="s">
         <v>1668</v>
       </c>
-      <c r="C1502" s="33" t="s">
+      <c r="C1502" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1502" s="33" t="s">
+      <c r="D1502" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1502" s="31">
+      <c r="E1502" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1503" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1503" s="32">
+      <c r="A1503" s="13">
         <v>6416</v>
       </c>
-      <c r="B1503" s="35" t="s">
+      <c r="B1503" s="28" t="s">
         <v>1669</v>
       </c>
-      <c r="C1503" s="33" t="s">
+      <c r="C1503" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1503" s="33" t="s">
+      <c r="D1503" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1503" s="31">
+      <c r="E1503" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1504" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1504" s="32">
+      <c r="A1504" s="13">
         <v>6417</v>
       </c>
-      <c r="B1504" s="35" t="s">
+      <c r="B1504" s="28" t="s">
         <v>1670</v>
       </c>
-      <c r="C1504" s="33" t="s">
+      <c r="C1504" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1504" s="33" t="s">
+      <c r="D1504" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1504" s="31">
+      <c r="E1504" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1505" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1505" s="32">
+      <c r="A1505" s="13">
         <v>6418</v>
       </c>
-      <c r="B1505" s="35" t="s">
+      <c r="B1505" s="28" t="s">
         <v>1671</v>
       </c>
-      <c r="C1505" s="33" t="s">
+      <c r="C1505" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1505" s="33" t="s">
+      <c r="D1505" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1505" s="31">
+      <c r="E1505" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1506" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1506" s="32">
+      <c r="A1506" s="13">
         <v>6419</v>
       </c>
-      <c r="B1506" s="35" t="s">
+      <c r="B1506" s="28" t="s">
         <v>1672</v>
       </c>
-      <c r="C1506" s="33" t="s">
+      <c r="C1506" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1506" s="33" t="s">
+      <c r="D1506" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1506" s="31">
+      <c r="E1506" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1507" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1507" s="32">
+      <c r="A1507" s="13">
         <v>6420</v>
       </c>
-      <c r="B1507" s="35" t="s">
+      <c r="B1507" s="28" t="s">
         <v>1673</v>
       </c>
-      <c r="C1507" s="33" t="s">
+      <c r="C1507" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1507" s="33" t="s">
+      <c r="D1507" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1507" s="31">
+      <c r="E1507" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1508" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1508" s="32">
+      <c r="A1508" s="13">
         <v>6421</v>
       </c>
-      <c r="B1508" s="35" t="s">
+      <c r="B1508" s="28" t="s">
         <v>1674</v>
       </c>
-      <c r="C1508" s="33" t="s">
+      <c r="C1508" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1508" s="33" t="s">
+      <c r="D1508" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1508" s="31">
+      <c r="E1508" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1509" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1509" s="32">
+      <c r="A1509" s="13">
         <v>6422</v>
       </c>
-      <c r="B1509" s="35" t="s">
+      <c r="B1509" s="28" t="s">
         <v>1675</v>
       </c>
-      <c r="C1509" s="33" t="s">
+      <c r="C1509" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1509" s="33" t="s">
+      <c r="D1509" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1509" s="31">
+      <c r="E1509" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1510" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1510" s="32">
+      <c r="A1510" s="13">
         <v>6423</v>
       </c>
-      <c r="B1510" s="35" t="s">
+      <c r="B1510" s="28" t="s">
         <v>1676</v>
       </c>
-      <c r="C1510" s="33" t="s">
+      <c r="C1510" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1510" s="33" t="s">
+      <c r="D1510" s="16" t="s">
         <v>1409</v>
       </c>
-      <c r="E1510" s="31">
+      <c r="E1510" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1511" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1511" s="32">
+      <c r="A1511" s="13">
         <v>6424</v>
       </c>
-      <c r="B1511" s="35" t="s">
+      <c r="B1511" s="28" t="s">
         <v>1677</v>
       </c>
-      <c r="C1511" s="33" t="s">
+      <c r="C1511" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1511" s="33" t="s">
+      <c r="D1511" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E1511" s="31">
+      <c r="E1511" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1512" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1512" s="32">
+      <c r="A1512" s="13">
         <v>6425</v>
       </c>
-      <c r="B1512" s="35" t="s">
+      <c r="B1512" s="28" t="s">
         <v>1678</v>
       </c>
-      <c r="C1512" s="33" t="s">
+      <c r="C1512" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1512" s="33" t="s">
+      <c r="D1512" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E1512" s="31">
+      <c r="E1512" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1513" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1513" s="32">
+      <c r="A1513" s="13">
         <v>6426</v>
       </c>
-      <c r="B1513" s="35" t="s">
+      <c r="B1513" s="28" t="s">
         <v>1679</v>
       </c>
-      <c r="C1513" s="33" t="s">
+      <c r="C1513" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1513" s="33" t="s">
+      <c r="D1513" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E1513" s="31">
+      <c r="E1513" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1514" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1514" s="32">
+      <c r="A1514" s="13">
         <v>6427</v>
       </c>
-      <c r="B1514" s="35" t="s">
+      <c r="B1514" s="28" t="s">
         <v>1680</v>
       </c>
-      <c r="C1514" s="33" t="s">
+      <c r="C1514" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1514" s="33" t="s">
+      <c r="D1514" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E1514" s="31">
+      <c r="E1514" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1515" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1515" s="32">
+      <c r="A1515" s="13">
         <v>6428</v>
       </c>
-      <c r="B1515" s="35" t="s">
+      <c r="B1515" s="28" t="s">
         <v>1681</v>
       </c>
-      <c r="C1515" s="33" t="s">
+      <c r="C1515" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1515" s="33" t="s">
+      <c r="D1515" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E1515" s="31">
+      <c r="E1515" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1516" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1516" s="32">
+      <c r="A1516" s="13">
         <v>6429</v>
       </c>
-      <c r="B1516" s="35" t="s">
+      <c r="B1516" s="28" t="s">
         <v>1682</v>
       </c>
-      <c r="C1516" s="33" t="s">
+      <c r="C1516" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D1516" s="33" t="s">
+      <c r="D1516" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E1516" s="31">
+      <c r="E1516" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1517" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1517" s="32">
+      <c r="A1517" s="13">
         <v>6430</v>
       </c>
-      <c r="B1517" s="35" t="s">
+      <c r="B1517" s="28" t="s">
         <v>1683</v>
       </c>
-      <c r="C1517" s="33" t="s">
+      <c r="C1517" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D1517" s="33" t="s">
+      <c r="D1517" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E1517" s="31">
+      <c r="E1517" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1518" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1518" s="32">
+      <c r="A1518" s="13">
         <v>6431</v>
       </c>
-      <c r="B1518" s="35" t="s">
+      <c r="B1518" s="28" t="s">
         <v>1684</v>
       </c>
-      <c r="C1518" s="33" t="s">
+      <c r="C1518" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D1518" s="33" t="s">
+      <c r="D1518" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E1518" s="31">
+      <c r="E1518" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1519" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1519" s="32">
+      <c r="A1519" s="13">
         <v>6432</v>
       </c>
-      <c r="B1519" s="35" t="s">
+      <c r="B1519" s="28" t="s">
         <v>1685</v>
       </c>
-      <c r="C1519" s="33" t="s">
+      <c r="C1519" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D1519" s="33" t="s">
+      <c r="D1519" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E1519" s="31">
+      <c r="E1519" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1520" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1520" s="32">
+      <c r="A1520" s="13">
         <v>6433</v>
       </c>
-      <c r="B1520" s="35" t="s">
+      <c r="B1520" s="28" t="s">
         <v>1686</v>
       </c>
-      <c r="C1520" s="33" t="s">
+      <c r="C1520" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D1520" s="33" t="s">
+      <c r="D1520" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E1520" s="31">
+      <c r="E1520" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1521" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1521" s="32">
+      <c r="A1521" s="13">
         <v>6434</v>
       </c>
-      <c r="B1521" s="35" t="s">
+      <c r="B1521" s="28" t="s">
         <v>1687</v>
       </c>
-      <c r="C1521" s="33" t="s">
+      <c r="C1521" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D1521" s="33" t="s">
+      <c r="D1521" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E1521" s="31">
+      <c r="E1521" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1522" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1522" s="32">
+      <c r="A1522" s="13">
         <v>6435</v>
       </c>
-      <c r="B1522" s="35" t="s">
+      <c r="B1522" s="28" t="s">
         <v>1688</v>
       </c>
-      <c r="C1522" s="33" t="s">
+      <c r="C1522" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D1522" s="33" t="s">
+      <c r="D1522" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="E1522" s="31">
+      <c r="E1522" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1523" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1523" s="32">
+      <c r="A1523" s="13">
         <v>6436</v>
       </c>
-      <c r="B1523" s="35" t="s">
+      <c r="B1523" s="28" t="s">
         <v>1689</v>
       </c>
-      <c r="C1523" s="33" t="s">
+      <c r="C1523" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D1523" s="33" t="s">
+      <c r="D1523" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E1523" s="31">
+      <c r="E1523" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1524" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1524" s="32">
+      <c r="A1524" s="13">
         <v>6437</v>
       </c>
-      <c r="B1524" s="35" t="s">
+      <c r="B1524" s="28" t="s">
         <v>1690</v>
       </c>
-      <c r="C1524" s="33" t="s">
+      <c r="C1524" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D1524" s="33" t="s">
+      <c r="D1524" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E1524" s="31">
+      <c r="E1524" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1525" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1525" s="32">
+      <c r="A1525" s="13">
         <v>6438</v>
       </c>
-      <c r="B1525" s="35" t="s">
+      <c r="B1525" s="28" t="s">
         <v>1691</v>
       </c>
-      <c r="C1525" s="33" t="s">
+      <c r="C1525" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D1525" s="33" t="s">
+      <c r="D1525" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E1525" s="31">
+      <c r="E1525" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1526" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1526" s="32">
+      <c r="A1526" s="13">
         <v>6439</v>
       </c>
-      <c r="B1526" s="35" t="s">
+      <c r="B1526" s="28" t="s">
         <v>1692</v>
       </c>
-      <c r="C1526" s="33" t="s">
+      <c r="C1526" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="D1526" s="33" t="s">
+      <c r="D1526" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E1526" s="31">
+      <c r="E1526" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1527" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1527" s="32">
+      <c r="A1527" s="13">
         <v>6440</v>
       </c>
-      <c r="B1527" s="35" t="s">
+      <c r="B1527" s="28" t="s">
         <v>1693</v>
       </c>
-      <c r="C1527" s="33" t="s">
+      <c r="C1527" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1527" s="33" t="s">
+      <c r="D1527" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1527" s="31">
+      <c r="E1527" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1528" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1528" s="32">
+      <c r="A1528" s="13">
         <v>6441</v>
       </c>
-      <c r="B1528" s="35" t="s">
+      <c r="B1528" s="28" t="s">
         <v>1694</v>
       </c>
-      <c r="C1528" s="33" t="s">
+      <c r="C1528" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D1528" s="33" t="s">
+      <c r="D1528" s="16" t="s">
         <v>1539</v>
       </c>
-      <c r="E1528" s="31">
+      <c r="E1528" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1529" s="33">
+        <v>81013</v>
+      </c>
+      <c r="B1529" s="34" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C1529" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1529" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1529" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1530" s="33">
+        <v>81015</v>
+      </c>
+      <c r="B1530" s="34" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C1530" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1530" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1530" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1531" s="33">
+        <v>81016</v>
+      </c>
+      <c r="B1531" s="34" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1531" s="35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1531" s="35" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1531" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1532" s="33">
+        <v>81017</v>
+      </c>
+      <c r="B1532" s="34" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C1532" s="35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1532" s="35" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1532" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1533" s="33">
+        <v>81018</v>
+      </c>
+      <c r="B1533" s="34" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C1533" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1533" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1533" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1534" s="33">
+        <v>81019</v>
+      </c>
+      <c r="B1534" s="34" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C1534" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1534" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1534" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1535" s="33">
+        <v>90006442</v>
+      </c>
+      <c r="B1535" s="34" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C1535" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1535" s="35" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1535" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1536" s="33">
+        <v>6444</v>
+      </c>
+      <c r="B1536" s="34" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C1536" s="35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1536" s="35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E1536" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1537" s="33">
+        <v>6445</v>
+      </c>
+      <c r="B1537" s="34" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1537" s="35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1537" s="35" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1537" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1538" s="33">
+        <v>6446</v>
+      </c>
+      <c r="B1538" s="34" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C1538" s="35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1538" s="35" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1538" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1539" s="33">
+        <v>6447</v>
+      </c>
+      <c r="B1539" s="34" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1539" s="35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1539" s="35" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1539" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1540" s="33">
+        <v>6448</v>
+      </c>
+      <c r="B1540" s="34" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C1540" s="35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1540" s="35" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1540" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1541" s="33">
+        <v>6449</v>
+      </c>
+      <c r="B1541" s="34" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1541" s="35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1541" s="35" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1541" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1542" s="33">
+        <v>6450</v>
+      </c>
+      <c r="B1542" s="34" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1542" s="35" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1542" s="35" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E1542" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1543" s="33">
+        <v>6451</v>
+      </c>
+      <c r="B1543" s="34" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1543" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1543" s="35" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1543" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1544" s="33">
+        <v>6452</v>
+      </c>
+      <c r="B1544" s="34" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C1544" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1544" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1544" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1545" s="33">
+        <v>6453</v>
+      </c>
+      <c r="B1545" s="34" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1545" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1545" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1545" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1546" s="33">
+        <v>6454</v>
+      </c>
+      <c r="B1546" s="34" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C1546" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1546" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1546" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1547" s="33">
+        <v>6455</v>
+      </c>
+      <c r="B1547" s="34" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C1547" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1547" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1547" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1548" s="33">
+        <v>6456</v>
+      </c>
+      <c r="B1548" s="34" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1548" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1548" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1548" s="31">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1467" xr:uid="{6B2167CF-FA61-42C9-8AD8-0B4C36BB88A7}"/>
+  <autoFilter ref="A1:E1528" xr:uid="{6B2167CF-FA61-42C9-8AD8-0B4C36BB88A7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\Employee - SFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6577B4B-971D-438F-9C21-E5C359684FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EBF0A2-7A80-40EC-BB48-125B5DD94EF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AEA6A1DC-F652-4756-A6AC-A4373A729D46}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10120" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="1731">
   <si>
     <t>EmpID</t>
   </si>
@@ -5173,13 +5173,61 @@
   </si>
   <si>
     <t>PORADA  TIANCHANTHUK</t>
+  </si>
+  <si>
+    <t>SURESH  MURAGUNDI</t>
+  </si>
+  <si>
+    <t>YOGESHWARAN  MATHI</t>
+  </si>
+  <si>
+    <t>SHANMUGHAM  COIMBATORE RANGASAMY</t>
+  </si>
+  <si>
+    <t>CHINNACHAMY  RAMAR</t>
+  </si>
+  <si>
+    <t>KARTHIKEYAN   MANI</t>
+  </si>
+  <si>
+    <t>ANURAK  WERUWANARAK</t>
+  </si>
+  <si>
+    <t>PARADON  BOONPRADIT</t>
+  </si>
+  <si>
+    <t>RACHANON  CHOBSAWANG</t>
+  </si>
+  <si>
+    <t>PHAILIN  SRIKAIROT</t>
+  </si>
+  <si>
+    <t>WACHIRAPHON  CHUEASUWAN</t>
+  </si>
+  <si>
+    <t>TANOMSAK  MAISANIT</t>
+  </si>
+  <si>
+    <t>APHATSARA  AUPPACHAI</t>
+  </si>
+  <si>
+    <t>JARIDA  WONGSALA</t>
+  </si>
+  <si>
+    <t>SUPATTA  MAKAEW</t>
+  </si>
+  <si>
+    <t>KUNPIMOOK  SAOIN</t>
+  </si>
+  <si>
+    <t>ADISAK  BUNPRADIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5234,6 +5282,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5274,7 +5329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5337,6 +5392,15 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5654,10 +5718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E42548-D0B6-4352-8827-ABFFB6F69E7A}">
-  <dimension ref="A1:N1548"/>
+  <dimension ref="A1:N1564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1516" workbookViewId="0">
-      <selection activeCell="D1488" sqref="D1488"/>
+    <sheetView tabSelected="1" topLeftCell="A1441" workbookViewId="0">
+      <selection activeCell="G1545" sqref="G1545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31701,7 +31765,7 @@
         <v>81013</v>
       </c>
       <c r="B1529" s="34" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C1529" s="35" t="s">
         <v>36</v>
@@ -31718,7 +31782,7 @@
         <v>81015</v>
       </c>
       <c r="B1530" s="34" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="C1530" s="35" t="s">
         <v>36</v>
@@ -31735,7 +31799,7 @@
         <v>81016</v>
       </c>
       <c r="B1531" s="34" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C1531" s="35" t="s">
         <v>1375</v>
@@ -31752,7 +31816,7 @@
         <v>81017</v>
       </c>
       <c r="B1532" s="34" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C1532" s="35" t="s">
         <v>1375</v>
@@ -31769,7 +31833,7 @@
         <v>81018</v>
       </c>
       <c r="B1533" s="34" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C1533" s="35" t="s">
         <v>12</v>
@@ -31786,7 +31850,7 @@
         <v>81019</v>
       </c>
       <c r="B1534" s="34" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="C1534" s="35" t="s">
         <v>12</v>
@@ -31799,240 +31863,512 @@
       </c>
     </row>
     <row r="1535" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1535" s="33">
+      <c r="A1535" s="13">
         <v>90006442</v>
       </c>
-      <c r="B1535" s="34" t="s">
+      <c r="B1535" s="28" t="s">
         <v>1701</v>
       </c>
-      <c r="C1535" s="35" t="s">
+      <c r="C1535" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1535" s="35" t="s">
+      <c r="D1535" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E1535" s="31">
+      <c r="E1535" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1536" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1536" s="33">
+      <c r="A1536" s="13">
         <v>6444</v>
       </c>
-      <c r="B1536" s="34" t="s">
+      <c r="B1536" s="28" t="s">
         <v>1702</v>
       </c>
-      <c r="C1536" s="35" t="s">
+      <c r="C1536" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1536" s="35" t="s">
+      <c r="D1536" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="E1536" s="31">
+      <c r="E1536" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1537" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1537" s="33">
+      <c r="A1537" s="13">
         <v>6445</v>
       </c>
-      <c r="B1537" s="34" t="s">
+      <c r="B1537" s="28" t="s">
         <v>1703</v>
       </c>
-      <c r="C1537" s="35" t="s">
+      <c r="C1537" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1537" s="35" t="s">
+      <c r="D1537" s="16" t="s">
         <v>1406</v>
       </c>
-      <c r="E1537" s="31">
+      <c r="E1537" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1538" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1538" s="33">
+      <c r="A1538" s="13">
         <v>6446</v>
       </c>
-      <c r="B1538" s="34" t="s">
+      <c r="B1538" s="28" t="s">
         <v>1704</v>
       </c>
-      <c r="C1538" s="35" t="s">
+      <c r="C1538" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1538" s="35" t="s">
+      <c r="D1538" s="16" t="s">
         <v>1406</v>
       </c>
-      <c r="E1538" s="31">
+      <c r="E1538" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1539" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1539" s="33">
+      <c r="A1539" s="13">
         <v>6447</v>
       </c>
-      <c r="B1539" s="34" t="s">
+      <c r="B1539" s="28" t="s">
         <v>1705</v>
       </c>
-      <c r="C1539" s="35" t="s">
+      <c r="C1539" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1539" s="35" t="s">
+      <c r="D1539" s="16" t="s">
         <v>1406</v>
       </c>
-      <c r="E1539" s="31">
+      <c r="E1539" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1540" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1540" s="33">
+      <c r="A1540" s="13">
         <v>6448</v>
       </c>
-      <c r="B1540" s="34" t="s">
+      <c r="B1540" s="28" t="s">
         <v>1706</v>
       </c>
-      <c r="C1540" s="35" t="s">
+      <c r="C1540" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1540" s="35" t="s">
+      <c r="D1540" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1540" s="31">
+      <c r="E1540" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1541" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1541" s="33">
+      <c r="A1541" s="13">
         <v>6449</v>
       </c>
-      <c r="B1541" s="34" t="s">
+      <c r="B1541" s="28" t="s">
         <v>1707</v>
       </c>
-      <c r="C1541" s="35" t="s">
+      <c r="C1541" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1541" s="35" t="s">
+      <c r="D1541" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1541" s="31">
+      <c r="E1541" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1542" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1542" s="33">
+      <c r="A1542" s="13">
         <v>6450</v>
       </c>
-      <c r="B1542" s="34" t="s">
+      <c r="B1542" s="28" t="s">
         <v>1708</v>
       </c>
-      <c r="C1542" s="35" t="s">
+      <c r="C1542" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1542" s="35" t="s">
+      <c r="D1542" s="16" t="s">
         <v>1409</v>
       </c>
-      <c r="E1542" s="31">
+      <c r="E1542" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1543" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1543" s="33">
+      <c r="A1543" s="13">
         <v>6451</v>
       </c>
-      <c r="B1543" s="34" t="s">
+      <c r="B1543" s="28" t="s">
         <v>1709</v>
       </c>
-      <c r="C1543" s="35" t="s">
+      <c r="C1543" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1543" s="35" t="s">
+      <c r="D1543" s="16" t="s">
         <v>880</v>
       </c>
-      <c r="E1543" s="31">
+      <c r="E1543" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1544" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1544" s="33">
+      <c r="A1544" s="13">
         <v>6452</v>
       </c>
-      <c r="B1544" s="34" t="s">
+      <c r="B1544" s="28" t="s">
         <v>1710</v>
       </c>
-      <c r="C1544" s="35" t="s">
+      <c r="C1544" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D1544" s="35" t="s">
+      <c r="D1544" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E1544" s="31">
+      <c r="E1544" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1545" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1545" s="33">
+      <c r="A1545" s="13">
         <v>6453</v>
       </c>
-      <c r="B1545" s="34" t="s">
+      <c r="B1545" s="28" t="s">
         <v>1711</v>
       </c>
-      <c r="C1545" s="35" t="s">
+      <c r="C1545" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D1545" s="35" t="s">
+      <c r="D1545" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E1545" s="31">
+      <c r="E1545" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1546" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1546" s="33">
+      <c r="A1546" s="13">
         <v>6454</v>
       </c>
-      <c r="B1546" s="34" t="s">
+      <c r="B1546" s="28" t="s">
         <v>1712</v>
       </c>
-      <c r="C1546" s="35" t="s">
+      <c r="C1546" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D1546" s="35" t="s">
+      <c r="D1546" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="E1546" s="31">
+      <c r="E1546" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1547" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1547" s="33">
+      <c r="A1547" s="13">
         <v>6455</v>
       </c>
-      <c r="B1547" s="34" t="s">
+      <c r="B1547" s="28" t="s">
         <v>1713</v>
       </c>
-      <c r="C1547" s="35" t="s">
+      <c r="C1547" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D1547" s="35" t="s">
+      <c r="D1547" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E1547" s="31">
+      <c r="E1547" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1548" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1548" s="33">
+      <c r="A1548" s="13">
         <v>6456</v>
       </c>
-      <c r="B1548" s="34" t="s">
+      <c r="B1548" s="28" t="s">
         <v>1714</v>
       </c>
-      <c r="C1548" s="35" t="s">
+      <c r="C1548" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D1548" s="35" t="s">
+      <c r="D1548" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E1548" s="31">
+      <c r="E1548" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1549" s="36">
+        <v>6327</v>
+      </c>
+      <c r="B1549" s="37" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1549" s="38" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1549" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1549" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1550" s="36">
+        <v>6356</v>
+      </c>
+      <c r="B1550" s="37" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1550" s="38" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1550" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1550" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1551" s="36">
+        <v>6383</v>
+      </c>
+      <c r="B1551" s="37" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1551" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1551" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1551" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1552" s="36">
+        <v>6384</v>
+      </c>
+      <c r="B1552" s="37" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C1552" s="38" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1552" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1552" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1553" s="36">
+        <v>6385</v>
+      </c>
+      <c r="B1553" s="37" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C1553" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1553" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1553" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1554" s="37">
+        <v>6458</v>
+      </c>
+      <c r="B1554" s="37" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1554" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1554" s="40" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1554" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1555" s="37">
+        <v>6459</v>
+      </c>
+      <c r="B1555" s="37" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C1555" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1555" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E1555" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1556" s="37">
+        <v>6460</v>
+      </c>
+      <c r="B1556" s="37" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C1556" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1556" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E1556" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1557" s="37">
+        <v>6461</v>
+      </c>
+      <c r="B1557" s="37" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C1557" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1557" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E1557" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1558" s="37">
+        <v>6462</v>
+      </c>
+      <c r="B1558" s="37" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C1558" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1558" s="40" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1558" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1559" s="37">
+        <v>6463</v>
+      </c>
+      <c r="B1559" s="37" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1559" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1559" s="40" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1559" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1560" s="37">
+        <v>6464</v>
+      </c>
+      <c r="B1560" s="37" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1560" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1560" s="40" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1560" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1561" s="37">
+        <v>6465</v>
+      </c>
+      <c r="B1561" s="37" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1561" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1561" s="40" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1561" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1562" s="37">
+        <v>6466</v>
+      </c>
+      <c r="B1562" s="37" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C1562" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1562" s="40" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1562" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1563" s="37">
+        <v>6467</v>
+      </c>
+      <c r="B1563" s="37" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1563" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1563" s="40" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1563" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1564" s="37">
+        <v>6468</v>
+      </c>
+      <c r="B1564" s="37" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C1564" s="40" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1564" s="40" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1564" s="39">
         <v>1</v>
       </c>
     </row>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\Employee - SFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EBF0A2-7A80-40EC-BB48-125B5DD94EF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{205E1711-274D-4E3F-814B-2E536F58ADF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AEA6A1DC-F652-4756-A6AC-A4373A729D46}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="1731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="1750">
   <si>
     <t>EmpID</t>
   </si>
@@ -5221,13 +5221,70 @@
   </si>
   <si>
     <t>ADISAK  BUNPRADIT</t>
+  </si>
+  <si>
+    <t>HLA TIN</t>
+  </si>
+  <si>
+    <t>RAJKUMAR THAMODHIRAN</t>
+  </si>
+  <si>
+    <t>CHANYANUT  KESORN</t>
+  </si>
+  <si>
+    <t>SURAYUT  CHIMDECH</t>
+  </si>
+  <si>
+    <t>WANIDA  THAMMACHOTH</t>
+  </si>
+  <si>
+    <t>PHITCHAYANIN  SINGKHIRI</t>
+  </si>
+  <si>
+    <t>AKKARART  MAUDODTHON</t>
+  </si>
+  <si>
+    <t>TEERADET  LAPSAN</t>
+  </si>
+  <si>
+    <t>RATTANASAK  VANSAWAT</t>
+  </si>
+  <si>
+    <t>NATTHICHA  DETPRAPHRUT</t>
+  </si>
+  <si>
+    <t>SOMRUETHAI  DAMNOENNGAM</t>
+  </si>
+  <si>
+    <t>SIRIMAS  PANTUDETCH</t>
+  </si>
+  <si>
+    <t>SURARAK  RITBUMRUNG</t>
+  </si>
+  <si>
+    <t>PHIROMYA  SRIBURIN</t>
+  </si>
+  <si>
+    <t>KAMRAI  KAEWSARIKUN</t>
+  </si>
+  <si>
+    <t>PEERAPHAT  SRISOMRIT</t>
+  </si>
+  <si>
+    <t>KHEMCHITTA  PIAMSIN</t>
+  </si>
+  <si>
+    <t>THIRAPHAT  AINTHANAM</t>
+  </si>
+  <si>
+    <t>WARANYU  SAETAO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5275,20 +5332,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5311,7 +5354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5329,7 +5372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5385,24 +5428,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5718,10 +5751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E42548-D0B6-4352-8827-ABFFB6F69E7A}">
-  <dimension ref="A1:N1564"/>
+  <dimension ref="A1:N1583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1441" workbookViewId="0">
-      <selection activeCell="G1545" sqref="G1545"/>
+    <sheetView tabSelected="1" topLeftCell="A1549" workbookViewId="0">
+      <selection activeCell="B1580" sqref="B1580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31030,7 +31063,7 @@
       </c>
     </row>
     <row r="1486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1486" s="32">
+      <c r="A1486" s="31">
         <v>81012</v>
       </c>
       <c r="B1486" s="28" t="s">
@@ -31047,7 +31080,7 @@
       </c>
     </row>
     <row r="1487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1487" s="32">
+      <c r="A1487" s="31">
         <v>80060</v>
       </c>
       <c r="B1487" s="28" t="s">
@@ -31064,7 +31097,7 @@
       </c>
     </row>
     <row r="1488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1488" s="32">
+      <c r="A1488" s="31">
         <v>80061</v>
       </c>
       <c r="B1488" s="28" t="s">
@@ -31761,104 +31794,104 @@
       </c>
     </row>
     <row r="1529" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1529" s="33">
+      <c r="A1529" s="13">
         <v>81013</v>
       </c>
-      <c r="B1529" s="34" t="s">
+      <c r="B1529" s="28" t="s">
         <v>1696</v>
       </c>
-      <c r="C1529" s="35" t="s">
+      <c r="C1529" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D1529" s="35" t="s">
+      <c r="D1529" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E1529" s="31">
+      <c r="E1529" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1530" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1530" s="33">
+      <c r="A1530" s="13">
         <v>81015</v>
       </c>
-      <c r="B1530" s="34" t="s">
+      <c r="B1530" s="28" t="s">
         <v>1699</v>
       </c>
-      <c r="C1530" s="35" t="s">
+      <c r="C1530" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D1530" s="35" t="s">
+      <c r="D1530" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E1530" s="31">
+      <c r="E1530" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1531" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1531" s="33">
+      <c r="A1531" s="13">
         <v>81016</v>
       </c>
-      <c r="B1531" s="34" t="s">
+      <c r="B1531" s="28" t="s">
         <v>1698</v>
       </c>
-      <c r="C1531" s="35" t="s">
+      <c r="C1531" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1531" s="35" t="s">
+      <c r="D1531" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1531" s="31">
+      <c r="E1531" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1532" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1532" s="33">
+      <c r="A1532" s="13">
         <v>81017</v>
       </c>
-      <c r="B1532" s="34" t="s">
+      <c r="B1532" s="28" t="s">
         <v>1697</v>
       </c>
-      <c r="C1532" s="35" t="s">
+      <c r="C1532" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1532" s="35" t="s">
+      <c r="D1532" s="16" t="s">
         <v>1386</v>
       </c>
-      <c r="E1532" s="31">
+      <c r="E1532" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1533" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1533" s="33">
+      <c r="A1533" s="13">
         <v>81018</v>
       </c>
-      <c r="B1533" s="34" t="s">
+      <c r="B1533" s="28" t="s">
         <v>1700</v>
       </c>
-      <c r="C1533" s="35" t="s">
+      <c r="C1533" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1533" s="35" t="s">
+      <c r="D1533" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1533" s="31">
+      <c r="E1533" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1534" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1534" s="33">
+      <c r="A1534" s="13">
         <v>81019</v>
       </c>
-      <c r="B1534" s="34" t="s">
+      <c r="B1534" s="28" t="s">
         <v>1695</v>
       </c>
-      <c r="C1534" s="35" t="s">
+      <c r="C1534" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1534" s="35" t="s">
+      <c r="D1534" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1534" s="31">
+      <c r="E1534" s="8">
         <v>1</v>
       </c>
     </row>
@@ -32101,274 +32134,597 @@
       </c>
     </row>
     <row r="1549" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1549" s="36">
+      <c r="A1549" s="13">
         <v>6327</v>
       </c>
-      <c r="B1549" s="37" t="s">
+      <c r="B1549" s="28" t="s">
         <v>1715</v>
       </c>
-      <c r="C1549" s="38" t="s">
+      <c r="C1549" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1549" s="38" t="s">
+      <c r="D1549" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E1549" s="39">
+      <c r="E1549" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1550" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1550" s="36">
+      <c r="A1550" s="13">
         <v>6356</v>
       </c>
-      <c r="B1550" s="37" t="s">
+      <c r="B1550" s="28" t="s">
         <v>1716</v>
       </c>
-      <c r="C1550" s="38" t="s">
+      <c r="C1550" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1550" s="38" t="s">
+      <c r="D1550" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E1550" s="39">
+      <c r="E1550" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1551" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1551" s="36">
+      <c r="A1551" s="13">
         <v>6383</v>
       </c>
-      <c r="B1551" s="37" t="s">
+      <c r="B1551" s="28" t="s">
         <v>1717</v>
       </c>
-      <c r="C1551" s="38" t="s">
+      <c r="C1551" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D1551" s="38" t="s">
+      <c r="D1551" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E1551" s="39">
+      <c r="E1551" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1552" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1552" s="36">
+      <c r="A1552" s="13">
         <v>6384</v>
       </c>
-      <c r="B1552" s="37" t="s">
+      <c r="B1552" s="28" t="s">
         <v>1718</v>
       </c>
-      <c r="C1552" s="38" t="s">
+      <c r="C1552" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="D1552" s="38" t="s">
+      <c r="D1552" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E1552" s="39">
+      <c r="E1552" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1553" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1553" s="36">
+      <c r="A1553" s="13">
         <v>6385</v>
       </c>
-      <c r="B1553" s="37" t="s">
+      <c r="B1553" s="28" t="s">
         <v>1719</v>
       </c>
-      <c r="C1553" s="38" t="s">
+      <c r="C1553" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D1553" s="38" t="s">
+      <c r="D1553" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E1553" s="39">
+      <c r="E1553" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1554" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1554" s="37">
+      <c r="A1554" s="28">
         <v>6458</v>
       </c>
-      <c r="B1554" s="37" t="s">
+      <c r="B1554" s="28" t="s">
         <v>1720</v>
       </c>
-      <c r="C1554" s="40" t="s">
+      <c r="C1554" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1554" s="40" t="s">
+      <c r="D1554" s="29" t="s">
         <v>1406</v>
       </c>
-      <c r="E1554" s="39">
+      <c r="E1554" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1555" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1555" s="37">
+      <c r="A1555" s="28">
         <v>6459</v>
       </c>
-      <c r="B1555" s="37" t="s">
+      <c r="B1555" s="28" t="s">
         <v>1721</v>
       </c>
-      <c r="C1555" s="40" t="s">
+      <c r="C1555" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1555" s="40" t="s">
+      <c r="D1555" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="E1555" s="39">
+      <c r="E1555" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1556" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1556" s="37">
+      <c r="A1556" s="28">
         <v>6460</v>
       </c>
-      <c r="B1556" s="37" t="s">
+      <c r="B1556" s="28" t="s">
         <v>1722</v>
       </c>
-      <c r="C1556" s="40" t="s">
+      <c r="C1556" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1556" s="40" t="s">
+      <c r="D1556" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="E1556" s="39">
+      <c r="E1556" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1557" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1557" s="37">
+      <c r="A1557" s="28">
         <v>6461</v>
       </c>
-      <c r="B1557" s="37" t="s">
+      <c r="B1557" s="28" t="s">
         <v>1723</v>
       </c>
-      <c r="C1557" s="40" t="s">
+      <c r="C1557" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1557" s="40" t="s">
+      <c r="D1557" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="E1557" s="39">
+      <c r="E1557" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1558" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1558" s="37">
+      <c r="A1558" s="28">
         <v>6462</v>
       </c>
-      <c r="B1558" s="37" t="s">
+      <c r="B1558" s="28" t="s">
         <v>1724</v>
       </c>
-      <c r="C1558" s="40" t="s">
+      <c r="C1558" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D1558" s="40" t="s">
+      <c r="D1558" s="29" t="s">
         <v>880</v>
       </c>
-      <c r="E1558" s="39">
+      <c r="E1558" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1559" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1559" s="37">
+      <c r="A1559" s="28">
         <v>6463</v>
       </c>
-      <c r="B1559" s="37" t="s">
+      <c r="B1559" s="28" t="s">
         <v>1725</v>
       </c>
-      <c r="C1559" s="40" t="s">
+      <c r="C1559" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1559" s="40" t="s">
+      <c r="D1559" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1559" s="39">
+      <c r="E1559" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1560" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1560" s="37">
+      <c r="A1560" s="28">
         <v>6464</v>
       </c>
-      <c r="B1560" s="37" t="s">
+      <c r="B1560" s="28" t="s">
         <v>1726</v>
       </c>
-      <c r="C1560" s="40" t="s">
+      <c r="C1560" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1560" s="40" t="s">
+      <c r="D1560" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1560" s="39">
+      <c r="E1560" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1561" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1561" s="37">
+      <c r="A1561" s="28">
         <v>6465</v>
       </c>
-      <c r="B1561" s="37" t="s">
+      <c r="B1561" s="28" t="s">
         <v>1727</v>
       </c>
-      <c r="C1561" s="40" t="s">
+      <c r="C1561" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1561" s="40" t="s">
+      <c r="D1561" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1561" s="39">
+      <c r="E1561" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1562" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1562" s="37">
+      <c r="A1562" s="28">
         <v>6466</v>
       </c>
-      <c r="B1562" s="37" t="s">
+      <c r="B1562" s="28" t="s">
         <v>1728</v>
       </c>
-      <c r="C1562" s="40" t="s">
+      <c r="C1562" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1562" s="40" t="s">
+      <c r="D1562" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1562" s="39">
+      <c r="E1562" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1563" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1563" s="37">
+      <c r="A1563" s="28">
         <v>6467</v>
       </c>
-      <c r="B1563" s="37" t="s">
+      <c r="B1563" s="28" t="s">
         <v>1729</v>
       </c>
-      <c r="C1563" s="40" t="s">
+      <c r="C1563" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1563" s="40" t="s">
+      <c r="D1563" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1563" s="39">
+      <c r="E1563" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1564" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1564" s="37">
+      <c r="A1564" s="28">
         <v>6468</v>
       </c>
-      <c r="B1564" s="37" t="s">
+      <c r="B1564" s="28" t="s">
         <v>1730</v>
       </c>
-      <c r="C1564" s="40" t="s">
+      <c r="C1564" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1564" s="40" t="s">
+      <c r="D1564" s="29" t="s">
         <v>1378</v>
       </c>
-      <c r="E1564" s="39">
+      <c r="E1564" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1565" s="32">
+        <v>6443</v>
+      </c>
+      <c r="B1565" s="32" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C1565" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1565" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1565" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1566" s="32">
+        <v>6472</v>
+      </c>
+      <c r="B1566" s="32" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C1566" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1566" s="33" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1566" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1567" s="32">
+        <v>6473</v>
+      </c>
+      <c r="B1567" s="32" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1567" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1567" s="33" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1567" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1568" s="32">
+        <v>6474</v>
+      </c>
+      <c r="B1568" s="32" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1568" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1568" s="33" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1568" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1569" s="32">
+        <v>6475</v>
+      </c>
+      <c r="B1569" s="32" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C1569" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1569" s="33" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1569" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1570" s="32">
+        <v>6476</v>
+      </c>
+      <c r="B1570" s="32" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1570" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1570" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1570" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1571" s="32">
+        <v>6477</v>
+      </c>
+      <c r="B1571" s="32" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C1571" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1571" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1571" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1572" s="32">
+        <v>6478</v>
+      </c>
+      <c r="B1572" s="32" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C1572" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1572" s="33" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1572" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1573" s="32">
+        <v>6479</v>
+      </c>
+      <c r="B1573" s="32" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C1573" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1573" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1573" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1574" s="32">
+        <v>6480</v>
+      </c>
+      <c r="B1574" s="32" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C1574" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1574" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1574" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1575" s="32">
+        <v>6481</v>
+      </c>
+      <c r="B1575" s="32" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C1575" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1575" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1575" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1576" s="32">
+        <v>6482</v>
+      </c>
+      <c r="B1576" s="32" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C1576" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1576" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1576" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1577" s="32">
+        <v>6483</v>
+      </c>
+      <c r="B1577" s="32" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C1577" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1577" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1577" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1578" s="32">
+        <v>6484</v>
+      </c>
+      <c r="B1578" s="32" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C1578" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1578" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1578" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1579" s="32">
+        <v>6485</v>
+      </c>
+      <c r="B1579" s="32" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C1579" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1579" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1579" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1580" s="32">
+        <v>6486</v>
+      </c>
+      <c r="B1580" s="32" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1580" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1580" s="33" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E1580" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1581" s="32">
+        <v>6487</v>
+      </c>
+      <c r="B1581" s="32" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C1581" s="33" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1581" s="33" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1581" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1582" s="32">
+        <v>6488</v>
+      </c>
+      <c r="B1582" s="32" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C1582" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1582" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1582" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1583" s="32">
+        <v>90006457</v>
+      </c>
+      <c r="B1583" s="32" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1583" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1583" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="E1583" s="34">
         <v>1</v>
       </c>
     </row>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\Employee - SFR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8948F02A-9AE5-4E54-B9B0-D756C35C18B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C0157E-B591-46CB-8519-6DC8228B9A86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AEA6A1DC-F652-4756-A6AC-A4373A729D46}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1603</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1640</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10243" uniqueCount="1802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4964" uniqueCount="1823">
   <si>
     <t>EmpID</t>
   </si>
@@ -5434,13 +5434,76 @@
   </si>
   <si>
     <t>S-EHS</t>
+  </si>
+  <si>
+    <t>WIRAPHON PANYAFU</t>
+  </si>
+  <si>
+    <t>INTHIRA PUDLA</t>
+  </si>
+  <si>
+    <t>YUPIN PHUTHARUK</t>
+  </si>
+  <si>
+    <t>KARINNA SRIJAK</t>
+  </si>
+  <si>
+    <t>WIRAT NOOBOONMA</t>
+  </si>
+  <si>
+    <t>PAPHINWIT THONGNUT</t>
+  </si>
+  <si>
+    <t>NARONGRIT BUNTHAM</t>
+  </si>
+  <si>
+    <t>NAY ZAW LIN</t>
+  </si>
+  <si>
+    <t>CHIT KO KO</t>
+  </si>
+  <si>
+    <t>SAUNG HNIN WAI</t>
+  </si>
+  <si>
+    <t>KHIN KNIN PHYU</t>
+  </si>
+  <si>
+    <t>JAIRAJIT THAMCHAWEE</t>
+  </si>
+  <si>
+    <t>VINAYAK KOLI</t>
+  </si>
+  <si>
+    <t>KANOKNAT KRANLEUS</t>
+  </si>
+  <si>
+    <t>THIRAYUT NAKSISUK</t>
+  </si>
+  <si>
+    <t>PARETHONG HANSUD</t>
+  </si>
+  <si>
+    <t>SAENGDUEAN SILAKHRUA</t>
+  </si>
+  <si>
+    <t>RONNAKORN BUNTEERANON</t>
+  </si>
+  <si>
+    <t>SIRICHAI SIRIRUK</t>
+  </si>
+  <si>
+    <t>PHONNAPA KHAMNON</t>
+  </si>
+  <si>
+    <t>SHIVARAJ SHIVALINGAPPA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5480,13 +5543,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5587,11 +5643,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5907,10 +5961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E42548-D0B6-4352-8827-ABFFB6F69E7A}">
-  <dimension ref="A1:N1633"/>
+  <dimension ref="A1:N1654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1600" workbookViewId="0">
-      <selection activeCell="G1625" sqref="G1625"/>
+    <sheetView tabSelected="1" topLeftCell="A1624" workbookViewId="0">
+      <selection activeCell="H1634" sqref="H1634"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33225,517 +33279,874 @@
       </c>
     </row>
     <row r="1604" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1604" s="32">
+      <c r="A1604" s="28">
         <v>6513</v>
       </c>
-      <c r="B1604" s="32" t="s">
+      <c r="B1604" s="28" t="s">
         <v>1771</v>
       </c>
-      <c r="C1604" s="33" t="s">
+      <c r="C1604" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1604" s="33" t="s">
+      <c r="D1604" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="E1604" s="34">
+      <c r="E1604" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1605" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1605" s="32">
+      <c r="A1605" s="28">
         <v>6514</v>
       </c>
-      <c r="B1605" s="32" t="s">
+      <c r="B1605" s="28" t="s">
         <v>1772</v>
       </c>
-      <c r="C1605" s="33" t="s">
+      <c r="C1605" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1605" s="33" t="s">
+      <c r="D1605" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1605" s="34">
+      <c r="E1605" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1606" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1606" s="32">
+      <c r="A1606" s="28">
         <v>6515</v>
       </c>
-      <c r="B1606" s="32" t="s">
+      <c r="B1606" s="28" t="s">
         <v>1773</v>
       </c>
-      <c r="C1606" s="33" t="s">
+      <c r="C1606" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1606" s="33" t="s">
+      <c r="D1606" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1606" s="34">
+      <c r="E1606" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1607" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1607" s="32">
+      <c r="A1607" s="28">
         <v>6516</v>
       </c>
-      <c r="B1607" s="32" t="s">
+      <c r="B1607" s="28" t="s">
         <v>1774</v>
       </c>
-      <c r="C1607" s="33" t="s">
+      <c r="C1607" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1607" s="33" t="s">
+      <c r="D1607" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1607" s="34">
+      <c r="E1607" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1608" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1608" s="32">
+      <c r="A1608" s="28">
         <v>6517</v>
       </c>
-      <c r="B1608" s="32" t="s">
+      <c r="B1608" s="28" t="s">
         <v>1775</v>
       </c>
-      <c r="C1608" s="33" t="s">
+      <c r="C1608" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1608" s="33" t="s">
+      <c r="D1608" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1608" s="34">
+      <c r="E1608" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1609" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1609" s="32">
+      <c r="A1609" s="28">
         <v>6518</v>
       </c>
-      <c r="B1609" s="32" t="s">
+      <c r="B1609" s="28" t="s">
         <v>1776</v>
       </c>
-      <c r="C1609" s="33" t="s">
+      <c r="C1609" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1609" s="33" t="s">
+      <c r="D1609" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1609" s="34">
+      <c r="E1609" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1610" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1610" s="32">
+      <c r="A1610" s="28">
         <v>6519</v>
       </c>
-      <c r="B1610" s="32" t="s">
+      <c r="B1610" s="28" t="s">
         <v>1777</v>
       </c>
-      <c r="C1610" s="33" t="s">
+      <c r="C1610" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1610" s="33" t="s">
+      <c r="D1610" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1610" s="34">
+      <c r="E1610" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1611" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1611" s="32">
+      <c r="A1611" s="28">
         <v>6520</v>
       </c>
-      <c r="B1611" s="32" t="s">
+      <c r="B1611" s="28" t="s">
         <v>1778</v>
       </c>
-      <c r="C1611" s="33" t="s">
+      <c r="C1611" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1611" s="33" t="s">
+      <c r="D1611" s="29" t="s">
         <v>1475</v>
       </c>
-      <c r="E1611" s="34">
+      <c r="E1611" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1612" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1612" s="32">
+      <c r="A1612" s="28">
         <v>6521</v>
       </c>
-      <c r="B1612" s="32" t="s">
+      <c r="B1612" s="28" t="s">
         <v>1779</v>
       </c>
-      <c r="C1612" s="33" t="s">
+      <c r="C1612" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1612" s="33" t="s">
+      <c r="D1612" s="29" t="s">
         <v>1476</v>
       </c>
-      <c r="E1612" s="34">
+      <c r="E1612" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1613" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1613" s="32">
+      <c r="A1613" s="28">
         <v>6522</v>
       </c>
-      <c r="B1613" s="32" t="s">
+      <c r="B1613" s="28" t="s">
         <v>1780</v>
       </c>
-      <c r="C1613" s="33" t="s">
+      <c r="C1613" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1613" s="33" t="s">
+      <c r="D1613" s="29" t="s">
         <v>1406</v>
       </c>
-      <c r="E1613" s="34">
+      <c r="E1613" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1614" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1614" s="32">
+      <c r="A1614" s="28">
         <v>6523</v>
       </c>
-      <c r="B1614" s="32" t="s">
+      <c r="B1614" s="28" t="s">
         <v>1781</v>
       </c>
-      <c r="C1614" s="33" t="s">
+      <c r="C1614" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1614" s="33" t="s">
+      <c r="D1614" s="29" t="s">
         <v>1386</v>
       </c>
-      <c r="E1614" s="34">
+      <c r="E1614" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1615" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1615" s="32">
+      <c r="A1615" s="28">
         <v>6524</v>
       </c>
-      <c r="B1615" s="32" t="s">
+      <c r="B1615" s="28" t="s">
         <v>1782</v>
       </c>
-      <c r="C1615" s="33" t="s">
+      <c r="C1615" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D1615" s="33" t="s">
+      <c r="D1615" s="29" t="s">
         <v>880</v>
       </c>
-      <c r="E1615" s="34">
+      <c r="E1615" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1616" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1616" s="32">
+      <c r="A1616" s="28">
         <v>6525</v>
       </c>
-      <c r="B1616" s="32" t="s">
+      <c r="B1616" s="28" t="s">
         <v>1783</v>
       </c>
-      <c r="C1616" s="33" t="s">
+      <c r="C1616" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D1616" s="33" t="s">
+      <c r="D1616" s="29" t="s">
         <v>880</v>
       </c>
-      <c r="E1616" s="34">
+      <c r="E1616" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1617" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1617" s="32">
+      <c r="A1617" s="28">
         <v>6526</v>
       </c>
-      <c r="B1617" s="32" t="s">
+      <c r="B1617" s="28" t="s">
         <v>1784</v>
       </c>
-      <c r="C1617" s="33" t="s">
+      <c r="C1617" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D1617" s="33" t="s">
+      <c r="D1617" s="29" t="s">
         <v>880</v>
       </c>
-      <c r="E1617" s="34">
+      <c r="E1617" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1618" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1618" s="32">
+      <c r="A1618" s="28">
         <v>6527</v>
       </c>
-      <c r="B1618" s="32" t="s">
+      <c r="B1618" s="28" t="s">
         <v>1785</v>
       </c>
-      <c r="C1618" s="33" t="s">
+      <c r="C1618" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="D1618" s="33" t="s">
+      <c r="D1618" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="E1618" s="34">
+      <c r="E1618" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1619" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1619" s="32">
+      <c r="A1619" s="28">
         <v>6528</v>
       </c>
-      <c r="B1619" s="32" t="s">
+      <c r="B1619" s="28" t="s">
         <v>1786</v>
       </c>
-      <c r="C1619" s="33" t="s">
+      <c r="C1619" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D1619" s="33" t="s">
+      <c r="D1619" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E1619" s="34">
+      <c r="E1619" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1620" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1620" s="32">
+      <c r="A1620" s="28">
         <v>6529</v>
       </c>
-      <c r="B1620" s="32" t="s">
+      <c r="B1620" s="28" t="s">
         <v>1787</v>
       </c>
-      <c r="C1620" s="33" t="s">
+      <c r="C1620" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D1620" s="33" t="s">
+      <c r="D1620" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E1620" s="34">
+      <c r="E1620" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1621" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1621" s="32">
+      <c r="A1621" s="28">
         <v>6530</v>
       </c>
-      <c r="B1621" s="32" t="s">
+      <c r="B1621" s="28" t="s">
         <v>1788</v>
       </c>
-      <c r="C1621" s="33" t="s">
+      <c r="C1621" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D1621" s="33" t="s">
+      <c r="D1621" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E1621" s="34">
+      <c r="E1621" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1622" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1622" s="32">
+      <c r="A1622" s="28">
         <v>6531</v>
       </c>
-      <c r="B1622" s="32" t="s">
+      <c r="B1622" s="28" t="s">
         <v>1789</v>
       </c>
-      <c r="C1622" s="33" t="s">
+      <c r="C1622" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D1622" s="33" t="s">
+      <c r="D1622" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E1622" s="34">
+      <c r="E1622" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1623" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1623" s="32">
+      <c r="A1623" s="28">
         <v>6532</v>
       </c>
-      <c r="B1623" s="32" t="s">
+      <c r="B1623" s="28" t="s">
         <v>1790</v>
       </c>
-      <c r="C1623" s="33" t="s">
+      <c r="C1623" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D1623" s="33" t="s">
+      <c r="D1623" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E1623" s="34">
+      <c r="E1623" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1624" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1624" s="32">
+      <c r="A1624" s="28">
         <v>6533</v>
       </c>
-      <c r="B1624" s="32" t="s">
+      <c r="B1624" s="28" t="s">
         <v>1791</v>
       </c>
-      <c r="C1624" s="33" t="s">
+      <c r="C1624" s="29" t="s">
         <v>1801</v>
       </c>
-      <c r="D1624" s="33" t="s">
+      <c r="D1624" s="29" t="s">
         <v>1801</v>
       </c>
-      <c r="E1624" s="34">
+      <c r="E1624" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1625" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1625" s="32">
+      <c r="A1625" s="28">
         <v>6534</v>
       </c>
-      <c r="B1625" s="32" t="s">
+      <c r="B1625" s="28" t="s">
         <v>1792</v>
       </c>
-      <c r="C1625" s="33" t="s">
+      <c r="C1625" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="D1625" s="33" t="s">
+      <c r="D1625" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E1625" s="34">
+      <c r="E1625" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1626" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1626" s="32">
+      <c r="A1626" s="28">
         <v>90006535</v>
       </c>
-      <c r="B1626" s="32" t="s">
+      <c r="B1626" s="28" t="s">
         <v>1793</v>
       </c>
-      <c r="C1626" s="33" t="s">
+      <c r="C1626" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1626" s="33" t="s">
+      <c r="D1626" s="29" t="s">
         <v>1406</v>
       </c>
-      <c r="E1626" s="34">
+      <c r="E1626" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1627" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1627" s="32">
+      <c r="A1627" s="28">
         <v>90006536</v>
       </c>
-      <c r="B1627" s="32" t="s">
+      <c r="B1627" s="28" t="s">
         <v>1794</v>
       </c>
-      <c r="C1627" s="33" t="s">
+      <c r="C1627" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1627" s="33" t="s">
+      <c r="D1627" s="29" t="s">
         <v>1406</v>
       </c>
-      <c r="E1627" s="34">
+      <c r="E1627" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1628" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1628" s="32">
+      <c r="A1628" s="28">
         <v>90006537</v>
       </c>
-      <c r="B1628" s="32" t="s">
+      <c r="B1628" s="28" t="s">
         <v>1795</v>
       </c>
-      <c r="C1628" s="33" t="s">
+      <c r="C1628" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1628" s="33" t="s">
+      <c r="D1628" s="29" t="s">
         <v>1406</v>
       </c>
-      <c r="E1628" s="34">
+      <c r="E1628" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1629" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1629" s="32">
+      <c r="A1629" s="28">
         <v>90006538</v>
       </c>
-      <c r="B1629" s="32" t="s">
+      <c r="B1629" s="28" t="s">
         <v>1796</v>
       </c>
-      <c r="C1629" s="33" t="s">
+      <c r="C1629" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1629" s="33" t="s">
+      <c r="D1629" s="29" t="s">
         <v>1406</v>
       </c>
-      <c r="E1629" s="34">
+      <c r="E1629" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1630" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1630" s="32">
+      <c r="A1630" s="28">
         <v>90006539</v>
       </c>
-      <c r="B1630" s="32" t="s">
+      <c r="B1630" s="28" t="s">
         <v>1797</v>
       </c>
-      <c r="C1630" s="33" t="s">
+      <c r="C1630" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1630" s="33" t="s">
+      <c r="D1630" s="29" t="s">
         <v>1406</v>
       </c>
-      <c r="E1630" s="34">
+      <c r="E1630" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1631" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1631" s="32">
+      <c r="A1631" s="28">
         <v>90006540</v>
       </c>
-      <c r="B1631" s="32" t="s">
+      <c r="B1631" s="28" t="s">
         <v>1798</v>
       </c>
-      <c r="C1631" s="33" t="s">
+      <c r="C1631" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1631" s="33" t="s">
+      <c r="D1631" s="29" t="s">
         <v>1406</v>
       </c>
-      <c r="E1631" s="34">
+      <c r="E1631" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1632" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1632" s="32">
+      <c r="A1632" s="28">
         <v>90006541</v>
       </c>
-      <c r="B1632" s="32" t="s">
+      <c r="B1632" s="28" t="s">
         <v>1799</v>
       </c>
-      <c r="C1632" s="33" t="s">
+      <c r="C1632" s="29" t="s">
         <v>1375</v>
       </c>
-      <c r="D1632" s="33" t="s">
+      <c r="D1632" s="29" t="s">
         <v>1406</v>
       </c>
-      <c r="E1632" s="34">
+      <c r="E1632" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="1633" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1633" s="32">
+      <c r="A1633" s="28">
         <v>90006542</v>
       </c>
-      <c r="B1633" s="32" t="s">
+      <c r="B1633" s="28" t="s">
         <v>1800</v>
       </c>
-      <c r="C1633" s="33" t="s">
+      <c r="C1633" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D1633" s="33" t="s">
+      <c r="D1633" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E1633" s="34">
+      <c r="E1633" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1634" s="28">
+        <v>6543</v>
+      </c>
+      <c r="B1634" s="28" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1634" s="29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1634" s="29" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1634" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1635" s="28">
+        <v>6544</v>
+      </c>
+      <c r="B1635" s="28" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C1635" s="29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1635" s="29" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1635" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1636" s="28">
+        <v>6545</v>
+      </c>
+      <c r="B1636" s="28" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1636" s="29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1636" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1636" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1637" s="28">
+        <v>6546</v>
+      </c>
+      <c r="B1637" s="28" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C1637" s="29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1637" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1637" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1638" s="28">
+        <v>6547</v>
+      </c>
+      <c r="B1638" s="28" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C1638" s="29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1638" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1638" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1639" s="28">
+        <v>6548</v>
+      </c>
+      <c r="B1639" s="28" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1639" s="29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1639" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E1639" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1640" s="28">
+        <v>6549</v>
+      </c>
+      <c r="B1640" s="28" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C1640" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1640" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1640" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1641" s="32">
+        <v>90006550</v>
+      </c>
+      <c r="B1641" s="34" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C1641" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1641" s="34" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1641" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1642" s="32">
+        <v>90006552</v>
+      </c>
+      <c r="B1642" s="34" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1642" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1642" s="34" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1642" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1643" s="32">
+        <v>90006551</v>
+      </c>
+      <c r="B1643" s="34" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C1643" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1643" s="34" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1643" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1644" s="32">
+        <v>90006553</v>
+      </c>
+      <c r="B1644" s="34" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1644" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1644" s="34" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1644" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1645" s="32">
+        <v>6555</v>
+      </c>
+      <c r="B1645" s="34" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C1645" s="34" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D1645" s="34" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E1645" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1646" s="32">
+        <v>6556</v>
+      </c>
+      <c r="B1646" s="34" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C1646" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1646" s="34" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1646" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1647" s="32">
+        <v>6557</v>
+      </c>
+      <c r="B1647" s="34" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C1647" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1647" s="34" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E1647" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1648" s="32">
+        <v>6558</v>
+      </c>
+      <c r="B1648" s="34" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1648" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1648" s="34" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1648" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1649" s="32">
+        <v>6559</v>
+      </c>
+      <c r="B1649" s="34" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C1649" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1649" s="34" t="s">
+        <v>880</v>
+      </c>
+      <c r="E1649" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1650" s="32">
+        <v>6560</v>
+      </c>
+      <c r="B1650" s="34" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1650" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1650" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1650" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1651" s="32">
+        <v>6561</v>
+      </c>
+      <c r="B1651" s="34" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C1651" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1651" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1651" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1652" s="32">
+        <v>6562</v>
+      </c>
+      <c r="B1652" s="34" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1652" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1652" s="34" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1652" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1653" s="32">
+        <v>6563</v>
+      </c>
+      <c r="B1653" s="34" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1653" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1653" s="34" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1653" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1654" s="32">
+        <v>6564</v>
+      </c>
+      <c r="B1654" s="34" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1654" s="34" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D1654" s="34" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1654" s="33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1603" xr:uid="{6B2167CF-FA61-42C9-8AD8-0B4C36BB88A7}"/>
+  <autoFilter ref="A1:E1640" xr:uid="{6B2167CF-FA61-42C9-8AD8-0B4C36BB88A7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EC69F4-B6D6-4350-B82F-B7D871A5E792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A8ED5-D4FD-428E-B318-C91BA9025753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3881CC17-3AF4-4BB8-9774-0B4EFAF8B8CB}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1682</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1684</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7382" uniqueCount="3118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7395" uniqueCount="3125">
   <si>
     <t>Emp ID</t>
   </si>
@@ -9383,13 +9383,37 @@
   </si>
   <si>
     <t>KAR</t>
+  </si>
+  <si>
+    <t>90006565</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>WAI YAN HEIN</t>
+  </si>
+  <si>
+    <t>ADMIN SERVICE</t>
+  </si>
+  <si>
+    <t>393000</t>
+  </si>
+  <si>
+    <t>90006566</t>
+  </si>
+  <si>
+    <t>MEE MEE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9429,6 +9453,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -9463,7 +9494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9477,11 +9508,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9614,25 +9646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9654,8 +9668,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BA3E8AD4-C7C7-4B03-83BB-A7A5C67FA485}"/>
   </cellStyles>
@@ -9969,10 +10007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8980D6D6-D001-4235-A432-C60DE2370471}">
-  <dimension ref="A1:H1682"/>
+  <dimension ref="A1:N1684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1690" sqref="D1690"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9985,7 +10023,10 @@
     <col min="6" max="6" width="16.5703125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="46" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="31"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -19737,23 +19778,25 @@
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A487" s="22">
+      <c r="A487" s="23">
         <v>42080</v>
       </c>
-      <c r="C487" s="3" t="s">
+      <c r="B487" s="50"/>
+      <c r="C487" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="D487" s="1" t="s">
+      <c r="D487" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="E487" s="10" t="s">
+      <c r="E487" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F487" s="10" t="s">
+      <c r="F487" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H487" s="22">
-        <v>1</v>
+      <c r="G487" s="51"/>
+      <c r="H487" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -20717,23 +20760,25 @@
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A536" s="22">
+      <c r="A536" s="23">
         <v>4626</v>
       </c>
-      <c r="C536" s="3" t="s">
+      <c r="B536" s="50"/>
+      <c r="C536" s="4" t="s">
         <v>1340</v>
       </c>
-      <c r="D536" s="1" t="s">
+      <c r="D536" s="37" t="s">
         <v>1341</v>
       </c>
-      <c r="E536" s="10" t="s">
+      <c r="E536" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F536" s="10" t="s">
+      <c r="F536" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H536" s="22">
-        <v>1</v>
+      <c r="G536" s="51"/>
+      <c r="H536" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
@@ -23359,23 +23404,25 @@
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A667" s="22">
+      <c r="A667" s="23">
         <v>5628</v>
       </c>
-      <c r="C667" s="3" t="s">
+      <c r="B667" s="50"/>
+      <c r="C667" s="4" t="s">
         <v>1565</v>
       </c>
-      <c r="D667" s="1" t="s">
+      <c r="D667" s="37" t="s">
         <v>1566</v>
       </c>
-      <c r="E667" s="10" t="s">
+      <c r="E667" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F667" s="10" t="s">
+      <c r="F667" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H667" s="22">
-        <v>1</v>
+      <c r="G667" s="51"/>
+      <c r="H667" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
@@ -24105,23 +24152,25 @@
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A704" s="22">
+      <c r="A704" s="23">
         <v>5705</v>
       </c>
-      <c r="C704" s="3" t="s">
+      <c r="B704" s="50"/>
+      <c r="C704" s="4" t="s">
         <v>1622</v>
       </c>
-      <c r="D704" s="1" t="s">
+      <c r="D704" s="37" t="s">
         <v>1623</v>
       </c>
-      <c r="E704" s="10" t="s">
+      <c r="E704" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F704" s="10" t="s">
+      <c r="F704" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H704" s="22">
-        <v>1</v>
+      <c r="G704" s="51"/>
+      <c r="H704" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
@@ -25399,23 +25448,25 @@
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A768" s="22">
+      <c r="A768" s="23">
         <v>5814</v>
       </c>
-      <c r="C768" s="3" t="s">
+      <c r="B768" s="50"/>
+      <c r="C768" s="4" t="s">
         <v>1733</v>
       </c>
-      <c r="D768" s="1" t="s">
+      <c r="D768" s="37" t="s">
         <v>1734</v>
       </c>
-      <c r="E768" s="10" t="s">
+      <c r="E768" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F768" s="10" t="s">
+      <c r="F768" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H768" s="22">
-        <v>1</v>
+      <c r="G768" s="51"/>
+      <c r="H768" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.25">
@@ -30989,26 +31040,27 @@
       </c>
     </row>
     <row r="1031" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1031" s="22">
+      <c r="A1031" s="23">
         <v>6125</v>
       </c>
-      <c r="B1031" s="41" t="s">
+      <c r="B1031" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="C1031" s="3" t="s">
+      <c r="C1031" s="4" t="s">
         <v>2198</v>
       </c>
-      <c r="D1031" s="1" t="s">
+      <c r="D1031" s="37" t="s">
         <v>2199</v>
       </c>
-      <c r="E1031" s="10" t="s">
+      <c r="E1031" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F1031" s="10" t="s">
+      <c r="F1031" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H1031" s="22">
-        <v>1</v>
+      <c r="G1031" s="51"/>
+      <c r="H1031" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8" x14ac:dyDescent="0.25">
@@ -31244,26 +31296,27 @@
       </c>
     </row>
     <row r="1042" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1042" s="22">
+      <c r="A1042" s="23">
         <v>6139</v>
       </c>
-      <c r="B1042" s="41" t="s">
+      <c r="B1042" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C1042" s="3" t="s">
+      <c r="C1042" s="4" t="s">
         <v>2217</v>
       </c>
-      <c r="D1042" s="1" t="s">
+      <c r="D1042" s="37" t="s">
         <v>2218</v>
       </c>
-      <c r="E1042" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1042" s="10" t="s">
+      <c r="E1042" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1042" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H1042" s="22">
-        <v>1</v>
+      <c r="G1042" s="51"/>
+      <c r="H1042" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8" x14ac:dyDescent="0.25">
@@ -31336,26 +31389,27 @@
       </c>
     </row>
     <row r="1046" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1046" s="22">
+      <c r="A1046" s="23">
         <v>6143</v>
       </c>
-      <c r="B1046" s="41" t="s">
+      <c r="B1046" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="C1046" s="3" t="s">
+      <c r="C1046" s="4" t="s">
         <v>2224</v>
       </c>
-      <c r="D1046" s="1" t="s">
+      <c r="D1046" s="37" t="s">
         <v>2225</v>
       </c>
-      <c r="E1046" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1046" s="10" t="s">
+      <c r="E1046" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1046" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H1046" s="22">
-        <v>1</v>
+      <c r="G1046" s="51"/>
+      <c r="H1046" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8" x14ac:dyDescent="0.25">
@@ -31868,26 +31922,27 @@
       </c>
     </row>
     <row r="1069" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1069" s="24">
+      <c r="A1069" s="25">
         <v>6167</v>
       </c>
-      <c r="B1069" s="41" t="s">
+      <c r="B1069" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="C1069" s="5" t="s">
+      <c r="C1069" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D1069" s="1" t="s">
+      <c r="D1069" s="37" t="s">
         <v>2264</v>
       </c>
-      <c r="E1069" s="12" t="s">
+      <c r="E1069" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F1069" s="12" t="s">
+      <c r="F1069" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H1069" s="24">
-        <v>1</v>
+      <c r="G1069" s="51"/>
+      <c r="H1069" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8" x14ac:dyDescent="0.25">
@@ -32913,7 +32968,7 @@
       <c r="A1116" s="23">
         <v>80044</v>
       </c>
-      <c r="B1116" s="66" t="s">
+      <c r="B1116" s="58" t="s">
         <v>175</v>
       </c>
       <c r="C1116" s="4" t="s">
@@ -32960,7 +33015,7 @@
       <c r="A1118" s="25">
         <v>80046</v>
       </c>
-      <c r="B1118" s="66" t="s">
+      <c r="B1118" s="58" t="s">
         <v>182</v>
       </c>
       <c r="C1118" s="6" t="s">
@@ -36019,7 +36074,7 @@
       <c r="A1269" s="27">
         <v>6190</v>
       </c>
-      <c r="B1269" s="67" t="s">
+      <c r="B1269" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C1269" s="32" t="s">
@@ -36250,7 +36305,7 @@
       <c r="A1279" s="27">
         <v>6200</v>
       </c>
-      <c r="B1279" s="67" t="s">
+      <c r="B1279" s="59" t="s">
         <v>175</v>
       </c>
       <c r="C1279" s="32" t="s">
@@ -36297,7 +36352,7 @@
       <c r="A1281" s="27">
         <v>6202</v>
       </c>
-      <c r="B1281" s="67" t="s">
+      <c r="B1281" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C1281" s="32" t="s">
@@ -36321,7 +36376,7 @@
       <c r="A1282" s="27">
         <v>6203</v>
       </c>
-      <c r="B1282" s="67" t="s">
+      <c r="B1282" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C1282" s="32" t="s">
@@ -36483,7 +36538,7 @@
       <c r="A1289" s="27">
         <v>6210</v>
       </c>
-      <c r="B1289" s="67" t="s">
+      <c r="B1289" s="59" t="s">
         <v>175</v>
       </c>
       <c r="C1289" s="32" t="s">
@@ -36622,7 +36677,7 @@
       <c r="A1295" s="27">
         <v>6216</v>
       </c>
-      <c r="B1295" s="67" t="s">
+      <c r="B1295" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C1295" s="32" t="s">
@@ -36692,7 +36747,7 @@
       <c r="A1298" s="27">
         <v>6219</v>
       </c>
-      <c r="B1298" s="67" t="s">
+      <c r="B1298" s="59" t="s">
         <v>175</v>
       </c>
       <c r="C1298" s="32" t="s">
@@ -36763,7 +36818,7 @@
       <c r="A1301" s="27">
         <v>6222</v>
       </c>
-      <c r="B1301" s="67" t="s">
+      <c r="B1301" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C1301" s="32" t="s">
@@ -36833,7 +36888,7 @@
       <c r="A1304" s="27">
         <v>6225</v>
       </c>
-      <c r="B1304" s="67" t="s">
+      <c r="B1304" s="59" t="s">
         <v>182</v>
       </c>
       <c r="C1304" s="32" t="s">
@@ -38406,26 +38461,27 @@
       </c>
     </row>
     <row r="1372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1372" s="8">
+      <c r="A1372" s="28">
         <v>6293</v>
       </c>
-      <c r="B1372" s="41" t="s">
+      <c r="B1372" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C1372" s="9" t="s">
+      <c r="C1372" s="33" t="s">
         <v>2640</v>
       </c>
-      <c r="D1372" s="1" t="s">
+      <c r="D1372" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="E1372" s="16" t="s">
+      <c r="E1372" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F1372" s="16" t="s">
+      <c r="F1372" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H1372" s="24">
-        <v>1</v>
+      <c r="G1372" s="51"/>
+      <c r="H1372" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="1373" spans="1:8" x14ac:dyDescent="0.25">
@@ -38868,7 +38924,7 @@
       </c>
     </row>
     <row r="1392" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1392" s="68">
+      <c r="A1392" s="60">
         <v>81009</v>
       </c>
       <c r="B1392" s="47" t="s">
@@ -38887,7 +38943,7 @@
         <v>10</v>
       </c>
       <c r="G1392" s="51"/>
-      <c r="H1392" s="69">
+      <c r="H1392" s="61">
         <v>0</v>
       </c>
     </row>
@@ -39747,7 +39803,7 @@
       </c>
     </row>
     <row r="1430" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1430" s="70">
+      <c r="A1430" s="62">
         <v>80057</v>
       </c>
       <c r="B1430" s="47" t="s">
@@ -39759,10 +39815,10 @@
       <c r="D1430" s="37" t="s">
         <v>2736</v>
       </c>
-      <c r="E1430" s="71" t="s">
+      <c r="E1430" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F1430" s="71" t="s">
+      <c r="F1430" s="63" t="s">
         <v>10</v>
       </c>
       <c r="G1430" s="51"/>
@@ -40829,26 +40885,27 @@
       </c>
     </row>
     <row r="1477" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1477" s="8">
+      <c r="A1477" s="28">
         <v>6393</v>
       </c>
-      <c r="B1477" s="41" t="s">
+      <c r="B1477" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C1477" s="9" t="s">
+      <c r="C1477" s="33" t="s">
         <v>2810</v>
       </c>
-      <c r="D1477" s="1" t="s">
+      <c r="D1477" s="37" t="s">
         <v>2811</v>
       </c>
-      <c r="E1477" s="18" t="s">
+      <c r="E1477" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F1477" s="18" t="s">
+      <c r="F1477" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H1477" s="24">
-        <v>1</v>
+      <c r="G1477" s="51"/>
+      <c r="H1477" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="1478" spans="1:8" x14ac:dyDescent="0.25">
@@ -41706,26 +41763,27 @@
       </c>
     </row>
     <row r="1515" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1515" s="8">
+      <c r="A1515" s="28">
         <v>6428</v>
       </c>
-      <c r="B1515" s="41" t="s">
+      <c r="B1515" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="C1515" s="9" t="s">
+      <c r="C1515" s="33" t="s">
         <v>2869</v>
       </c>
-      <c r="D1515" s="1" t="s">
+      <c r="D1515" s="37" t="s">
         <v>2870</v>
       </c>
-      <c r="E1515" s="18" t="s">
+      <c r="E1515" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F1515" s="18" t="s">
+      <c r="F1515" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H1515" s="24">
-        <v>1</v>
+      <c r="G1515" s="51"/>
+      <c r="H1515" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="1516" spans="1:8" x14ac:dyDescent="0.25">
@@ -43110,26 +43168,27 @@
       </c>
     </row>
     <row r="1576" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1576" s="30">
+      <c r="A1576" s="67">
         <v>6482</v>
       </c>
-      <c r="B1576" s="44" t="s">
+      <c r="B1576" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C1576" s="9" t="s">
+      <c r="C1576" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="D1576" s="20" t="s">
+      <c r="D1576" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="E1576" s="16" t="s">
+      <c r="E1576" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1576" s="16" t="s">
+      <c r="F1576" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H1576" s="24">
-        <v>1</v>
+      <c r="G1576" s="51"/>
+      <c r="H1576" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="1577" spans="1:8" x14ac:dyDescent="0.25">
@@ -44441,7 +44500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1633" s="30">
         <v>90006542</v>
       </c>
@@ -44460,14 +44519,14 @@
       <c r="F1633" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G1633" s="65">
+      <c r="G1633" s="57">
         <v>365100</v>
       </c>
       <c r="H1633" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="1634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1634" s="30">
         <v>6543</v>
       </c>
@@ -44486,14 +44545,14 @@
       <c r="F1634" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G1634" s="65">
+      <c r="G1634" s="57">
         <v>364300</v>
       </c>
       <c r="H1634" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="1635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1635" s="30">
         <v>6544</v>
       </c>
@@ -44512,14 +44571,14 @@
       <c r="F1635" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G1635" s="65">
+      <c r="G1635" s="57">
         <v>364400</v>
       </c>
       <c r="H1635" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="1636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1636" s="30">
         <v>6545</v>
       </c>
@@ -44538,14 +44597,14 @@
       <c r="F1636" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G1636" s="65">
+      <c r="G1636" s="57">
         <v>369100</v>
       </c>
       <c r="H1636" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="1637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1637" s="30">
         <v>6546</v>
       </c>
@@ -44564,14 +44623,14 @@
       <c r="F1637" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G1637" s="65">
+      <c r="G1637" s="57">
         <v>369100</v>
       </c>
       <c r="H1637" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="1638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1638" s="30">
         <v>6547</v>
       </c>
@@ -44590,14 +44649,14 @@
       <c r="F1638" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G1638" s="65">
+      <c r="G1638" s="57">
         <v>369100</v>
       </c>
       <c r="H1638" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="1639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1639" s="30">
         <v>6548</v>
       </c>
@@ -44616,14 +44675,14 @@
       <c r="F1639" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G1639" s="65">
+      <c r="G1639" s="57">
         <v>369100</v>
       </c>
       <c r="H1639" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="1640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1640" s="30">
         <v>6549</v>
       </c>
@@ -44642,18 +44701,18 @@
       <c r="F1640" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G1640" s="65">
+      <c r="G1640" s="57">
         <v>348100</v>
       </c>
       <c r="H1640" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="1641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1641" s="54">
         <v>90006550</v>
       </c>
-      <c r="B1641" s="58" t="s">
+      <c r="B1641" s="56" t="s">
         <v>182</v>
       </c>
       <c r="C1641" s="20" t="s">
@@ -44675,11 +44734,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1642" s="54">
         <v>90006552</v>
       </c>
-      <c r="B1642" s="58" t="s">
+      <c r="B1642" s="56" t="s">
         <v>182</v>
       </c>
       <c r="C1642" s="20" t="s">
@@ -44701,11 +44760,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1643" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1643" s="54">
         <v>90006551</v>
       </c>
-      <c r="B1643" s="58" t="s">
+      <c r="B1643" s="56" t="s">
         <v>175</v>
       </c>
       <c r="C1643" s="20" t="s">
@@ -44727,11 +44786,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1644" s="54">
         <v>90006553</v>
       </c>
-      <c r="B1644" s="58" t="s">
+      <c r="B1644" s="56" t="s">
         <v>175</v>
       </c>
       <c r="C1644" s="20" t="s">
@@ -44753,11 +44812,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1645" s="54">
         <v>6555</v>
       </c>
-      <c r="B1645" s="58" t="s">
+      <c r="B1645" s="56" t="s">
         <v>175</v>
       </c>
       <c r="C1645" s="20" t="s">
@@ -44779,11 +44838,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1646" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1646" s="54">
         <v>6556</v>
       </c>
-      <c r="B1646" s="58" t="s">
+      <c r="B1646" s="56" t="s">
         <v>182</v>
       </c>
       <c r="C1646" s="20" t="s">
@@ -44805,11 +44864,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1647" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1647" s="54">
         <v>6557</v>
       </c>
-      <c r="B1647" s="58" t="s">
+      <c r="B1647" s="56" t="s">
         <v>175</v>
       </c>
       <c r="C1647" s="20" t="s">
@@ -44830,12 +44889,14 @@
       <c r="H1647" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="1648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M1647" s="64"/>
+      <c r="N1647" s="64"/>
+    </row>
+    <row r="1648" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1648" s="54">
         <v>6558</v>
       </c>
-      <c r="B1648" s="58" t="s">
+      <c r="B1648" s="56" t="s">
         <v>182</v>
       </c>
       <c r="C1648" s="20" t="s">
@@ -44856,12 +44917,14 @@
       <c r="H1648" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="1649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M1648" s="64"/>
+      <c r="N1648" s="64"/>
+    </row>
+    <row r="1649" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1649" s="54">
         <v>6559</v>
       </c>
-      <c r="B1649" s="58" t="s">
+      <c r="B1649" s="56" t="s">
         <v>175</v>
       </c>
       <c r="C1649" s="20" t="s">
@@ -44882,12 +44945,14 @@
       <c r="H1649" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="1650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M1649" s="64"/>
+      <c r="N1649" s="64"/>
+    </row>
+    <row r="1650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1650" s="54">
         <v>6560</v>
       </c>
-      <c r="B1650" s="58" t="s">
+      <c r="B1650" s="56" t="s">
         <v>175</v>
       </c>
       <c r="C1650" s="20" t="s">
@@ -44908,12 +44973,14 @@
       <c r="H1650" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="1651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M1650" s="64"/>
+      <c r="N1650" s="64"/>
+    </row>
+    <row r="1651" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1651" s="54">
         <v>6561</v>
       </c>
-      <c r="B1651" s="58" t="s">
+      <c r="B1651" s="56" t="s">
         <v>182</v>
       </c>
       <c r="C1651" s="20" t="s">
@@ -44934,12 +45001,14 @@
       <c r="H1651" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="1652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M1651" s="66"/>
+      <c r="N1651" s="64"/>
+    </row>
+    <row r="1652" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1652" s="54">
         <v>6562</v>
       </c>
-      <c r="B1652" s="58" t="s">
+      <c r="B1652" s="56" t="s">
         <v>182</v>
       </c>
       <c r="C1652" s="20" t="s">
@@ -44961,11 +45030,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1653" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1653" s="54">
         <v>6563</v>
       </c>
-      <c r="B1653" s="58" t="s">
+      <c r="B1653" s="56" t="s">
         <v>175</v>
       </c>
       <c r="C1653" s="20" t="s">
@@ -44987,11 +45056,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1654" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1654" s="54">
         <v>6564</v>
       </c>
-      <c r="B1654" s="58" t="s">
+      <c r="B1654" s="56" t="s">
         <v>182</v>
       </c>
       <c r="C1654" s="20" t="s">
@@ -45012,737 +45081,790 @@
       <c r="H1654" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="1655" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1655" s="57">
+      <c r="M1654" s="65"/>
+    </row>
+    <row r="1655" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1655" s="30">
         <v>6489</v>
       </c>
-      <c r="B1655" s="56" t="s">
+      <c r="B1655" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1655" s="59" t="s">
+      <c r="C1655" s="9" t="s">
         <v>3040</v>
       </c>
-      <c r="D1655" s="59" t="s">
+      <c r="D1655" s="9" t="s">
         <v>3042</v>
       </c>
-      <c r="E1655" s="60" t="s">
+      <c r="E1655" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1655" s="60" t="s">
+      <c r="F1655" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G1655" s="61">
+      <c r="G1655" s="52">
         <v>364600</v>
       </c>
-      <c r="H1655" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1656" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1656" s="57">
+      <c r="H1655" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1656" s="30">
         <v>6490</v>
       </c>
-      <c r="B1656" s="56" t="s">
+      <c r="B1656" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1656" s="59" t="s">
+      <c r="C1656" s="9" t="s">
         <v>3076</v>
       </c>
-      <c r="D1656" s="59" t="s">
+      <c r="D1656" s="9" t="s">
         <v>3075</v>
       </c>
-      <c r="E1656" s="60" t="s">
+      <c r="E1656" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1656" s="60" t="s">
+      <c r="F1656" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G1656" s="61">
+      <c r="G1656" s="52">
         <v>364600</v>
       </c>
-      <c r="H1656" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1657" s="57">
+      <c r="H1656" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1657" s="30">
         <v>6491</v>
       </c>
-      <c r="B1657" s="56" t="s">
+      <c r="B1657" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1657" s="59" t="s">
+      <c r="C1657" s="9" t="s">
         <v>3041</v>
       </c>
-      <c r="D1657" s="59" t="s">
+      <c r="D1657" s="9" t="s">
         <v>3043</v>
       </c>
-      <c r="E1657" s="60" t="s">
+      <c r="E1657" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1657" s="60" t="s">
+      <c r="F1657" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G1657" s="61">
+      <c r="G1657" s="52">
         <v>364600</v>
       </c>
-      <c r="H1657" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1658" s="57">
+      <c r="H1657" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1658" s="30">
         <v>6569</v>
       </c>
-      <c r="B1658" s="56" t="s">
+      <c r="B1658" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1658" s="59" t="s">
+      <c r="C1658" s="9" t="s">
         <v>3077</v>
       </c>
-      <c r="D1658" s="63" t="s">
+      <c r="D1658" s="20" t="s">
         <v>3078</v>
       </c>
-      <c r="E1658" s="60" t="s">
+      <c r="E1658" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1658" s="60" t="s">
+      <c r="F1658" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G1658" s="61">
+      <c r="G1658" s="52">
         <v>364000</v>
       </c>
-      <c r="H1658" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1659" s="57">
+      <c r="H1658" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1659" s="30">
         <v>6570</v>
       </c>
-      <c r="B1659" s="56" t="s">
+      <c r="B1659" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1659" s="59" t="s">
+      <c r="C1659" s="9" t="s">
         <v>3079</v>
       </c>
-      <c r="D1659" s="63" t="s">
+      <c r="D1659" s="20" t="s">
         <v>3080</v>
       </c>
-      <c r="E1659" s="60" t="s">
+      <c r="E1659" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1659" s="60" t="s">
+      <c r="F1659" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G1659" s="61">
+      <c r="G1659" s="52">
         <v>364800</v>
       </c>
-      <c r="H1659" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1660" s="57">
+      <c r="H1659" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1660" s="30">
         <v>6571</v>
       </c>
-      <c r="B1660" s="56" t="s">
+      <c r="B1660" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1660" s="59" t="s">
+      <c r="C1660" s="9" t="s">
         <v>3081</v>
       </c>
-      <c r="D1660" s="63" t="s">
+      <c r="D1660" s="20" t="s">
         <v>3082</v>
       </c>
-      <c r="E1660" s="60" t="s">
+      <c r="E1660" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1660" s="60" t="s">
+      <c r="F1660" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G1660" s="61">
+      <c r="G1660" s="52">
         <v>364800</v>
       </c>
-      <c r="H1660" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1661" s="57">
+      <c r="H1660" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1661" s="30">
         <v>6572</v>
       </c>
-      <c r="B1661" s="56" t="s">
+      <c r="B1661" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1661" s="59" t="s">
+      <c r="C1661" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="D1661" s="63" t="s">
+      <c r="D1661" s="20" t="s">
         <v>3083</v>
       </c>
-      <c r="E1661" s="60" t="s">
+      <c r="E1661" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1661" s="60" t="s">
+      <c r="F1661" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G1661" s="61">
+      <c r="G1661" s="52">
         <v>364800</v>
       </c>
-      <c r="H1661" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1662" s="57">
+      <c r="H1661" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1662" s="30">
         <v>6573</v>
       </c>
-      <c r="B1662" s="56" t="s">
+      <c r="B1662" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="C1662" s="59" t="s">
+      <c r="C1662" s="9" t="s">
         <v>2183</v>
       </c>
-      <c r="D1662" s="63" t="s">
+      <c r="D1662" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="E1662" s="60" t="s">
+      <c r="E1662" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1662" s="60" t="s">
+      <c r="F1662" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G1662" s="61">
+      <c r="G1662" s="52">
         <v>364800</v>
       </c>
-      <c r="H1662" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1663" s="57">
+      <c r="H1662" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1663" s="30">
         <v>6574</v>
       </c>
-      <c r="B1663" s="56" t="s">
+      <c r="B1663" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1663" s="59" t="s">
+      <c r="C1663" s="9" t="s">
         <v>3084</v>
       </c>
-      <c r="D1663" s="63" t="s">
+      <c r="D1663" s="20" t="s">
         <v>3085</v>
       </c>
-      <c r="E1663" s="60" t="s">
+      <c r="E1663" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1663" s="60" t="s">
+      <c r="F1663" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G1663" s="61">
+      <c r="G1663" s="52">
         <v>364800</v>
       </c>
-      <c r="H1663" s="62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1664" s="57">
+      <c r="H1663" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1664" s="30">
         <v>6575</v>
       </c>
-      <c r="B1664" s="56" t="s">
+      <c r="B1664" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1664" s="59" t="s">
+      <c r="C1664" s="9" t="s">
         <v>3086</v>
       </c>
-      <c r="D1664" s="63" t="s">
+      <c r="D1664" s="20" t="s">
         <v>3087</v>
       </c>
-      <c r="E1664" s="60" t="s">
+      <c r="E1664" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1664" s="60" t="s">
+      <c r="F1664" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G1664" s="61">
+      <c r="G1664" s="52">
         <v>364800</v>
       </c>
-      <c r="H1664" s="62">
+      <c r="H1664" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1665" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1665" s="57">
+      <c r="A1665" s="30">
         <v>6576</v>
       </c>
-      <c r="B1665" s="56" t="s">
+      <c r="B1665" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1665" s="59" t="s">
+      <c r="C1665" s="9" t="s">
         <v>3088</v>
       </c>
-      <c r="D1665" s="63" t="s">
+      <c r="D1665" s="20" t="s">
         <v>3089</v>
       </c>
-      <c r="E1665" s="60" t="s">
+      <c r="E1665" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1665" s="60" t="s">
+      <c r="F1665" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G1665" s="61">
+      <c r="G1665" s="52">
         <v>364300</v>
       </c>
-      <c r="H1665" s="62">
+      <c r="H1665" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1666" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1666" s="57">
+      <c r="A1666" s="30">
         <v>6577</v>
       </c>
-      <c r="B1666" s="56" t="s">
+      <c r="B1666" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1666" s="59" t="s">
+      <c r="C1666" s="9" t="s">
         <v>3090</v>
       </c>
-      <c r="D1666" s="63" t="s">
+      <c r="D1666" s="20" t="s">
         <v>3091</v>
       </c>
-      <c r="E1666" s="60" t="s">
+      <c r="E1666" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1666" s="60" t="s">
+      <c r="F1666" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G1666" s="61">
+      <c r="G1666" s="52">
         <v>364300</v>
       </c>
-      <c r="H1666" s="62">
+      <c r="H1666" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1667" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1667" s="57">
+      <c r="A1667" s="30">
         <v>6578</v>
       </c>
-      <c r="B1667" s="56" t="s">
+      <c r="B1667" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1667" s="59" t="s">
+      <c r="C1667" s="9" t="s">
         <v>3092</v>
       </c>
-      <c r="D1667" s="63" t="s">
+      <c r="D1667" s="20" t="s">
         <v>3093</v>
       </c>
-      <c r="E1667" s="60" t="s">
+      <c r="E1667" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1667" s="60" t="s">
+      <c r="F1667" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G1667" s="61">
+      <c r="G1667" s="52">
         <v>364300</v>
       </c>
-      <c r="H1667" s="62">
+      <c r="H1667" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1668" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1668" s="57">
+      <c r="A1668" s="30">
         <v>6579</v>
       </c>
-      <c r="B1668" s="56" t="s">
+      <c r="B1668" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1668" s="59" t="s">
+      <c r="C1668" s="9" t="s">
         <v>3094</v>
       </c>
-      <c r="D1668" s="63" t="s">
+      <c r="D1668" s="20" t="s">
         <v>3095</v>
       </c>
-      <c r="E1668" s="60" t="s">
+      <c r="E1668" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1668" s="60" t="s">
+      <c r="F1668" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G1668" s="61">
+      <c r="G1668" s="52">
         <v>364300</v>
       </c>
-      <c r="H1668" s="62">
+      <c r="H1668" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1669" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1669" s="57">
+      <c r="A1669" s="30">
         <v>6580</v>
       </c>
-      <c r="B1669" s="56" t="s">
+      <c r="B1669" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1669" s="59" t="s">
+      <c r="C1669" s="9" t="s">
         <v>3096</v>
       </c>
-      <c r="D1669" s="63" t="s">
+      <c r="D1669" s="20" t="s">
         <v>3097</v>
       </c>
-      <c r="E1669" s="60" t="s">
+      <c r="E1669" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1669" s="60" t="s">
+      <c r="F1669" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G1669" s="61">
+      <c r="G1669" s="52">
         <v>364300</v>
       </c>
-      <c r="H1669" s="62">
+      <c r="H1669" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1670" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1670" s="57">
+      <c r="A1670" s="30">
         <v>6581</v>
       </c>
-      <c r="B1670" s="56" t="s">
+      <c r="B1670" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1670" s="59" t="s">
+      <c r="C1670" s="9" t="s">
         <v>3098</v>
       </c>
-      <c r="D1670" s="63" t="s">
+      <c r="D1670" s="20" t="s">
         <v>2255</v>
       </c>
-      <c r="E1670" s="60" t="s">
+      <c r="E1670" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1670" s="60" t="s">
+      <c r="F1670" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G1670" s="61">
+      <c r="G1670" s="52">
         <v>364300</v>
       </c>
-      <c r="H1670" s="62">
+      <c r="H1670" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1671" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1671" s="57">
+      <c r="A1671" s="30">
         <v>6582</v>
       </c>
-      <c r="B1671" s="56" t="s">
+      <c r="B1671" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1671" s="59" t="s">
+      <c r="C1671" s="9" t="s">
         <v>3099</v>
       </c>
-      <c r="D1671" s="63" t="s">
+      <c r="D1671" s="20" t="s">
         <v>3100</v>
       </c>
-      <c r="E1671" s="60" t="s">
+      <c r="E1671" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1671" s="60" t="s">
+      <c r="F1671" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G1671" s="61">
+      <c r="G1671" s="52">
         <v>364300</v>
       </c>
-      <c r="H1671" s="62">
+      <c r="H1671" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1672" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1672" s="57">
+      <c r="A1672" s="30">
         <v>6583</v>
       </c>
-      <c r="B1672" s="56" t="s">
+      <c r="B1672" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1672" s="59" t="s">
+      <c r="C1672" s="9" t="s">
         <v>3101</v>
       </c>
-      <c r="D1672" s="63" t="s">
+      <c r="D1672" s="20" t="s">
         <v>3102</v>
       </c>
-      <c r="E1672" s="60" t="s">
+      <c r="E1672" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1672" s="60" t="s">
+      <c r="F1672" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G1672" s="61">
+      <c r="G1672" s="52">
         <v>364400</v>
       </c>
-      <c r="H1672" s="62">
+      <c r="H1672" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1673" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1673" s="57">
+      <c r="A1673" s="30">
         <v>6584</v>
       </c>
-      <c r="B1673" s="56" t="s">
+      <c r="B1673" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1673" s="59" t="s">
+      <c r="C1673" s="9" t="s">
         <v>3103</v>
       </c>
-      <c r="D1673" s="63" t="s">
+      <c r="D1673" s="20" t="s">
         <v>3104</v>
       </c>
-      <c r="E1673" s="60" t="s">
+      <c r="E1673" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1673" s="60" t="s">
+      <c r="F1673" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G1673" s="61">
+      <c r="G1673" s="52">
         <v>364400</v>
       </c>
-      <c r="H1673" s="62">
+      <c r="H1673" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1674" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1674" s="57">
+      <c r="A1674" s="30">
         <v>6585</v>
       </c>
-      <c r="B1674" s="56" t="s">
+      <c r="B1674" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1674" s="59" t="s">
+      <c r="C1674" s="9" t="s">
         <v>3105</v>
       </c>
-      <c r="D1674" s="63" t="s">
+      <c r="D1674" s="20" t="s">
         <v>3106</v>
       </c>
-      <c r="E1674" s="60" t="s">
+      <c r="E1674" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1674" s="60" t="s">
+      <c r="F1674" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G1674" s="61">
+      <c r="G1674" s="52">
         <v>364600</v>
       </c>
-      <c r="H1674" s="62">
+      <c r="H1674" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1675" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1675" s="57">
+      <c r="A1675" s="30">
         <v>6586</v>
       </c>
-      <c r="B1675" s="56" t="s">
+      <c r="B1675" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1675" s="59" t="s">
+      <c r="C1675" s="9" t="s">
         <v>3107</v>
       </c>
-      <c r="D1675" s="63" t="s">
+      <c r="D1675" s="20" t="s">
         <v>3108</v>
       </c>
-      <c r="E1675" s="60" t="s">
+      <c r="E1675" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1675" s="60" t="s">
+      <c r="F1675" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G1675" s="61">
+      <c r="G1675" s="52">
         <v>369100</v>
       </c>
-      <c r="H1675" s="62">
+      <c r="H1675" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1676" s="57">
+      <c r="A1676" s="30">
         <v>6587</v>
       </c>
-      <c r="B1676" s="56" t="s">
+      <c r="B1676" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1676" s="59" t="s">
+      <c r="C1676" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="D1676" s="63" t="s">
+      <c r="D1676" s="20" t="s">
         <v>3109</v>
       </c>
-      <c r="E1676" s="60" t="s">
+      <c r="E1676" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F1676" s="60" t="s">
+      <c r="F1676" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G1676" s="61">
+      <c r="G1676" s="52">
         <v>359300</v>
       </c>
-      <c r="H1676" s="62">
+      <c r="H1676" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1677" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1677" s="57">
+      <c r="A1677" s="30">
         <v>6588</v>
       </c>
-      <c r="B1677" s="56" t="s">
+      <c r="B1677" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1677" s="59" t="s">
+      <c r="C1677" s="9" t="s">
         <v>3110</v>
       </c>
-      <c r="D1677" s="63" t="s">
+      <c r="D1677" s="20" t="s">
         <v>3111</v>
       </c>
-      <c r="E1677" s="60" t="s">
+      <c r="E1677" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F1677" s="60" t="s">
+      <c r="F1677" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G1677" s="61">
+      <c r="G1677" s="52">
         <v>348100</v>
       </c>
-      <c r="H1677" s="62">
+      <c r="H1677" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1678" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1678" s="57">
+      <c r="A1678" s="30">
         <v>6589</v>
       </c>
-      <c r="B1678" s="56" t="s">
+      <c r="B1678" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1678" s="59" t="s">
+      <c r="C1678" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="D1678" s="63" t="s">
+      <c r="D1678" s="20" t="s">
         <v>3112</v>
       </c>
-      <c r="E1678" s="60" t="s">
+      <c r="E1678" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F1678" s="60" t="s">
+      <c r="F1678" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G1678" s="61">
+      <c r="G1678" s="52">
         <v>357700</v>
       </c>
-      <c r="H1678" s="62">
+      <c r="H1678" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1679" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1679" s="57">
+      <c r="A1679" s="30">
         <v>6590</v>
       </c>
-      <c r="B1679" s="56" t="s">
+      <c r="B1679" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1679" s="59" t="s">
+      <c r="C1679" s="9" t="s">
         <v>1816</v>
       </c>
-      <c r="D1679" s="63" t="s">
+      <c r="D1679" s="20" t="s">
         <v>1817</v>
       </c>
-      <c r="E1679" s="60" t="s">
+      <c r="E1679" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1679" s="60" t="s">
+      <c r="F1679" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G1679" s="61">
+      <c r="G1679" s="52">
         <v>368000</v>
       </c>
-      <c r="H1679" s="62">
+      <c r="H1679" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1680" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1680" s="57">
+      <c r="A1680" s="30">
         <v>6591</v>
       </c>
-      <c r="B1680" s="56" t="s">
+      <c r="B1680" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1680" s="59" t="s">
+      <c r="C1680" s="9" t="s">
         <v>1987</v>
       </c>
-      <c r="D1680" s="63" t="s">
+      <c r="D1680" s="20" t="s">
         <v>3113</v>
       </c>
-      <c r="E1680" s="60" t="s">
+      <c r="E1680" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1680" s="60" t="s">
+      <c r="F1680" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G1680" s="61">
+      <c r="G1680" s="52">
         <v>368000</v>
       </c>
-      <c r="H1680" s="62">
+      <c r="H1680" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1681" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1681" s="57">
+      <c r="A1681" s="30">
         <v>6592</v>
       </c>
-      <c r="B1681" s="56" t="s">
+      <c r="B1681" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C1681" s="59" t="s">
+      <c r="C1681" s="9" t="s">
         <v>3114</v>
       </c>
-      <c r="D1681" s="63" t="s">
+      <c r="D1681" s="20" t="s">
         <v>3115</v>
       </c>
-      <c r="E1681" s="60" t="s">
+      <c r="E1681" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1681" s="60" t="s">
+      <c r="F1681" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G1681" s="61">
+      <c r="G1681" s="52">
         <v>364300</v>
       </c>
-      <c r="H1681" s="62">
+      <c r="H1681" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="1682" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1682" s="57">
+      <c r="A1682" s="30">
         <v>90006593</v>
       </c>
-      <c r="B1682" s="56" t="s">
+      <c r="B1682" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C1682" s="64" t="s">
+      <c r="C1682" s="48" t="s">
         <v>3116</v>
       </c>
-      <c r="D1682" s="63" t="s">
+      <c r="D1682" s="20" t="s">
         <v>3117</v>
       </c>
-      <c r="E1682" s="60" t="s">
+      <c r="E1682" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F1682" s="60" t="s">
+      <c r="F1682" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G1682" s="61">
+      <c r="G1682" s="52">
         <v>364400</v>
       </c>
-      <c r="H1682" s="62">
+      <c r="H1682" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1683" s="69" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B1683" s="70" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C1683" s="71" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D1683" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1683" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1683" s="72" t="s">
+        <v>3121</v>
+      </c>
+      <c r="G1683" s="73" t="s">
+        <v>3122</v>
+      </c>
+      <c r="H1683" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1684" s="69" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B1684" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1684" s="71" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D1684" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1684" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1684" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1684" s="73">
+        <v>364300</v>
+      </c>
+      <c r="H1684" s="74">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1682" xr:uid="{0389C4EF-A3B0-43DA-9F3B-4B5D884F46F2}"/>
+  <autoFilter ref="A1:H1684" xr:uid="{0389C4EF-A3B0-43DA-9F3B-4B5D884F46F2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puchong.nan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apinya.non\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B94D8-99C7-45BB-A48D-39A6D5CC623F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EAC543-21C0-42D3-8162-55D4F7DCF5A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21060" windowHeight="7845" xr2:uid="{3239BD44-5DF0-4EE3-8C46-705090AA855C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{3239BD44-5DF0-4EE3-8C46-705090AA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1775</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1778</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7656" uniqueCount="3313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7685" uniqueCount="3321">
   <si>
     <t>Emp ID</t>
   </si>
@@ -7278,9 +7278,6 @@
     <t>WINKHAING</t>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
-  </si>
-  <si>
     <t>KAWMAL</t>
   </si>
   <si>
@@ -9970,13 +9967,40 @@
   </si>
   <si>
     <t>SORNCHAIPISON</t>
+  </si>
+  <si>
+    <t>TANEE</t>
+  </si>
+  <si>
+    <t>ARUN</t>
+  </si>
+  <si>
+    <t>PUJARI</t>
+  </si>
+  <si>
+    <t>VIKAS</t>
+  </si>
+  <si>
+    <t>KARKERA</t>
+  </si>
+  <si>
+    <t>SURAJ</t>
+  </si>
+  <si>
+    <t>VAIDYA</t>
+  </si>
+  <si>
+    <t>APAITHANASIN</t>
+  </si>
+  <si>
+    <t>POSU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10025,6 +10049,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10055,10 +10084,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10205,21 +10235,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -10230,9 +10245,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{03FE9265-4D14-40EF-9D11-AED2C0EAA3F5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -31977,48 +32003,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D74ABB-BE42-4216-819B-7D7916272FCF}">
-  <dimension ref="A1:J1775"/>
+  <dimension ref="A1:H1781"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1752" workbookViewId="0">
-      <selection activeCell="E1777" sqref="E1777"/>
+    <sheetView tabSelected="1" topLeftCell="A1758" workbookViewId="0">
+      <selection activeCell="P1771" sqref="P1771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="59" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="6" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="62"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="67" t="s">
         <v>6</v>
       </c>
     </row>
@@ -40379,30 +40405,30 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+      <c r="A315" s="8">
         <v>31997</v>
       </c>
-      <c r="B315" s="3" t="str">
+      <c r="B315" s="9" t="str">
         <f>VLOOKUP(A315,[1]พนัดงานแจจุบัน!$A$3:$D$110000,3,0)</f>
         <v>MR</v>
       </c>
-      <c r="C315" s="4" t="s">
+      <c r="C315" s="10" t="s">
         <v>735</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="D315" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="E315" s="5" t="s">
+      <c r="E315" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F315" s="5" t="s">
+      <c r="F315" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="G315" s="6">
+      <c r="G315" s="13">
         <v>351600</v>
       </c>
-      <c r="H315" s="7">
-        <v>1</v>
+      <c r="H315" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
@@ -55148,26 +55174,27 @@
       </c>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A880" s="2">
+      <c r="A880" s="8">
         <v>5963</v>
       </c>
-      <c r="C880" s="4" t="s">
+      <c r="B880" s="9"/>
+      <c r="C880" s="10" t="s">
         <v>1808</v>
       </c>
-      <c r="D880" s="15" t="s">
+      <c r="D880" s="11" t="s">
         <v>1809</v>
       </c>
-      <c r="E880" s="5" t="s">
+      <c r="E880" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F880" s="5" t="s">
+      <c r="F880" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="G880" s="6">
+      <c r="G880" s="13">
         <v>369100</v>
       </c>
-      <c r="H880" s="7">
-        <v>1</v>
+      <c r="H880" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.25">
@@ -55350,26 +55377,27 @@
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A888" s="2">
+      <c r="A888" s="8">
         <v>5973</v>
       </c>
-      <c r="C888" s="4" t="s">
+      <c r="B888" s="9"/>
+      <c r="C888" s="10" t="s">
         <v>1824</v>
       </c>
-      <c r="D888" s="15" t="s">
+      <c r="D888" s="11" t="s">
         <v>1551</v>
       </c>
-      <c r="E888" s="5" t="s">
+      <c r="E888" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F888" s="5" t="s">
+      <c r="F888" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G888" s="6">
+      <c r="G888" s="13">
         <v>364100</v>
       </c>
-      <c r="H888" s="7">
-        <v>1</v>
+      <c r="H888" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.25">
@@ -58329,30 +58357,30 @@
       </c>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1001" s="2">
+      <c r="A1001" s="8">
         <v>6095</v>
       </c>
-      <c r="B1001" s="3" t="str">
+      <c r="B1001" s="9" t="str">
         <f>VLOOKUP(A1001,[1]พนัดงานแจจุบัน!$A$3:$D$110000,3,0)</f>
         <v>MISS</v>
       </c>
-      <c r="C1001" s="4" t="s">
+      <c r="C1001" s="10" t="s">
         <v>2035</v>
       </c>
-      <c r="D1001" s="1" t="s">
+      <c r="D1001" s="11" t="s">
         <v>2036</v>
       </c>
-      <c r="E1001" s="5" t="s">
+      <c r="E1001" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F1001" s="5" t="s">
+      <c r="F1001" s="12" t="s">
         <v>1511</v>
       </c>
-      <c r="G1001" s="6">
+      <c r="G1001" s="13">
         <v>368000</v>
       </c>
-      <c r="H1001" s="7">
-        <v>1</v>
+      <c r="H1001" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.25">
@@ -60446,29 +60474,29 @@
       </c>
     </row>
     <row r="1082" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1082" s="19">
+      <c r="A1082" s="22">
         <v>6180</v>
       </c>
-      <c r="B1082" s="18" t="s">
+      <c r="B1082" s="16" t="s">
         <v>1985</v>
       </c>
-      <c r="C1082" s="20" t="s">
+      <c r="C1082" s="23" t="s">
         <v>2182</v>
       </c>
-      <c r="D1082" s="15" t="s">
+      <c r="D1082" s="11" t="s">
         <v>2183</v>
       </c>
-      <c r="E1082" s="5" t="s">
+      <c r="E1082" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1082" s="25" t="s">
+      <c r="F1082" s="24" t="s">
         <v>2184</v>
       </c>
-      <c r="G1082" s="6">
+      <c r="G1082" s="13">
         <v>381000</v>
       </c>
-      <c r="H1082" s="21">
-        <v>1</v>
+      <c r="H1082" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8" x14ac:dyDescent="0.25">
@@ -64182,7 +64210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1233" s="2">
         <v>90005131</v>
       </c>
@@ -64209,7 +64237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1234" s="2">
         <v>90005132</v>
       </c>
@@ -64236,7 +64264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1235" s="2">
         <v>90005133</v>
       </c>
@@ -64263,7 +64291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1236" s="2">
         <v>90005136</v>
       </c>
@@ -64290,7 +64318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1237" s="2">
         <v>90005137</v>
       </c>
@@ -64316,11 +64344,8 @@
       <c r="H1237" s="7">
         <v>1</v>
       </c>
-      <c r="J1237" s="1" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1238" s="2">
         <v>90005213</v>
       </c>
@@ -64329,7 +64354,7 @@
         <v>MR</v>
       </c>
       <c r="C1238" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="D1238" s="1" t="s">
         <v>575</v>
@@ -64347,7 +64372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1239" s="2">
         <v>90005218</v>
       </c>
@@ -64356,7 +64381,7 @@
         <v>MR</v>
       </c>
       <c r="C1239" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D1239" s="1" t="s">
         <v>575</v>
@@ -64374,7 +64399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1240" s="2">
         <v>90005267</v>
       </c>
@@ -64383,7 +64408,7 @@
         <v>MR</v>
       </c>
       <c r="C1240" s="4" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="D1240" s="1" t="s">
         <v>575</v>
@@ -64401,7 +64426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1241" s="2">
         <v>90005343</v>
       </c>
@@ -64410,10 +64435,10 @@
         <v>MR</v>
       </c>
       <c r="C1241" s="4" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D1241" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="D1241" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="E1241" s="5" t="s">
         <v>28</v>
@@ -64428,13 +64453,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1242" s="8">
         <v>90005344</v>
       </c>
       <c r="B1242" s="9"/>
       <c r="C1242" s="10" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D1242" s="11" t="s">
         <v>575</v>
@@ -64450,7 +64475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1243" s="2">
         <v>90005345</v>
       </c>
@@ -64459,7 +64484,7 @@
         <v>MR</v>
       </c>
       <c r="C1243" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D1243" s="1" t="s">
         <v>2367</v>
@@ -64477,7 +64502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1244" s="2">
         <v>90005346</v>
       </c>
@@ -64486,7 +64511,7 @@
         <v>MR</v>
       </c>
       <c r="C1244" s="4" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="D1244" s="1" t="s">
         <v>801</v>
@@ -64504,7 +64529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1245" s="2">
         <v>90005347</v>
       </c>
@@ -64513,7 +64538,7 @@
         <v>MR</v>
       </c>
       <c r="C1245" s="4" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D1245" s="1" t="s">
         <v>575</v>
@@ -64531,13 +64556,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1246" s="8">
         <v>90005365</v>
       </c>
       <c r="B1246" s="9"/>
       <c r="C1246" s="10" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D1246" s="11" t="s">
         <v>575</v>
@@ -64553,7 +64578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1247" s="2">
         <v>90005420</v>
       </c>
@@ -64562,7 +64587,7 @@
         <v>MR</v>
       </c>
       <c r="C1247" s="4" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D1247" s="1" t="s">
         <v>575</v>
@@ -64580,13 +64605,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1248" s="8">
         <v>90005463</v>
       </c>
       <c r="B1248" s="9"/>
       <c r="C1248" s="10" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D1248" s="11" t="s">
         <v>594</v>
@@ -64611,10 +64636,10 @@
         <v>MR</v>
       </c>
       <c r="C1249" s="4" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D1249" s="1" t="s">
         <v>2428</v>
-      </c>
-      <c r="D1249" s="1" t="s">
-        <v>2429</v>
       </c>
       <c r="E1249" s="5" t="s">
         <v>140</v>
@@ -64638,7 +64663,7 @@
         <v>MR</v>
       </c>
       <c r="C1250" s="4" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D1250" s="1" t="s">
         <v>575</v>
@@ -64665,7 +64690,7 @@
         <v>MR</v>
       </c>
       <c r="C1251" s="4" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D1251" s="1" t="s">
         <v>575</v>
@@ -64692,7 +64717,7 @@
         <v>MR</v>
       </c>
       <c r="C1252" s="4" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="D1252" s="1" t="s">
         <v>575</v>
@@ -64716,10 +64741,10 @@
         <v>MR</v>
       </c>
       <c r="C1253" s="4" t="s">
+        <v>2432</v>
+      </c>
+      <c r="D1253" s="1" t="s">
         <v>2433</v>
-      </c>
-      <c r="D1253" s="1" t="s">
-        <v>2434</v>
       </c>
       <c r="E1253" s="5" t="s">
         <v>140</v>
@@ -64740,10 +64765,10 @@
         <v>MISS</v>
       </c>
       <c r="C1254" s="4" t="s">
+        <v>2434</v>
+      </c>
+      <c r="D1254" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="D1254" s="1" t="s">
-        <v>2436</v>
       </c>
       <c r="E1254" s="5" t="s">
         <v>20</v>
@@ -64767,7 +64792,7 @@
         <v>MR</v>
       </c>
       <c r="C1255" s="4" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="D1255" s="1" t="s">
         <v>575</v>
@@ -64791,7 +64816,7 @@
         <v>MISS</v>
       </c>
       <c r="C1256" s="4" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D1256" s="1" t="s">
         <v>575</v>
@@ -64818,7 +64843,7 @@
         <v>MISS</v>
       </c>
       <c r="C1257" s="4" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D1257" s="1" t="s">
         <v>2346</v>
@@ -64844,7 +64869,7 @@
         <v>14</v>
       </c>
       <c r="C1258" s="4" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D1258" s="1" t="s">
         <v>575</v>
@@ -64871,7 +64896,7 @@
         <v>MISS</v>
       </c>
       <c r="C1259" s="4" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D1259" s="1" t="s">
         <v>2274</v>
@@ -64898,7 +64923,7 @@
         <v>MISS</v>
       </c>
       <c r="C1260" s="4" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D1260" s="1" t="s">
         <v>575</v>
@@ -64922,7 +64947,7 @@
         <v>MR</v>
       </c>
       <c r="C1261" s="4" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D1261" s="1" t="s">
         <v>2378</v>
@@ -64946,16 +64971,16 @@
       </c>
       <c r="B1262" s="9"/>
       <c r="C1262" s="10" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D1262" s="11" t="s">
         <v>2391</v>
       </c>
       <c r="E1262" s="12" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F1262" s="12" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G1262" s="13"/>
       <c r="H1262" s="14">
@@ -64968,16 +64993,16 @@
       </c>
       <c r="B1263" s="9"/>
       <c r="C1263" s="10" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D1263" s="11" t="s">
         <v>575</v>
       </c>
       <c r="E1263" s="12" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F1263" s="12" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G1263" s="13"/>
       <c r="H1263" s="14">
@@ -64990,16 +65015,16 @@
       </c>
       <c r="B1264" s="9"/>
       <c r="C1264" s="10" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D1264" s="11" t="s">
         <v>2350</v>
       </c>
       <c r="E1264" s="12" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F1264" s="12" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G1264" s="13"/>
       <c r="H1264" s="14">
@@ -65012,16 +65037,16 @@
       </c>
       <c r="B1265" s="9"/>
       <c r="C1265" s="10" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D1265" s="11" t="s">
         <v>575</v>
       </c>
       <c r="E1265" s="12" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F1265" s="12" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="G1265" s="13"/>
       <c r="H1265" s="14">
@@ -65034,10 +65059,10 @@
       </c>
       <c r="B1266" s="9"/>
       <c r="C1266" s="10" t="s">
+        <v>2448</v>
+      </c>
+      <c r="D1266" s="11" t="s">
         <v>2449</v>
-      </c>
-      <c r="D1266" s="11" t="s">
-        <v>2450</v>
       </c>
       <c r="E1266" s="12" t="s">
         <v>575</v>
@@ -65061,7 +65086,7 @@
         <v>1586</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E1267" s="5" t="s">
         <v>28</v>
@@ -65084,10 +65109,10 @@
         <v>1985</v>
       </c>
       <c r="C1268" s="32" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D1268" s="1" t="s">
         <v>2452</v>
-      </c>
-      <c r="D1268" s="1" t="s">
-        <v>2453</v>
       </c>
       <c r="E1268" s="5" t="s">
         <v>28</v>
@@ -65110,10 +65135,10 @@
         <v>1985</v>
       </c>
       <c r="C1269" s="10" t="s">
+        <v>2453</v>
+      </c>
+      <c r="D1269" s="11" t="s">
         <v>2454</v>
-      </c>
-      <c r="D1269" s="11" t="s">
-        <v>2455</v>
       </c>
       <c r="E1269" s="12" t="s">
         <v>28</v>
@@ -65134,10 +65159,10 @@
         <v>7</v>
       </c>
       <c r="C1270" s="35" t="s">
+        <v>2455</v>
+      </c>
+      <c r="D1270" s="11" t="s">
         <v>2456</v>
-      </c>
-      <c r="D1270" s="11" t="s">
-        <v>2457</v>
       </c>
       <c r="E1270" s="36" t="s">
         <v>28</v>
@@ -65158,10 +65183,10 @@
         <v>1985</v>
       </c>
       <c r="C1271" s="32" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D1271" s="1" t="s">
         <v>2458</v>
-      </c>
-      <c r="D1271" s="1" t="s">
-        <v>2459</v>
       </c>
       <c r="E1271" s="5" t="s">
         <v>28</v>
@@ -65184,10 +65209,10 @@
         <v>1985</v>
       </c>
       <c r="C1272" s="32" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D1272" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="D1272" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="E1272" s="5" t="s">
         <v>28</v>
@@ -65203,29 +65228,29 @@
       </c>
     </row>
     <row r="1273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1273" s="30">
+      <c r="A1273" s="33">
         <v>6194</v>
       </c>
-      <c r="B1273" s="31" t="s">
+      <c r="B1273" s="34" t="s">
         <v>1985</v>
       </c>
-      <c r="C1273" s="32" t="s">
-        <v>2462</v>
-      </c>
-      <c r="D1273" s="15" t="s">
+      <c r="C1273" s="35" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D1273" s="11" t="s">
         <v>2061</v>
       </c>
-      <c r="E1273" s="5" t="s">
+      <c r="E1273" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F1273" s="37" t="s">
+      <c r="F1273" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="G1273" s="6">
+      <c r="G1273" s="13">
         <v>364300</v>
       </c>
-      <c r="H1273" s="7">
-        <v>1</v>
+      <c r="H1273" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8" x14ac:dyDescent="0.25">
@@ -65236,10 +65261,10 @@
         <v>1985</v>
       </c>
       <c r="C1274" s="32" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D1274" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="D1274" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="E1274" s="5" t="s">
         <v>28</v>
@@ -65265,7 +65290,7 @@
         <v>648</v>
       </c>
       <c r="D1275" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="E1275" s="5" t="s">
         <v>28</v>
@@ -65288,10 +65313,10 @@
         <v>7</v>
       </c>
       <c r="C1276" s="32" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D1276" s="1" t="s">
         <v>2466</v>
-      </c>
-      <c r="D1276" s="1" t="s">
-        <v>2467</v>
       </c>
       <c r="E1276" s="5" t="s">
         <v>28</v>
@@ -65314,10 +65339,10 @@
         <v>7</v>
       </c>
       <c r="C1277" s="35" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D1277" s="11" t="s">
         <v>2468</v>
-      </c>
-      <c r="D1277" s="11" t="s">
-        <v>2469</v>
       </c>
       <c r="E1277" s="36" t="s">
         <v>28</v>
@@ -65338,7 +65363,7 @@
         <v>7</v>
       </c>
       <c r="C1278" s="32" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D1278" s="1" t="s">
         <v>1035</v>
@@ -65364,10 +65389,10 @@
         <v>7</v>
       </c>
       <c r="C1279" s="10" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D1279" s="11" t="s">
         <v>2471</v>
-      </c>
-      <c r="D1279" s="11" t="s">
-        <v>2472</v>
       </c>
       <c r="E1279" s="12" t="s">
         <v>28</v>
@@ -65388,10 +65413,10 @@
         <v>7</v>
       </c>
       <c r="C1280" s="32" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D1280" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="D1280" s="1" t="s">
-        <v>2474</v>
       </c>
       <c r="E1280" s="5" t="s">
         <v>28</v>
@@ -65414,10 +65439,10 @@
         <v>1985</v>
       </c>
       <c r="C1281" s="10" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D1281" s="11" t="s">
         <v>2475</v>
-      </c>
-      <c r="D1281" s="11" t="s">
-        <v>2476</v>
       </c>
       <c r="E1281" s="12" t="s">
         <v>28</v>
@@ -65438,10 +65463,10 @@
         <v>1985</v>
       </c>
       <c r="C1282" s="10" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D1282" s="11" t="s">
         <v>2477</v>
-      </c>
-      <c r="D1282" s="11" t="s">
-        <v>2478</v>
       </c>
       <c r="E1282" s="12" t="s">
         <v>28</v>
@@ -65465,7 +65490,7 @@
         <v>841</v>
       </c>
       <c r="D1283" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="E1283" s="5" t="s">
         <v>186</v>
@@ -65488,16 +65513,16 @@
         <v>1985</v>
       </c>
       <c r="C1284" s="35" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D1284" s="11" t="s">
         <v>2480</v>
-      </c>
-      <c r="D1284" s="11" t="s">
-        <v>2481</v>
       </c>
       <c r="E1284" s="36" t="s">
         <v>186</v>
       </c>
       <c r="F1284" s="36" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="G1284" s="13"/>
       <c r="H1284" s="14">
@@ -65512,16 +65537,16 @@
         <v>7</v>
       </c>
       <c r="C1285" s="35" t="s">
+        <v>2482</v>
+      </c>
+      <c r="D1285" s="11" t="s">
         <v>2483</v>
-      </c>
-      <c r="D1285" s="11" t="s">
-        <v>2484</v>
       </c>
       <c r="E1285" s="36" t="s">
         <v>186</v>
       </c>
       <c r="F1285" s="36" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="G1285" s="13"/>
       <c r="H1285" s="14">
@@ -65536,16 +65561,16 @@
         <v>7</v>
       </c>
       <c r="C1286" s="32" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D1286" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="D1286" s="1" t="s">
-        <v>2486</v>
       </c>
       <c r="E1286" s="5" t="s">
         <v>186</v>
       </c>
       <c r="F1286" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="G1286" s="6">
         <v>348100</v>
@@ -65562,16 +65587,16 @@
         <v>1985</v>
       </c>
       <c r="C1287" s="32" t="s">
+        <v>2486</v>
+      </c>
+      <c r="D1287" s="1" t="s">
         <v>2487</v>
-      </c>
-      <c r="D1287" s="1" t="s">
-        <v>2488</v>
       </c>
       <c r="E1287" s="5" t="s">
         <v>242</v>
       </c>
       <c r="F1287" s="5" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="G1287" s="6">
         <v>343100</v>
@@ -65588,16 +65613,16 @@
         <v>7</v>
       </c>
       <c r="C1288" s="32" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D1288" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="D1288" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="E1288" s="5" t="s">
         <v>242</v>
       </c>
       <c r="F1288" s="5" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="G1288" s="6">
         <v>343100</v>
@@ -65617,13 +65642,13 @@
         <v>892</v>
       </c>
       <c r="D1289" s="11" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="E1289" s="12" t="s">
         <v>242</v>
       </c>
       <c r="F1289" s="12" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="G1289" s="13"/>
       <c r="H1289" s="14">
@@ -65638,16 +65663,16 @@
         <v>1985</v>
       </c>
       <c r="C1290" s="35" t="s">
+        <v>2492</v>
+      </c>
+      <c r="D1290" s="11" t="s">
         <v>2493</v>
-      </c>
-      <c r="D1290" s="11" t="s">
-        <v>2494</v>
       </c>
       <c r="E1290" s="36" t="s">
         <v>207</v>
       </c>
       <c r="F1290" s="36" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="G1290" s="13"/>
       <c r="H1290" s="14">
@@ -65662,10 +65687,10 @@
         <v>7</v>
       </c>
       <c r="C1291" s="32" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D1291" s="1" t="s">
         <v>2496</v>
-      </c>
-      <c r="D1291" s="1" t="s">
-        <v>2497</v>
       </c>
       <c r="E1291" s="5" t="s">
         <v>173</v>
@@ -65688,10 +65713,10 @@
         <v>7</v>
       </c>
       <c r="C1292" s="32" t="s">
+        <v>2497</v>
+      </c>
+      <c r="D1292" s="1" t="s">
         <v>2498</v>
-      </c>
-      <c r="D1292" s="1" t="s">
-        <v>2499</v>
       </c>
       <c r="E1292" s="5" t="s">
         <v>108</v>
@@ -65717,13 +65742,13 @@
         <v>362</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="E1293" s="5" t="s">
         <v>360</v>
       </c>
       <c r="F1293" s="5" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="G1293" s="6">
         <v>350200</v>
@@ -65740,16 +65765,16 @@
         <v>1985</v>
       </c>
       <c r="C1294" s="35" t="s">
+        <v>2501</v>
+      </c>
+      <c r="D1294" s="11" t="s">
         <v>2502</v>
-      </c>
-      <c r="D1294" s="11" t="s">
-        <v>2503</v>
       </c>
       <c r="E1294" s="36" t="s">
         <v>116</v>
       </c>
       <c r="F1294" s="36" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="G1294" s="13"/>
       <c r="H1294" s="14">
@@ -65764,16 +65789,16 @@
         <v>1985</v>
       </c>
       <c r="C1295" s="10" t="s">
+        <v>2504</v>
+      </c>
+      <c r="D1295" s="11" t="s">
         <v>2505</v>
-      </c>
-      <c r="D1295" s="11" t="s">
-        <v>2506</v>
       </c>
       <c r="E1295" s="12" t="s">
         <v>108</v>
       </c>
       <c r="F1295" s="12" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="G1295" s="13"/>
       <c r="H1295" s="14">
@@ -65788,16 +65813,16 @@
         <v>7</v>
       </c>
       <c r="C1296" s="32" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D1296" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="D1296" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="E1296" s="5" t="s">
         <v>242</v>
       </c>
       <c r="F1296" s="5" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="G1296" s="6">
         <v>343100</v>
@@ -65814,10 +65839,10 @@
         <v>1985</v>
       </c>
       <c r="C1297" s="32" t="s">
+        <v>2509</v>
+      </c>
+      <c r="D1297" s="1" t="s">
         <v>2510</v>
-      </c>
-      <c r="D1297" s="1" t="s">
-        <v>2511</v>
       </c>
       <c r="E1297" s="5" t="s">
         <v>24</v>
@@ -65840,10 +65865,10 @@
         <v>7</v>
       </c>
       <c r="C1298" s="10" t="s">
+        <v>2511</v>
+      </c>
+      <c r="D1298" s="11" t="s">
         <v>2512</v>
-      </c>
-      <c r="D1298" s="11" t="s">
-        <v>2513</v>
       </c>
       <c r="E1298" s="12" t="s">
         <v>20</v>
@@ -65864,10 +65889,10 @@
         <v>1985</v>
       </c>
       <c r="C1299" s="32" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E1299" s="5" t="s">
         <v>68</v>
@@ -65890,10 +65915,10 @@
         <v>2063</v>
       </c>
       <c r="C1300" s="10" t="s">
+        <v>2514</v>
+      </c>
+      <c r="D1300" s="11" t="s">
         <v>2515</v>
-      </c>
-      <c r="D1300" s="11" t="s">
-        <v>2516</v>
       </c>
       <c r="E1300" s="12" t="s">
         <v>68</v>
@@ -65914,10 +65939,10 @@
         <v>1985</v>
       </c>
       <c r="C1301" s="10" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D1301" s="11" t="s">
         <v>2517</v>
-      </c>
-      <c r="D1301" s="11" t="s">
-        <v>2518</v>
       </c>
       <c r="E1301" s="12" t="s">
         <v>68</v>
@@ -65938,10 +65963,10 @@
         <v>1985</v>
       </c>
       <c r="C1302" s="32" t="s">
+        <v>2518</v>
+      </c>
+      <c r="D1302" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="D1302" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="E1302" s="5" t="s">
         <v>68</v>
@@ -65964,10 +65989,10 @@
         <v>1985</v>
       </c>
       <c r="C1303" s="32" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D1303" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="D1303" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="E1303" s="5" t="s">
         <v>68</v>
@@ -65990,10 +66015,10 @@
         <v>1985</v>
       </c>
       <c r="C1304" s="10" t="s">
+        <v>2522</v>
+      </c>
+      <c r="D1304" s="11" t="s">
         <v>2523</v>
-      </c>
-      <c r="D1304" s="11" t="s">
-        <v>2524</v>
       </c>
       <c r="E1304" s="12" t="s">
         <v>68</v>
@@ -66014,10 +66039,10 @@
         <v>7</v>
       </c>
       <c r="C1305" s="32" t="s">
+        <v>2524</v>
+      </c>
+      <c r="D1305" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="D1305" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="E1305" s="5" t="s">
         <v>28</v>
@@ -66040,10 +66065,10 @@
         <v>1985</v>
       </c>
       <c r="C1306" s="32" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D1306" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="D1306" s="1" t="s">
-        <v>2528</v>
       </c>
       <c r="E1306" s="5" t="s">
         <v>28</v>
@@ -66066,10 +66091,10 @@
         <v>7</v>
       </c>
       <c r="C1307" s="32" t="s">
+        <v>2528</v>
+      </c>
+      <c r="D1307" s="1" t="s">
         <v>2529</v>
-      </c>
-      <c r="D1307" s="1" t="s">
-        <v>2530</v>
       </c>
       <c r="E1307" s="5" t="s">
         <v>28</v>
@@ -66092,10 +66117,10 @@
         <v>1985</v>
       </c>
       <c r="C1308" s="32" t="s">
+        <v>2530</v>
+      </c>
+      <c r="D1308" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="D1308" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="E1308" s="5" t="s">
         <v>28</v>
@@ -66118,16 +66143,16 @@
         <v>1985</v>
       </c>
       <c r="C1309" s="32" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D1309" s="1" t="s">
         <v>2533</v>
-      </c>
-      <c r="D1309" s="1" t="s">
-        <v>2534</v>
       </c>
       <c r="E1309" s="5" t="s">
         <v>242</v>
       </c>
       <c r="F1309" s="5" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="G1309" s="6">
         <v>343100</v>
@@ -66144,16 +66169,16 @@
         <v>1985</v>
       </c>
       <c r="C1310" s="32" t="s">
+        <v>2534</v>
+      </c>
+      <c r="D1310" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="D1310" s="1" t="s">
-        <v>2536</v>
       </c>
       <c r="E1310" s="5" t="s">
         <v>186</v>
       </c>
       <c r="F1310" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="G1310" s="6">
         <v>348100</v>
@@ -66170,16 +66195,16 @@
         <v>1985</v>
       </c>
       <c r="C1311" s="32" t="s">
+        <v>2536</v>
+      </c>
+      <c r="D1311" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="D1311" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="E1311" s="5" t="s">
         <v>186</v>
       </c>
       <c r="F1311" s="5" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="G1311" s="6">
         <v>348100</v>
@@ -66196,16 +66221,16 @@
         <v>1985</v>
       </c>
       <c r="C1312" s="32" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D1312" s="1" t="s">
         <v>2539</v>
-      </c>
-      <c r="D1312" s="1" t="s">
-        <v>2540</v>
       </c>
       <c r="E1312" s="5" t="s">
         <v>360</v>
       </c>
       <c r="F1312" s="5" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="G1312" s="6">
         <v>350200</v>
@@ -66222,10 +66247,10 @@
         <v>1985</v>
       </c>
       <c r="C1313" s="32" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D1313" s="1" t="s">
         <v>2542</v>
-      </c>
-      <c r="D1313" s="1" t="s">
-        <v>2543</v>
       </c>
       <c r="E1313" s="5" t="s">
         <v>238</v>
@@ -66248,10 +66273,10 @@
         <v>1985</v>
       </c>
       <c r="C1314" s="10" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D1314" s="11" t="s">
         <v>2544</v>
-      </c>
-      <c r="D1314" s="11" t="s">
-        <v>2545</v>
       </c>
       <c r="E1314" s="12" t="s">
         <v>238</v>
@@ -66275,7 +66300,7 @@
         <v>155</v>
       </c>
       <c r="D1315" s="11" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="E1315" s="36" t="s">
         <v>68</v>
@@ -66296,10 +66321,10 @@
         <v>1985</v>
       </c>
       <c r="C1316" s="32" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D1316" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="D1316" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="E1316" s="5" t="s">
         <v>28</v>
@@ -66322,10 +66347,10 @@
         <v>2063</v>
       </c>
       <c r="C1317" s="32" t="s">
+        <v>2548</v>
+      </c>
+      <c r="D1317" s="1" t="s">
         <v>2549</v>
-      </c>
-      <c r="D1317" s="1" t="s">
-        <v>2550</v>
       </c>
       <c r="E1317" s="5" t="s">
         <v>28</v>
@@ -66348,10 +66373,10 @@
         <v>2063</v>
       </c>
       <c r="C1318" s="32" t="s">
+        <v>2550</v>
+      </c>
+      <c r="D1318" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="D1318" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="E1318" s="5" t="s">
         <v>28</v>
@@ -66374,10 +66399,10 @@
         <v>2063</v>
       </c>
       <c r="C1319" s="32" t="s">
+        <v>2552</v>
+      </c>
+      <c r="D1319" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="D1319" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="E1319" s="5" t="s">
         <v>28</v>
@@ -66400,10 +66425,10 @@
         <v>2063</v>
       </c>
       <c r="C1320" s="32" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D1320" s="1" t="s">
         <v>2555</v>
-      </c>
-      <c r="D1320" s="1" t="s">
-        <v>2556</v>
       </c>
       <c r="E1320" s="5" t="s">
         <v>28</v>
@@ -66423,13 +66448,13 @@
         <v>6245</v>
       </c>
       <c r="B1321" s="18" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1321" s="32" t="s">
         <v>2557</v>
       </c>
-      <c r="C1321" s="32" t="s">
+      <c r="D1321" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="D1321" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="E1321" s="5" t="s">
         <v>28</v>
@@ -66452,10 +66477,10 @@
         <v>2063</v>
       </c>
       <c r="C1322" s="32" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D1322" s="1" t="s">
         <v>2560</v>
-      </c>
-      <c r="D1322" s="1" t="s">
-        <v>2561</v>
       </c>
       <c r="E1322" s="5" t="s">
         <v>28</v>
@@ -66478,10 +66503,10 @@
         <v>2063</v>
       </c>
       <c r="C1323" s="32" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D1323" s="1" t="s">
         <v>2562</v>
-      </c>
-      <c r="D1323" s="1" t="s">
-        <v>2563</v>
       </c>
       <c r="E1323" s="5" t="s">
         <v>28</v>
@@ -66504,10 +66529,10 @@
         <v>1985</v>
       </c>
       <c r="C1324" s="10" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D1324" s="11" t="s">
         <v>2564</v>
-      </c>
-      <c r="D1324" s="11" t="s">
-        <v>2565</v>
       </c>
       <c r="E1324" s="12" t="s">
         <v>28</v>
@@ -66528,10 +66553,10 @@
         <v>2063</v>
       </c>
       <c r="C1325" s="32" t="s">
+        <v>2565</v>
+      </c>
+      <c r="D1325" s="1" t="s">
         <v>2566</v>
-      </c>
-      <c r="D1325" s="1" t="s">
-        <v>2567</v>
       </c>
       <c r="E1325" s="5" t="s">
         <v>28</v>
@@ -66554,10 +66579,10 @@
         <v>2063</v>
       </c>
       <c r="C1326" s="32" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D1326" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="D1326" s="1" t="s">
-        <v>2569</v>
       </c>
       <c r="E1326" s="5" t="s">
         <v>28</v>
@@ -66580,10 +66605,10 @@
         <v>2063</v>
       </c>
       <c r="C1327" s="32" t="s">
+        <v>2569</v>
+      </c>
+      <c r="D1327" s="1" t="s">
         <v>2570</v>
-      </c>
-      <c r="D1327" s="1" t="s">
-        <v>2571</v>
       </c>
       <c r="E1327" s="5" t="s">
         <v>28</v>
@@ -66606,10 +66631,10 @@
         <v>2063</v>
       </c>
       <c r="C1328" s="32" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D1328" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="D1328" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="E1328" s="5" t="s">
         <v>28</v>
@@ -66632,10 +66657,10 @@
         <v>2063</v>
       </c>
       <c r="C1329" s="32" t="s">
+        <v>2573</v>
+      </c>
+      <c r="D1329" s="1" t="s">
         <v>2574</v>
-      </c>
-      <c r="D1329" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="E1329" s="5" t="s">
         <v>28</v>
@@ -66658,10 +66683,10 @@
         <v>1985</v>
       </c>
       <c r="C1330" s="32" t="s">
+        <v>2575</v>
+      </c>
+      <c r="D1330" s="1" t="s">
         <v>2576</v>
-      </c>
-      <c r="D1330" s="1" t="s">
-        <v>2577</v>
       </c>
       <c r="E1330" s="5" t="s">
         <v>68</v>
@@ -66684,16 +66709,16 @@
         <v>1985</v>
       </c>
       <c r="C1331" s="32" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D1331" s="1" t="s">
         <v>2578</v>
-      </c>
-      <c r="D1331" s="1" t="s">
-        <v>2579</v>
       </c>
       <c r="E1331" s="37" t="s">
         <v>68</v>
       </c>
       <c r="F1331" s="37" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="H1331" s="7">
         <v>1</v>
@@ -66707,10 +66732,10 @@
         <v>2063</v>
       </c>
       <c r="C1332" s="35" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D1332" s="11" t="s">
         <v>2581</v>
-      </c>
-      <c r="D1332" s="11" t="s">
-        <v>2582</v>
       </c>
       <c r="E1332" s="36" t="s">
         <v>20</v>
@@ -66731,10 +66756,10 @@
         <v>2063</v>
       </c>
       <c r="C1333" s="35" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D1333" s="11" t="s">
         <v>2583</v>
-      </c>
-      <c r="D1333" s="11" t="s">
-        <v>2584</v>
       </c>
       <c r="E1333" s="36" t="s">
         <v>20</v>
@@ -66755,10 +66780,10 @@
         <v>1985</v>
       </c>
       <c r="C1334" s="35" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D1334" s="11" t="s">
         <v>2585</v>
-      </c>
-      <c r="D1334" s="11" t="s">
-        <v>2586</v>
       </c>
       <c r="E1334" s="36" t="s">
         <v>57</v>
@@ -66779,10 +66804,10 @@
         <v>1985</v>
       </c>
       <c r="C1335" s="32" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D1335" s="1" t="s">
         <v>2587</v>
-      </c>
-      <c r="D1335" s="1" t="s">
-        <v>2588</v>
       </c>
       <c r="E1335" s="5" t="s">
         <v>28</v>
@@ -66808,7 +66833,7 @@
         <v>825</v>
       </c>
       <c r="D1336" s="1" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="E1336" s="5" t="s">
         <v>28</v>
@@ -66831,10 +66856,10 @@
         <v>1985</v>
       </c>
       <c r="C1337" s="17" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D1337" s="11" t="s">
         <v>2590</v>
-      </c>
-      <c r="D1337" s="11" t="s">
-        <v>2591</v>
       </c>
       <c r="E1337" s="39" t="s">
         <v>28</v>
@@ -66855,10 +66880,10 @@
         <v>1985</v>
       </c>
       <c r="C1338" s="17" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D1338" s="11" t="s">
         <v>2592</v>
-      </c>
-      <c r="D1338" s="11" t="s">
-        <v>2593</v>
       </c>
       <c r="E1338" s="39" t="s">
         <v>28</v>
@@ -66882,7 +66907,7 @@
         <v>44</v>
       </c>
       <c r="D1339" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="E1339" s="5" t="s">
         <v>28</v>
@@ -66905,10 +66930,10 @@
         <v>1985</v>
       </c>
       <c r="C1340" s="41" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D1340" s="1" t="s">
         <v>2595</v>
-      </c>
-      <c r="D1340" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="E1340" s="5" t="s">
         <v>28</v>
@@ -66931,10 +66956,10 @@
         <v>2063</v>
       </c>
       <c r="C1341" s="41" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D1341" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="D1341" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="E1341" s="5" t="s">
         <v>28</v>
@@ -66957,7 +66982,7 @@
         <v>1985</v>
       </c>
       <c r="C1342" s="10" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="D1342" s="11" t="s">
         <v>839</v>
@@ -66981,10 +67006,10 @@
         <v>2063</v>
       </c>
       <c r="C1343" s="41" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D1343" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="D1343" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="E1343" s="5" t="s">
         <v>28</v>
@@ -67033,10 +67058,10 @@
         <v>2063</v>
       </c>
       <c r="C1345" s="41" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D1345" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="D1345" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="E1345" s="5" t="s">
         <v>28</v>
@@ -67059,10 +67084,10 @@
         <v>2063</v>
       </c>
       <c r="C1346" s="41" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D1346" s="1" t="s">
         <v>2604</v>
-      </c>
-      <c r="D1346" s="1" t="s">
-        <v>2605</v>
       </c>
       <c r="E1346" s="5" t="s">
         <v>28</v>
@@ -67085,10 +67110,10 @@
         <v>1985</v>
       </c>
       <c r="C1347" s="41" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D1347" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="D1347" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="E1347" s="5" t="s">
         <v>68</v>
@@ -67111,10 +67136,10 @@
         <v>7</v>
       </c>
       <c r="C1348" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D1348" s="15" t="s">
         <v>2608</v>
-      </c>
-      <c r="D1348" s="15" t="s">
-        <v>2609</v>
       </c>
       <c r="E1348" s="5" t="s">
         <v>28</v>
@@ -67137,10 +67162,10 @@
         <v>7</v>
       </c>
       <c r="C1349" s="41" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D1349" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="D1349" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="E1349" s="5" t="s">
         <v>28</v>
@@ -67163,10 +67188,10 @@
         <v>1985</v>
       </c>
       <c r="C1350" s="41" t="s">
+        <v>2611</v>
+      </c>
+      <c r="D1350" s="1" t="s">
         <v>2612</v>
-      </c>
-      <c r="D1350" s="1" t="s">
-        <v>2613</v>
       </c>
       <c r="E1350" s="5" t="s">
         <v>28</v>
@@ -67192,7 +67217,7 @@
         <v>1783</v>
       </c>
       <c r="D1351" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="E1351" s="5" t="s">
         <v>28</v>
@@ -67215,10 +67240,10 @@
         <v>7</v>
       </c>
       <c r="C1352" s="41" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D1352" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="D1352" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="E1352" s="5" t="s">
         <v>28</v>
@@ -67241,10 +67266,10 @@
         <v>1985</v>
       </c>
       <c r="C1353" s="10" t="s">
+        <v>2616</v>
+      </c>
+      <c r="D1353" s="11" t="s">
         <v>2617</v>
-      </c>
-      <c r="D1353" s="11" t="s">
-        <v>2618</v>
       </c>
       <c r="E1353" s="12" t="s">
         <v>28</v>
@@ -67265,10 +67290,10 @@
         <v>7</v>
       </c>
       <c r="C1354" s="41" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D1354" s="1" t="s">
         <v>2619</v>
-      </c>
-      <c r="D1354" s="1" t="s">
-        <v>2620</v>
       </c>
       <c r="E1354" s="5" t="s">
         <v>28</v>
@@ -67291,16 +67316,16 @@
         <v>7</v>
       </c>
       <c r="C1355" s="17" t="s">
+        <v>2620</v>
+      </c>
+      <c r="D1355" s="11" t="s">
         <v>2621</v>
-      </c>
-      <c r="D1355" s="11" t="s">
-        <v>2622</v>
       </c>
       <c r="E1355" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F1355" s="39" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="G1355" s="13"/>
       <c r="H1355" s="26">
@@ -67315,10 +67340,10 @@
         <v>1985</v>
       </c>
       <c r="C1356" s="41" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D1356" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="D1356" s="1" t="s">
-        <v>2625</v>
       </c>
       <c r="E1356" s="5" t="s">
         <v>28</v>
@@ -67341,7 +67366,7 @@
         <v>1985</v>
       </c>
       <c r="C1357" s="17" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="D1357" s="11" t="s">
         <v>2237</v>
@@ -67368,7 +67393,7 @@
         <v>1168</v>
       </c>
       <c r="D1358" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="E1358" s="5" t="s">
         <v>28</v>
@@ -67391,10 +67416,10 @@
         <v>1985</v>
       </c>
       <c r="C1359" s="41" t="s">
+        <v>2627</v>
+      </c>
+      <c r="D1359" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="D1359" s="1" t="s">
-        <v>2629</v>
       </c>
       <c r="E1359" s="5" t="s">
         <v>28</v>
@@ -67417,10 +67442,10 @@
         <v>1985</v>
       </c>
       <c r="C1360" s="41" t="s">
+        <v>2629</v>
+      </c>
+      <c r="D1360" s="1" t="s">
         <v>2630</v>
-      </c>
-      <c r="D1360" s="1" t="s">
-        <v>2631</v>
       </c>
       <c r="E1360" s="5" t="s">
         <v>68</v>
@@ -67443,10 +67468,10 @@
         <v>7</v>
       </c>
       <c r="C1361" s="17" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D1361" s="11" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="E1361" s="39" t="s">
         <v>68</v>
@@ -67467,10 +67492,10 @@
         <v>7</v>
       </c>
       <c r="C1362" s="17" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D1362" s="11" t="s">
         <v>2633</v>
-      </c>
-      <c r="D1362" s="11" t="s">
-        <v>2634</v>
       </c>
       <c r="E1362" s="39" t="s">
         <v>68</v>
@@ -67491,10 +67516,10 @@
         <v>1985</v>
       </c>
       <c r="C1363" s="41" t="s">
+        <v>2634</v>
+      </c>
+      <c r="D1363" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="D1363" s="1" t="s">
-        <v>2636</v>
       </c>
       <c r="E1363" s="5" t="s">
         <v>238</v>
@@ -67517,7 +67542,7 @@
         <v>7</v>
       </c>
       <c r="C1364" s="41" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D1364" s="1" t="s">
         <v>169</v>
@@ -67543,10 +67568,10 @@
         <v>1985</v>
       </c>
       <c r="C1365" s="10" t="s">
+        <v>2637</v>
+      </c>
+      <c r="D1365" s="11" t="s">
         <v>2638</v>
-      </c>
-      <c r="D1365" s="11" t="s">
-        <v>2639</v>
       </c>
       <c r="E1365" s="12" t="s">
         <v>116</v>
@@ -67567,10 +67592,10 @@
         <v>7</v>
       </c>
       <c r="C1366" s="41" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D1366" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="D1366" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="E1366" s="5" t="s">
         <v>116</v>
@@ -67596,7 +67621,7 @@
         <v>106</v>
       </c>
       <c r="D1367" s="11" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="E1367" s="39" t="s">
         <v>20</v>
@@ -67617,10 +67642,10 @@
         <v>7</v>
       </c>
       <c r="C1368" s="41" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D1368" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="D1368" s="1" t="s">
-        <v>2644</v>
       </c>
       <c r="E1368" s="5" t="s">
         <v>249</v>
@@ -67643,10 +67668,10 @@
         <v>1985</v>
       </c>
       <c r="C1369" s="41" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D1369" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="D1369" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="E1369" s="5" t="s">
         <v>249</v>
@@ -67669,10 +67694,10 @@
         <v>1985</v>
       </c>
       <c r="C1370" s="41" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D1370" s="1" t="s">
         <v>2647</v>
-      </c>
-      <c r="D1370" s="1" t="s">
-        <v>2648</v>
       </c>
       <c r="E1370" s="5" t="s">
         <v>108</v>
@@ -67695,10 +67720,10 @@
         <v>1985</v>
       </c>
       <c r="C1371" s="41" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D1371" s="1" t="s">
         <v>2649</v>
-      </c>
-      <c r="D1371" s="1" t="s">
-        <v>2650</v>
       </c>
       <c r="E1371" s="5" t="s">
         <v>24</v>
@@ -67721,7 +67746,7 @@
         <v>7</v>
       </c>
       <c r="C1372" s="17" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="D1372" s="11" t="s">
         <v>261</v>
@@ -67730,7 +67755,7 @@
         <v>242</v>
       </c>
       <c r="F1372" s="39" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="G1372" s="13"/>
       <c r="H1372" s="26">
@@ -67745,10 +67770,10 @@
         <v>7</v>
       </c>
       <c r="C1373" s="41" t="s">
+        <v>2652</v>
+      </c>
+      <c r="D1373" s="1" t="s">
         <v>2653</v>
-      </c>
-      <c r="D1373" s="1" t="s">
-        <v>2654</v>
       </c>
       <c r="E1373" s="5" t="s">
         <v>28</v>
@@ -67771,10 +67796,10 @@
         <v>7</v>
       </c>
       <c r="C1374" s="41" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D1374" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="D1374" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="E1374" s="5" t="s">
         <v>28</v>
@@ -67794,13 +67819,13 @@
         <v>6296</v>
       </c>
       <c r="B1375" s="18" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C1375" s="41" t="s">
         <v>1590</v>
       </c>
       <c r="D1375" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="E1375" s="5" t="s">
         <v>28</v>
@@ -67823,10 +67848,10 @@
         <v>7</v>
       </c>
       <c r="C1376" s="41" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D1376" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="D1376" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="E1376" s="5" t="s">
         <v>28</v>
@@ -67849,10 +67874,10 @@
         <v>1985</v>
       </c>
       <c r="C1377" s="41" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D1377" s="1" t="s">
         <v>2660</v>
-      </c>
-      <c r="D1377" s="1" t="s">
-        <v>2661</v>
       </c>
       <c r="E1377" s="5" t="s">
         <v>28</v>
@@ -67875,10 +67900,10 @@
         <v>7</v>
       </c>
       <c r="C1378" s="41" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D1378" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="D1378" s="1" t="s">
-        <v>2663</v>
       </c>
       <c r="E1378" s="5" t="s">
         <v>28</v>
@@ -67904,7 +67929,7 @@
         <v>2085</v>
       </c>
       <c r="D1379" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="E1379" s="5" t="s">
         <v>28</v>
@@ -67927,10 +67952,10 @@
         <v>7</v>
       </c>
       <c r="C1380" s="41" t="s">
+        <v>2664</v>
+      </c>
+      <c r="D1380" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="D1380" s="1" t="s">
-        <v>2666</v>
       </c>
       <c r="E1380" s="5" t="s">
         <v>28</v>
@@ -67946,29 +67971,29 @@
       </c>
     </row>
     <row r="1381" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1381" s="40">
+      <c r="A1381" s="38">
         <v>6302</v>
       </c>
-      <c r="B1381" s="18" t="s">
+      <c r="B1381" s="16" t="s">
         <v>1985</v>
       </c>
-      <c r="C1381" s="41" t="s">
+      <c r="C1381" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D1381" s="1" t="s">
-        <v>2667</v>
-      </c>
-      <c r="E1381" s="5" t="s">
+      <c r="D1381" s="11" t="s">
+        <v>2666</v>
+      </c>
+      <c r="E1381" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F1381" s="5" t="s">
+      <c r="F1381" s="12" t="s">
         <v>1511</v>
       </c>
-      <c r="G1381" s="6">
+      <c r="G1381" s="13">
         <v>368000</v>
       </c>
-      <c r="H1381" s="21">
-        <v>1</v>
+      <c r="H1381" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="1382" spans="1:8" x14ac:dyDescent="0.25">
@@ -67979,10 +68004,10 @@
         <v>1985</v>
       </c>
       <c r="C1382" s="17" t="s">
+        <v>2667</v>
+      </c>
+      <c r="D1382" s="11" t="s">
         <v>2668</v>
-      </c>
-      <c r="D1382" s="11" t="s">
-        <v>2669</v>
       </c>
       <c r="E1382" s="39" t="s">
         <v>108</v>
@@ -68003,10 +68028,10 @@
         <v>1985</v>
       </c>
       <c r="C1383" s="41" t="s">
+        <v>2669</v>
+      </c>
+      <c r="D1383" s="1" t="s">
         <v>2670</v>
-      </c>
-      <c r="D1383" s="1" t="s">
-        <v>2671</v>
       </c>
       <c r="E1383" s="5" t="s">
         <v>144</v>
@@ -68029,10 +68054,10 @@
         <v>7</v>
       </c>
       <c r="C1384" s="41" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D1384" s="1" t="s">
         <v>2672</v>
-      </c>
-      <c r="D1384" s="1" t="s">
-        <v>2673</v>
       </c>
       <c r="E1384" s="5" t="s">
         <v>10</v>
@@ -68058,7 +68083,7 @@
         <v>675</v>
       </c>
       <c r="D1385" s="11" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="E1385" s="42" t="s">
         <v>20</v>
@@ -68079,10 +68104,10 @@
         <v>7</v>
       </c>
       <c r="C1386" s="17" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D1386" s="11" t="s">
         <v>2675</v>
-      </c>
-      <c r="D1386" s="11" t="s">
-        <v>2676</v>
       </c>
       <c r="E1386" s="42" t="s">
         <v>20</v>
@@ -68103,10 +68128,10 @@
         <v>2063</v>
       </c>
       <c r="C1387" s="41" t="s">
+        <v>2676</v>
+      </c>
+      <c r="D1387" s="1" t="s">
         <v>2677</v>
-      </c>
-      <c r="D1387" s="1" t="s">
-        <v>2678</v>
       </c>
       <c r="E1387" s="5" t="s">
         <v>28</v>
@@ -68129,10 +68154,10 @@
         <v>1985</v>
       </c>
       <c r="C1388" s="41" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D1388" s="1" t="s">
         <v>2679</v>
-      </c>
-      <c r="D1388" s="1" t="s">
-        <v>2680</v>
       </c>
       <c r="E1388" s="5" t="s">
         <v>28</v>
@@ -68155,10 +68180,10 @@
         <v>2063</v>
       </c>
       <c r="C1389" s="41" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D1389" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="D1389" s="1" t="s">
-        <v>2682</v>
       </c>
       <c r="E1389" s="5" t="s">
         <v>28</v>
@@ -68184,7 +68209,7 @@
         <v>892</v>
       </c>
       <c r="D1390" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="E1390" s="5" t="s">
         <v>28</v>
@@ -68207,10 +68232,10 @@
         <v>1985</v>
       </c>
       <c r="C1391" s="41" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D1391" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="D1391" s="1" t="s">
-        <v>2685</v>
       </c>
       <c r="E1391" s="43" t="s">
         <v>28</v>
@@ -68230,10 +68255,10 @@
         <v>1985</v>
       </c>
       <c r="C1392" s="35" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D1392" s="11" t="s">
         <v>2686</v>
-      </c>
-      <c r="D1392" s="11" t="s">
-        <v>2687</v>
       </c>
       <c r="E1392" s="36" t="s">
         <v>20</v>
@@ -68254,10 +68279,10 @@
         <v>1985</v>
       </c>
       <c r="C1393" s="35" t="s">
+        <v>2687</v>
+      </c>
+      <c r="D1393" s="11" t="s">
         <v>2688</v>
-      </c>
-      <c r="D1393" s="11" t="s">
-        <v>2689</v>
       </c>
       <c r="E1393" s="36" t="s">
         <v>28</v>
@@ -68278,10 +68303,10 @@
         <v>7</v>
       </c>
       <c r="C1394" s="35" t="s">
+        <v>2689</v>
+      </c>
+      <c r="D1394" s="11" t="s">
         <v>2690</v>
-      </c>
-      <c r="D1394" s="11" t="s">
-        <v>2691</v>
       </c>
       <c r="E1394" s="36" t="s">
         <v>28</v>
@@ -68302,10 +68327,10 @@
         <v>1985</v>
       </c>
       <c r="C1395" s="32" t="s">
+        <v>2691</v>
+      </c>
+      <c r="D1395" s="1" t="s">
         <v>2692</v>
-      </c>
-      <c r="D1395" s="1" t="s">
-        <v>2693</v>
       </c>
       <c r="E1395" s="5" t="s">
         <v>28</v>
@@ -68328,10 +68353,10 @@
         <v>7</v>
       </c>
       <c r="C1396" s="32" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D1396" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="E1396" s="5" t="s">
         <v>105</v>
@@ -68354,10 +68379,10 @@
         <v>1985</v>
       </c>
       <c r="C1397" s="41" t="s">
+        <v>2694</v>
+      </c>
+      <c r="D1397" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="D1397" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="E1397" s="5" t="s">
         <v>28</v>
@@ -68383,7 +68408,7 @@
         <v>1643</v>
       </c>
       <c r="D1398" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="E1398" s="5" t="s">
         <v>28</v>
@@ -68409,7 +68434,7 @@
         <v>2204</v>
       </c>
       <c r="D1399" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="E1399" s="5" t="s">
         <v>28</v>
@@ -68432,10 +68457,10 @@
         <v>1985</v>
       </c>
       <c r="C1400" s="41" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D1400" s="1" t="s">
         <v>2699</v>
-      </c>
-      <c r="D1400" s="1" t="s">
-        <v>2700</v>
       </c>
       <c r="E1400" s="5" t="s">
         <v>28</v>
@@ -68458,10 +68483,10 @@
         <v>7</v>
       </c>
       <c r="C1401" s="41" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D1401" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="D1401" s="1" t="s">
-        <v>2702</v>
       </c>
       <c r="E1401" s="5" t="s">
         <v>68</v>
@@ -68484,10 +68509,10 @@
         <v>7</v>
       </c>
       <c r="C1402" s="41" t="s">
+        <v>2702</v>
+      </c>
+      <c r="D1402" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="D1402" s="1" t="s">
-        <v>2704</v>
       </c>
       <c r="E1402" s="5" t="s">
         <v>68</v>
@@ -68510,10 +68535,10 @@
         <v>7</v>
       </c>
       <c r="C1403" s="17" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D1403" s="11" t="s">
         <v>2705</v>
-      </c>
-      <c r="D1403" s="11" t="s">
-        <v>2706</v>
       </c>
       <c r="E1403" s="39" t="s">
         <v>68</v>
@@ -68534,10 +68559,10 @@
         <v>1985</v>
       </c>
       <c r="C1404" s="41" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D1404" s="1" t="s">
         <v>2707</v>
-      </c>
-      <c r="D1404" s="1" t="s">
-        <v>2708</v>
       </c>
       <c r="E1404" s="5" t="s">
         <v>20</v>
@@ -68560,10 +68585,10 @@
         <v>7</v>
       </c>
       <c r="C1405" s="41" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D1405" s="1" t="s">
         <v>2709</v>
-      </c>
-      <c r="D1405" s="1" t="s">
-        <v>2710</v>
       </c>
       <c r="E1405" s="5" t="s">
         <v>20</v>
@@ -68589,7 +68614,7 @@
         <v>982</v>
       </c>
       <c r="D1406" s="11" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="E1406" s="12" t="s">
         <v>28</v>
@@ -68636,10 +68661,10 @@
         <v>1985</v>
       </c>
       <c r="C1408" s="41" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D1408" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="D1408" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="E1408" s="5" t="s">
         <v>28</v>
@@ -68662,10 +68687,10 @@
         <v>1985</v>
       </c>
       <c r="C1409" s="41" t="s">
+        <v>2713</v>
+      </c>
+      <c r="D1409" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="D1409" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="E1409" s="5" t="s">
         <v>28</v>
@@ -68691,7 +68716,7 @@
         <v>1306</v>
       </c>
       <c r="D1410" s="11" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="E1410" s="39" t="s">
         <v>28</v>
@@ -68712,10 +68737,10 @@
         <v>1985</v>
       </c>
       <c r="C1411" s="41" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D1411" s="1" t="s">
         <v>2717</v>
-      </c>
-      <c r="D1411" s="1" t="s">
-        <v>2718</v>
       </c>
       <c r="E1411" s="5" t="s">
         <v>28</v>
@@ -68738,10 +68763,10 @@
         <v>1985</v>
       </c>
       <c r="C1412" s="41" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D1412" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="D1412" s="1" t="s">
-        <v>2720</v>
       </c>
       <c r="E1412" s="5" t="s">
         <v>28</v>
@@ -68764,10 +68789,10 @@
         <v>1985</v>
       </c>
       <c r="C1413" s="17" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D1413" s="11" t="s">
         <v>2721</v>
-      </c>
-      <c r="D1413" s="11" t="s">
-        <v>2722</v>
       </c>
       <c r="E1413" s="39" t="s">
         <v>20</v>
@@ -68788,10 +68813,10 @@
         <v>7</v>
       </c>
       <c r="C1414" s="41" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D1414" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="E1414" s="43" t="s">
         <v>20</v>
@@ -68811,10 +68836,10 @@
         <v>1985</v>
       </c>
       <c r="C1415" s="17" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D1415" s="11" t="s">
         <v>2724</v>
-      </c>
-      <c r="D1415" s="11" t="s">
-        <v>2725</v>
       </c>
       <c r="E1415" s="42" t="s">
         <v>28</v>
@@ -68835,10 +68860,10 @@
         <v>2063</v>
       </c>
       <c r="C1416" s="17" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D1416" s="11" t="s">
         <v>2726</v>
-      </c>
-      <c r="D1416" s="11" t="s">
-        <v>2727</v>
       </c>
       <c r="E1416" s="42" t="s">
         <v>28</v>
@@ -68862,7 +68887,7 @@
         <v>263</v>
       </c>
       <c r="D1417" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="E1417" s="5" t="s">
         <v>28</v>
@@ -68885,10 +68910,10 @@
         <v>1985</v>
       </c>
       <c r="C1418" s="17" t="s">
+        <v>2728</v>
+      </c>
+      <c r="D1418" s="11" t="s">
         <v>2729</v>
-      </c>
-      <c r="D1418" s="11" t="s">
-        <v>2730</v>
       </c>
       <c r="E1418" s="42" t="s">
         <v>28</v>
@@ -68909,10 +68934,10 @@
         <v>1985</v>
       </c>
       <c r="C1419" s="41" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D1419" s="1" t="s">
         <v>2731</v>
-      </c>
-      <c r="D1419" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="E1419" s="5" t="s">
         <v>68</v>
@@ -68935,10 +68960,10 @@
         <v>1985</v>
       </c>
       <c r="C1420" s="10" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D1420" s="11" t="s">
         <v>2733</v>
-      </c>
-      <c r="D1420" s="11" t="s">
-        <v>2734</v>
       </c>
       <c r="E1420" s="12" t="s">
         <v>68</v>
@@ -68959,10 +68984,10 @@
         <v>1985</v>
       </c>
       <c r="C1421" s="41" t="s">
+        <v>2734</v>
+      </c>
+      <c r="D1421" s="1" t="s">
         <v>2735</v>
-      </c>
-      <c r="D1421" s="1" t="s">
-        <v>2736</v>
       </c>
       <c r="E1421" s="5" t="s">
         <v>68</v>
@@ -68988,7 +69013,7 @@
         <v>500</v>
       </c>
       <c r="D1422" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="E1422" s="5" t="s">
         <v>68</v>
@@ -69014,7 +69039,7 @@
         <v>1155</v>
       </c>
       <c r="D1423" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="E1423" s="5" t="s">
         <v>242</v>
@@ -69040,7 +69065,7 @@
         <v>1350</v>
       </c>
       <c r="D1424" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="E1424" s="5" t="s">
         <v>46</v>
@@ -69063,10 +69088,10 @@
         <v>2063</v>
       </c>
       <c r="C1425" s="10" t="s">
+        <v>2739</v>
+      </c>
+      <c r="D1425" s="11" t="s">
         <v>2740</v>
-      </c>
-      <c r="D1425" s="11" t="s">
-        <v>2741</v>
       </c>
       <c r="E1425" s="12" t="s">
         <v>20</v>
@@ -69090,7 +69115,7 @@
         <v>2126</v>
       </c>
       <c r="D1426" s="48" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="E1426" s="5" t="s">
         <v>20</v>
@@ -69113,10 +69138,10 @@
         <v>2063</v>
       </c>
       <c r="C1427" s="10" t="s">
+        <v>2742</v>
+      </c>
+      <c r="D1427" s="11" t="s">
         <v>2743</v>
-      </c>
-      <c r="D1427" s="11" t="s">
-        <v>2744</v>
       </c>
       <c r="E1427" s="12" t="s">
         <v>20</v>
@@ -69137,10 +69162,10 @@
         <v>2063</v>
       </c>
       <c r="C1428" s="41" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D1428" s="1" t="s">
         <v>2745</v>
-      </c>
-      <c r="D1428" s="1" t="s">
-        <v>2746</v>
       </c>
       <c r="E1428" s="5" t="s">
         <v>252</v>
@@ -69163,10 +69188,10 @@
         <v>2063</v>
       </c>
       <c r="C1429" s="41" t="s">
+        <v>2746</v>
+      </c>
+      <c r="D1429" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="D1429" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="E1429" s="5" t="s">
         <v>252</v>
@@ -69189,10 +69214,10 @@
         <v>1985</v>
       </c>
       <c r="C1430" s="23" t="s">
+        <v>2748</v>
+      </c>
+      <c r="D1430" s="11" t="s">
         <v>2749</v>
-      </c>
-      <c r="D1430" s="11" t="s">
-        <v>2750</v>
       </c>
       <c r="E1430" s="50" t="s">
         <v>20</v>
@@ -69213,10 +69238,10 @@
         <v>1985</v>
       </c>
       <c r="C1431" s="41" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D1431" s="1" t="s">
         <v>2751</v>
-      </c>
-      <c r="D1431" s="1" t="s">
-        <v>2752</v>
       </c>
       <c r="E1431" s="5" t="s">
         <v>28</v>
@@ -69242,7 +69267,7 @@
         <v>352</v>
       </c>
       <c r="D1432" s="1" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="E1432" s="5" t="s">
         <v>28</v>
@@ -69265,10 +69290,10 @@
         <v>1985</v>
       </c>
       <c r="C1433" s="41" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D1433" s="1" t="s">
         <v>2754</v>
-      </c>
-      <c r="D1433" s="1" t="s">
-        <v>2755</v>
       </c>
       <c r="E1433" s="5" t="s">
         <v>28</v>
@@ -69294,7 +69319,7 @@
         <v>885</v>
       </c>
       <c r="D1434" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="E1434" s="5" t="s">
         <v>28</v>
@@ -69317,10 +69342,10 @@
         <v>1985</v>
       </c>
       <c r="C1435" s="41" t="s">
+        <v>2756</v>
+      </c>
+      <c r="D1435" s="1" t="s">
         <v>2757</v>
-      </c>
-      <c r="D1435" s="1" t="s">
-        <v>2758</v>
       </c>
       <c r="E1435" s="5" t="s">
         <v>28</v>
@@ -69346,7 +69371,7 @@
         <v>880</v>
       </c>
       <c r="D1436" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="E1436" s="5" t="s">
         <v>28</v>
@@ -69369,10 +69394,10 @@
         <v>2063</v>
       </c>
       <c r="C1437" s="41" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D1437" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="D1437" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="E1437" s="5" t="s">
         <v>57</v>
@@ -69398,7 +69423,7 @@
         <v>1933</v>
       </c>
       <c r="D1438" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="E1438" s="5" t="s">
         <v>173</v>
@@ -69421,10 +69446,10 @@
         <v>1985</v>
       </c>
       <c r="C1439" s="41" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D1439" s="1" t="s">
         <v>2763</v>
-      </c>
-      <c r="D1439" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="E1439" s="5" t="s">
         <v>108</v>
@@ -69447,10 +69472,10 @@
         <v>1985</v>
       </c>
       <c r="C1440" s="41" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D1440" s="1" t="s">
         <v>2765</v>
-      </c>
-      <c r="D1440" s="1" t="s">
-        <v>2766</v>
       </c>
       <c r="E1440" s="5" t="s">
         <v>249</v>
@@ -69473,10 +69498,10 @@
         <v>2063</v>
       </c>
       <c r="C1441" s="41" t="s">
+        <v>2766</v>
+      </c>
+      <c r="D1441" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="D1441" s="1" t="s">
-        <v>2768</v>
       </c>
       <c r="E1441" s="5" t="s">
         <v>257</v>
@@ -69502,7 +69527,7 @@
         <v>2213</v>
       </c>
       <c r="D1442" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="E1442" s="5" t="s">
         <v>252</v>
@@ -69525,10 +69550,10 @@
         <v>1985</v>
       </c>
       <c r="C1443" s="10" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D1443" s="11" t="s">
         <v>2770</v>
-      </c>
-      <c r="D1443" s="11" t="s">
-        <v>2771</v>
       </c>
       <c r="E1443" s="12" t="s">
         <v>28</v>
@@ -69549,10 +69574,10 @@
         <v>1985</v>
       </c>
       <c r="C1444" s="41" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D1444" s="1" t="s">
         <v>2772</v>
-      </c>
-      <c r="D1444" s="1" t="s">
-        <v>2773</v>
       </c>
       <c r="E1444" s="5" t="s">
         <v>28</v>
@@ -69575,10 +69600,10 @@
         <v>1985</v>
       </c>
       <c r="C1445" s="41" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D1445" s="1" t="s">
         <v>2774</v>
-      </c>
-      <c r="D1445" s="1" t="s">
-        <v>2775</v>
       </c>
       <c r="E1445" s="5" t="s">
         <v>28</v>
@@ -69601,10 +69626,10 @@
         <v>1985</v>
       </c>
       <c r="C1446" s="41" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D1446" s="1" t="s">
         <v>2776</v>
-      </c>
-      <c r="D1446" s="1" t="s">
-        <v>2777</v>
       </c>
       <c r="E1446" s="5" t="s">
         <v>28</v>
@@ -69627,10 +69652,10 @@
         <v>1985</v>
       </c>
       <c r="C1447" s="41" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="D1447" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="E1447" s="5" t="s">
         <v>28</v>
@@ -69653,10 +69678,10 @@
         <v>7</v>
       </c>
       <c r="C1448" s="41" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D1448" s="1" t="s">
         <v>2779</v>
-      </c>
-      <c r="D1448" s="1" t="s">
-        <v>2780</v>
       </c>
       <c r="E1448" s="5" t="s">
         <v>28</v>
@@ -69679,10 +69704,10 @@
         <v>7</v>
       </c>
       <c r="C1449" s="17" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="D1449" s="11" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="E1449" s="42" t="s">
         <v>28</v>
@@ -69703,10 +69728,10 @@
         <v>7</v>
       </c>
       <c r="C1450" s="41" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D1450" s="1" t="s">
         <v>2782</v>
-      </c>
-      <c r="D1450" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="E1450" s="5" t="s">
         <v>28</v>
@@ -69729,10 +69754,10 @@
         <v>1985</v>
       </c>
       <c r="C1451" s="41" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D1451" s="1" t="s">
         <v>2784</v>
-      </c>
-      <c r="D1451" s="1" t="s">
-        <v>2785</v>
       </c>
       <c r="E1451" s="5" t="s">
         <v>28</v>
@@ -69755,10 +69780,10 @@
         <v>1985</v>
       </c>
       <c r="C1452" s="41" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D1452" s="1" t="s">
         <v>2786</v>
-      </c>
-      <c r="D1452" s="1" t="s">
-        <v>2787</v>
       </c>
       <c r="E1452" s="5" t="s">
         <v>28</v>
@@ -69781,10 +69806,10 @@
         <v>7</v>
       </c>
       <c r="C1453" s="41" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D1453" s="1" t="s">
         <v>2788</v>
-      </c>
-      <c r="D1453" s="1" t="s">
-        <v>2789</v>
       </c>
       <c r="E1453" s="5" t="s">
         <v>28</v>
@@ -69807,10 +69832,10 @@
         <v>7</v>
       </c>
       <c r="C1454" s="41" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D1454" s="1" t="s">
         <v>2790</v>
-      </c>
-      <c r="D1454" s="1" t="s">
-        <v>2791</v>
       </c>
       <c r="E1454" s="5" t="s">
         <v>28</v>
@@ -69833,10 +69858,10 @@
         <v>1985</v>
       </c>
       <c r="C1455" s="41" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D1455" s="1" t="s">
         <v>2792</v>
-      </c>
-      <c r="D1455" s="1" t="s">
-        <v>2793</v>
       </c>
       <c r="E1455" s="5" t="s">
         <v>28</v>
@@ -69859,10 +69884,10 @@
         <v>7</v>
       </c>
       <c r="C1456" s="41" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D1456" s="1" t="s">
         <v>2794</v>
-      </c>
-      <c r="D1456" s="1" t="s">
-        <v>2795</v>
       </c>
       <c r="E1456" s="5" t="s">
         <v>28</v>
@@ -69888,7 +69913,7 @@
         <v>2126</v>
       </c>
       <c r="D1457" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="E1457" s="5" t="s">
         <v>28</v>
@@ -69911,10 +69936,10 @@
         <v>7</v>
       </c>
       <c r="C1458" s="41" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D1458" s="1" t="s">
         <v>2797</v>
-      </c>
-      <c r="D1458" s="1" t="s">
-        <v>2798</v>
       </c>
       <c r="E1458" s="5" t="s">
         <v>68</v>
@@ -69937,10 +69962,10 @@
         <v>7</v>
       </c>
       <c r="C1459" s="17" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D1459" s="11" t="s">
         <v>2799</v>
-      </c>
-      <c r="D1459" s="11" t="s">
-        <v>2800</v>
       </c>
       <c r="E1459" s="42" t="s">
         <v>68</v>
@@ -69961,10 +69986,10 @@
         <v>7</v>
       </c>
       <c r="C1460" s="41" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D1460" s="1" t="s">
         <v>2801</v>
-      </c>
-      <c r="D1460" s="1" t="s">
-        <v>2802</v>
       </c>
       <c r="E1460" s="5" t="s">
         <v>68</v>
@@ -69987,10 +70012,10 @@
         <v>1985</v>
       </c>
       <c r="C1461" s="41" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D1461" s="1" t="s">
         <v>2803</v>
-      </c>
-      <c r="D1461" s="1" t="s">
-        <v>2804</v>
       </c>
       <c r="E1461" s="5" t="s">
         <v>68</v>
@@ -70016,7 +70041,7 @@
         <v>1649</v>
       </c>
       <c r="D1462" s="11" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="E1462" s="42" t="s">
         <v>20</v>
@@ -70037,7 +70062,7 @@
         <v>1985</v>
       </c>
       <c r="C1463" s="41" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="D1463" s="1" t="s">
         <v>1779</v>
@@ -70046,7 +70071,7 @@
         <v>105</v>
       </c>
       <c r="F1463" s="5" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="G1463" s="6">
         <v>340001</v>
@@ -70063,10 +70088,10 @@
         <v>7</v>
       </c>
       <c r="C1464" s="41" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D1464" s="1" t="s">
         <v>2808</v>
-      </c>
-      <c r="D1464" s="1" t="s">
-        <v>2809</v>
       </c>
       <c r="E1464" s="5" t="s">
         <v>238</v>
@@ -70089,10 +70114,10 @@
         <v>1985</v>
       </c>
       <c r="C1465" s="41" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D1465" s="1" t="s">
         <v>2810</v>
-      </c>
-      <c r="D1465" s="1" t="s">
-        <v>2811</v>
       </c>
       <c r="E1465" s="5" t="s">
         <v>207</v>
@@ -70115,10 +70140,10 @@
         <v>1985</v>
       </c>
       <c r="C1466" s="41" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D1466" s="1" t="s">
         <v>2812</v>
-      </c>
-      <c r="D1466" s="1" t="s">
-        <v>2813</v>
       </c>
       <c r="E1466" s="5" t="s">
         <v>186</v>
@@ -70141,10 +70166,10 @@
         <v>1985</v>
       </c>
       <c r="C1467" s="41" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D1467" s="1" t="s">
         <v>2814</v>
-      </c>
-      <c r="D1467" s="1" t="s">
-        <v>2815</v>
       </c>
       <c r="E1467" s="5" t="s">
         <v>28</v>
@@ -70167,10 +70192,10 @@
         <v>1985</v>
       </c>
       <c r="C1468" s="41" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D1468" s="1" t="s">
         <v>2816</v>
-      </c>
-      <c r="D1468" s="1" t="s">
-        <v>2817</v>
       </c>
       <c r="E1468" s="5" t="s">
         <v>323</v>
@@ -70196,7 +70221,7 @@
         <v>1350</v>
       </c>
       <c r="D1469" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="E1469" s="5" t="s">
         <v>68</v>
@@ -70219,10 +70244,10 @@
         <v>7</v>
       </c>
       <c r="C1470" s="41" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D1470" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="E1470" s="5" t="s">
         <v>68</v>
@@ -70245,7 +70270,7 @@
         <v>7</v>
       </c>
       <c r="C1471" s="41" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="D1471" s="1" t="s">
         <v>648</v>
@@ -70274,7 +70299,7 @@
         <v>1569</v>
       </c>
       <c r="D1472" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="E1472" s="5" t="s">
         <v>68</v>
@@ -70297,7 +70322,7 @@
         <v>7</v>
       </c>
       <c r="C1473" s="41" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="D1473" s="1" t="s">
         <v>1510</v>
@@ -70323,10 +70348,10 @@
         <v>1985</v>
       </c>
       <c r="C1474" s="41" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D1474" s="1" t="s">
         <v>2823</v>
-      </c>
-      <c r="D1474" s="1" t="s">
-        <v>2824</v>
       </c>
       <c r="E1474" s="5" t="s">
         <v>417</v>
@@ -70352,7 +70377,7 @@
         <v>588</v>
       </c>
       <c r="D1475" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="E1475" s="5" t="s">
         <v>207</v>
@@ -70375,10 +70400,10 @@
         <v>7</v>
       </c>
       <c r="C1476" s="41" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D1476" s="1" t="s">
         <v>2826</v>
-      </c>
-      <c r="D1476" s="1" t="s">
-        <v>2827</v>
       </c>
       <c r="E1476" s="5" t="s">
         <v>186</v>
@@ -70401,10 +70426,10 @@
         <v>1985</v>
       </c>
       <c r="C1477" s="17" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D1477" s="11" t="s">
         <v>2828</v>
-      </c>
-      <c r="D1477" s="11" t="s">
-        <v>2829</v>
       </c>
       <c r="E1477" s="42" t="s">
         <v>108</v>
@@ -70425,10 +70450,10 @@
         <v>1985</v>
       </c>
       <c r="C1478" s="17" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D1478" s="11" t="s">
         <v>2830</v>
-      </c>
-      <c r="D1478" s="11" t="s">
-        <v>2831</v>
       </c>
       <c r="E1478" s="42" t="s">
         <v>116</v>
@@ -70449,10 +70474,10 @@
         <v>1985</v>
       </c>
       <c r="C1479" s="41" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D1479" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="E1479" s="5" t="s">
         <v>2188</v>
@@ -70475,10 +70500,10 @@
         <v>1985</v>
       </c>
       <c r="C1480" s="41" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D1480" s="1" t="s">
         <v>2833</v>
-      </c>
-      <c r="D1480" s="1" t="s">
-        <v>2834</v>
       </c>
       <c r="E1480" s="5" t="s">
         <v>28</v>
@@ -70501,16 +70526,16 @@
         <v>1985</v>
       </c>
       <c r="C1481" s="10" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D1481" s="11" t="s">
         <v>2835</v>
-      </c>
-      <c r="D1481" s="11" t="s">
-        <v>2836</v>
       </c>
       <c r="E1481" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F1481" s="12" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="G1481" s="13"/>
       <c r="H1481" s="14">
@@ -70525,10 +70550,10 @@
         <v>7</v>
       </c>
       <c r="C1482" s="17" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D1482" s="11" t="s">
         <v>2838</v>
-      </c>
-      <c r="D1482" s="11" t="s">
-        <v>2839</v>
       </c>
       <c r="E1482" s="42" t="s">
         <v>20</v>
@@ -70573,10 +70598,10 @@
         <v>7</v>
       </c>
       <c r="C1484" s="41" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D1484" s="1" t="s">
         <v>2840</v>
-      </c>
-      <c r="D1484" s="1" t="s">
-        <v>2841</v>
       </c>
       <c r="E1484" s="5" t="s">
         <v>68</v>
@@ -70602,7 +70627,7 @@
         <v>2214</v>
       </c>
       <c r="D1485" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="E1485" s="5" t="s">
         <v>68</v>
@@ -70625,10 +70650,10 @@
         <v>1985</v>
       </c>
       <c r="C1486" s="17" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D1486" s="11" t="s">
         <v>2843</v>
-      </c>
-      <c r="D1486" s="11" t="s">
-        <v>2844</v>
       </c>
       <c r="E1486" s="42" t="s">
         <v>28</v>
@@ -70649,7 +70674,7 @@
         <v>1985</v>
       </c>
       <c r="C1487" s="17" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="D1487" s="11" t="s">
         <v>2258</v>
@@ -70673,10 +70698,10 @@
         <v>1985</v>
       </c>
       <c r="C1488" s="17" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1488" s="11" t="s">
         <v>2846</v>
-      </c>
-      <c r="D1488" s="11" t="s">
-        <v>2847</v>
       </c>
       <c r="E1488" s="42" t="s">
         <v>57</v>
@@ -70700,7 +70725,7 @@
         <v>1271</v>
       </c>
       <c r="D1489" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="E1489" s="5" t="s">
         <v>323</v>
@@ -70723,10 +70748,10 @@
         <v>2063</v>
       </c>
       <c r="C1490" s="41" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D1490" s="1" t="s">
         <v>2849</v>
-      </c>
-      <c r="D1490" s="1" t="s">
-        <v>2850</v>
       </c>
       <c r="E1490" s="5" t="s">
         <v>28</v>
@@ -70749,10 +70774,10 @@
         <v>1985</v>
       </c>
       <c r="C1491" s="41" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D1491" s="1" t="s">
         <v>2851</v>
-      </c>
-      <c r="D1491" s="1" t="s">
-        <v>2852</v>
       </c>
       <c r="E1491" s="5" t="s">
         <v>28</v>
@@ -70775,10 +70800,10 @@
         <v>1985</v>
       </c>
       <c r="C1492" s="17" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D1492" s="11" t="s">
         <v>2853</v>
-      </c>
-      <c r="D1492" s="11" t="s">
-        <v>2854</v>
       </c>
       <c r="E1492" s="42" t="s">
         <v>28</v>
@@ -70799,10 +70824,10 @@
         <v>1985</v>
       </c>
       <c r="C1493" s="41" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D1493" s="1" t="s">
         <v>2855</v>
-      </c>
-      <c r="D1493" s="1" t="s">
-        <v>2856</v>
       </c>
       <c r="E1493" s="5" t="s">
         <v>28</v>
@@ -70825,10 +70850,10 @@
         <v>1985</v>
       </c>
       <c r="C1494" s="41" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="D1494" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="E1494" s="5" t="s">
         <v>28</v>
@@ -70854,7 +70879,7 @@
         <v>1945</v>
       </c>
       <c r="D1495" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="E1495" s="5" t="s">
         <v>28</v>
@@ -70877,10 +70902,10 @@
         <v>1985</v>
       </c>
       <c r="C1496" s="41" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D1496" s="1" t="s">
         <v>2859</v>
-      </c>
-      <c r="D1496" s="1" t="s">
-        <v>2860</v>
       </c>
       <c r="E1496" s="5" t="s">
         <v>28</v>
@@ -70903,10 +70928,10 @@
         <v>1985</v>
       </c>
       <c r="C1497" s="41" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D1497" s="1" t="s">
         <v>2861</v>
-      </c>
-      <c r="D1497" s="1" t="s">
-        <v>2862</v>
       </c>
       <c r="E1497" s="5" t="s">
         <v>28</v>
@@ -70929,10 +70954,10 @@
         <v>1985</v>
       </c>
       <c r="C1498" s="41" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="D1498" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="E1498" s="5" t="s">
         <v>28</v>
@@ -70955,10 +70980,10 @@
         <v>1985</v>
       </c>
       <c r="C1499" s="41" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D1499" s="1" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="E1499" s="5" t="s">
         <v>28</v>
@@ -70984,7 +71009,7 @@
         <v>709</v>
       </c>
       <c r="D1500" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="E1500" s="5" t="s">
         <v>28</v>
@@ -71007,10 +71032,10 @@
         <v>2063</v>
       </c>
       <c r="C1501" s="10" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D1501" s="11" t="s">
         <v>2866</v>
-      </c>
-      <c r="D1501" s="11" t="s">
-        <v>2867</v>
       </c>
       <c r="E1501" s="12" t="s">
         <v>28</v>
@@ -71031,10 +71056,10 @@
         <v>2063</v>
       </c>
       <c r="C1502" s="10" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D1502" s="11" t="s">
         <v>2868</v>
-      </c>
-      <c r="D1502" s="11" t="s">
-        <v>2869</v>
       </c>
       <c r="E1502" s="12" t="s">
         <v>28</v>
@@ -71055,10 +71080,10 @@
         <v>2063</v>
       </c>
       <c r="C1503" s="41" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D1503" s="1" t="s">
         <v>2870</v>
-      </c>
-      <c r="D1503" s="1" t="s">
-        <v>2871</v>
       </c>
       <c r="E1503" s="5" t="s">
         <v>28</v>
@@ -71081,10 +71106,10 @@
         <v>2063</v>
       </c>
       <c r="C1504" s="41" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D1504" s="1" t="s">
         <v>2872</v>
-      </c>
-      <c r="D1504" s="1" t="s">
-        <v>2873</v>
       </c>
       <c r="E1504" s="5" t="s">
         <v>28</v>
@@ -71110,7 +71135,7 @@
         <v>1822</v>
       </c>
       <c r="D1505" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="E1505" s="5" t="s">
         <v>28</v>
@@ -71133,10 +71158,10 @@
         <v>2063</v>
       </c>
       <c r="C1506" s="41" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D1506" s="1" t="s">
         <v>2875</v>
-      </c>
-      <c r="D1506" s="1" t="s">
-        <v>2876</v>
       </c>
       <c r="E1506" s="5" t="s">
         <v>28</v>
@@ -71162,7 +71187,7 @@
         <v>724</v>
       </c>
       <c r="D1507" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="E1507" s="5" t="s">
         <v>28</v>
@@ -71188,7 +71213,7 @@
         <v>1825</v>
       </c>
       <c r="D1508" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="E1508" s="5" t="s">
         <v>28</v>
@@ -71211,10 +71236,10 @@
         <v>2063</v>
       </c>
       <c r="C1509" s="41" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D1509" s="1" t="s">
         <v>2879</v>
-      </c>
-      <c r="D1509" s="1" t="s">
-        <v>2880</v>
       </c>
       <c r="E1509" s="5" t="s">
         <v>28</v>
@@ -71237,10 +71262,10 @@
         <v>1985</v>
       </c>
       <c r="C1510" s="41" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D1510" s="1" t="s">
         <v>2881</v>
-      </c>
-      <c r="D1510" s="1" t="s">
-        <v>2882</v>
       </c>
       <c r="E1510" s="5" t="s">
         <v>28</v>
@@ -71266,7 +71291,7 @@
         <v>570</v>
       </c>
       <c r="D1511" s="1" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="E1511" s="5" t="s">
         <v>68</v>
@@ -71292,7 +71317,7 @@
         <v>159</v>
       </c>
       <c r="D1512" s="1" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="E1512" s="5" t="s">
         <v>68</v>
@@ -71308,29 +71333,29 @@
       </c>
     </row>
     <row r="1513" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1513" s="40">
+      <c r="A1513" s="38">
         <v>6426</v>
       </c>
-      <c r="B1513" s="18" t="s">
+      <c r="B1513" s="16" t="s">
         <v>1985</v>
       </c>
-      <c r="C1513" s="41" t="s">
+      <c r="C1513" s="17" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D1513" s="11" t="s">
         <v>2885</v>
       </c>
-      <c r="D1513" s="15" t="s">
-        <v>2886</v>
-      </c>
-      <c r="E1513" s="5" t="s">
+      <c r="E1513" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F1513" s="51" t="s">
+      <c r="F1513" s="42" t="s">
         <v>1511</v>
       </c>
-      <c r="G1513" s="6">
+      <c r="G1513" s="13">
         <v>368000</v>
       </c>
-      <c r="H1513" s="21">
-        <v>1</v>
+      <c r="H1513" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="1514" spans="1:8" x14ac:dyDescent="0.25">
@@ -71341,10 +71366,10 @@
         <v>1985</v>
       </c>
       <c r="C1514" s="41" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D1514" s="1" t="s">
         <v>2887</v>
-      </c>
-      <c r="D1514" s="1" t="s">
-        <v>2888</v>
       </c>
       <c r="E1514" s="5" t="s">
         <v>68</v>
@@ -71367,10 +71392,10 @@
         <v>2063</v>
       </c>
       <c r="C1515" s="17" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D1515" s="11" t="s">
         <v>2889</v>
-      </c>
-      <c r="D1515" s="11" t="s">
-        <v>2890</v>
       </c>
       <c r="E1515" s="42" t="s">
         <v>68</v>
@@ -71394,7 +71419,7 @@
         <v>925</v>
       </c>
       <c r="D1516" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="E1516" s="5" t="s">
         <v>186</v>
@@ -71417,10 +71442,10 @@
         <v>1985</v>
       </c>
       <c r="C1517" s="41" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D1517" s="1" t="s">
         <v>2892</v>
-      </c>
-      <c r="D1517" s="1" t="s">
-        <v>2893</v>
       </c>
       <c r="E1517" s="5" t="s">
         <v>186</v>
@@ -71446,7 +71471,7 @@
         <v>1310</v>
       </c>
       <c r="D1518" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="E1518" s="5" t="s">
         <v>186</v>
@@ -71472,7 +71497,7 @@
         <v>1360</v>
       </c>
       <c r="D1519" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="E1519" s="5" t="s">
         <v>186</v>
@@ -71495,10 +71520,10 @@
         <v>1985</v>
       </c>
       <c r="C1520" s="41" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D1520" s="1" t="s">
         <v>2896</v>
-      </c>
-      <c r="D1520" s="1" t="s">
-        <v>2897</v>
       </c>
       <c r="E1520" s="5" t="s">
         <v>242</v>
@@ -71521,10 +71546,10 @@
         <v>1985</v>
       </c>
       <c r="C1521" s="17" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D1521" s="11" t="s">
         <v>2898</v>
-      </c>
-      <c r="D1521" s="11" t="s">
-        <v>2899</v>
       </c>
       <c r="E1521" s="42" t="s">
         <v>242</v>
@@ -71545,10 +71570,10 @@
         <v>2063</v>
       </c>
       <c r="C1522" s="41" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D1522" s="1" t="s">
         <v>2900</v>
-      </c>
-      <c r="D1522" s="1" t="s">
-        <v>2901</v>
       </c>
       <c r="E1522" s="5" t="s">
         <v>242</v>
@@ -71574,7 +71599,7 @@
         <v>214</v>
       </c>
       <c r="D1523" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="E1523" s="5" t="s">
         <v>207</v>
@@ -71597,10 +71622,10 @@
         <v>1985</v>
       </c>
       <c r="C1524" s="41" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D1524" s="1" t="s">
         <v>2903</v>
-      </c>
-      <c r="D1524" s="1" t="s">
-        <v>2904</v>
       </c>
       <c r="E1524" s="5" t="s">
         <v>112</v>
@@ -71623,10 +71648,10 @@
         <v>2063</v>
       </c>
       <c r="C1525" s="41" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D1525" s="1" t="s">
         <v>2905</v>
-      </c>
-      <c r="D1525" s="1" t="s">
-        <v>2906</v>
       </c>
       <c r="E1525" s="5" t="s">
         <v>112</v>
@@ -71652,7 +71677,7 @@
         <v>214</v>
       </c>
       <c r="D1526" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="E1526" s="5" t="s">
         <v>173</v>
@@ -71675,10 +71700,10 @@
         <v>1985</v>
       </c>
       <c r="C1527" s="17" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D1527" s="11" t="s">
         <v>2908</v>
-      </c>
-      <c r="D1527" s="11" t="s">
-        <v>2909</v>
       </c>
       <c r="E1527" s="42" t="s">
         <v>20</v>
@@ -71699,10 +71724,10 @@
         <v>1985</v>
       </c>
       <c r="C1528" s="41" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D1528" s="1" t="s">
         <v>2910</v>
-      </c>
-      <c r="D1528" s="1" t="s">
-        <v>2911</v>
       </c>
       <c r="E1528" s="5" t="s">
         <v>144</v>
@@ -71725,10 +71750,10 @@
         <v>1985</v>
       </c>
       <c r="C1529" s="41" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D1529" s="1" t="s">
         <v>2912</v>
-      </c>
-      <c r="D1529" s="1" t="s">
-        <v>2913</v>
       </c>
       <c r="E1529" s="51" t="s">
         <v>57</v>
@@ -71748,10 +71773,10 @@
         <v>1985</v>
       </c>
       <c r="C1530" s="17" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D1530" s="11" t="s">
         <v>2914</v>
-      </c>
-      <c r="D1530" s="11" t="s">
-        <v>2915</v>
       </c>
       <c r="E1530" s="42" t="s">
         <v>57</v>
@@ -71775,7 +71800,7 @@
         <v>1943</v>
       </c>
       <c r="D1531" s="11" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="E1531" s="42" t="s">
         <v>28</v>
@@ -71796,10 +71821,10 @@
         <v>1985</v>
       </c>
       <c r="C1532" s="17" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D1532" s="11" t="s">
         <v>2917</v>
-      </c>
-      <c r="D1532" s="11" t="s">
-        <v>2918</v>
       </c>
       <c r="E1532" s="42" t="s">
         <v>28</v>
@@ -71820,10 +71845,10 @@
         <v>1985</v>
       </c>
       <c r="C1533" s="17" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D1533" s="11" t="s">
         <v>2919</v>
-      </c>
-      <c r="D1533" s="11" t="s">
-        <v>2920</v>
       </c>
       <c r="E1533" s="42" t="s">
         <v>20</v>
@@ -71844,10 +71869,10 @@
         <v>1985</v>
       </c>
       <c r="C1534" s="17" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D1534" s="11" t="s">
         <v>2921</v>
-      </c>
-      <c r="D1534" s="11" t="s">
-        <v>2922</v>
       </c>
       <c r="E1534" s="42" t="s">
         <v>20</v>
@@ -71868,10 +71893,10 @@
         <v>1985</v>
       </c>
       <c r="C1535" s="41" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D1535" s="1" t="s">
         <v>2923</v>
-      </c>
-      <c r="D1535" s="1" t="s">
-        <v>2924</v>
       </c>
       <c r="E1535" s="5" t="s">
         <v>68</v>
@@ -71894,10 +71919,10 @@
         <v>1985</v>
       </c>
       <c r="C1536" s="41" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D1536" s="1" t="s">
         <v>2925</v>
-      </c>
-      <c r="D1536" s="1" t="s">
-        <v>2926</v>
       </c>
       <c r="E1536" s="5" t="s">
         <v>28</v>
@@ -71920,10 +71945,10 @@
         <v>1985</v>
       </c>
       <c r="C1537" s="41" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D1537" s="1" t="s">
         <v>2927</v>
-      </c>
-      <c r="D1537" s="1" t="s">
-        <v>2928</v>
       </c>
       <c r="E1537" s="5" t="s">
         <v>28</v>
@@ -71946,7 +71971,7 @@
         <v>1985</v>
       </c>
       <c r="C1538" s="17" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="D1538" s="11" t="s">
         <v>939</v>
@@ -71973,7 +71998,7 @@
         <v>168</v>
       </c>
       <c r="D1539" s="11" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="E1539" s="42" t="s">
         <v>28</v>
@@ -71991,13 +72016,13 @@
         <v>6448</v>
       </c>
       <c r="B1540" s="18" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C1540" s="41" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D1540" s="1" t="s">
         <v>2931</v>
-      </c>
-      <c r="D1540" s="1" t="s">
-        <v>2932</v>
       </c>
       <c r="E1540" s="5" t="s">
         <v>28</v>
@@ -72020,10 +72045,10 @@
         <v>2063</v>
       </c>
       <c r="C1541" s="41" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="D1541" s="1" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="E1541" s="5" t="s">
         <v>28</v>
@@ -72046,10 +72071,10 @@
         <v>1985</v>
       </c>
       <c r="C1542" s="41" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D1542" s="1" t="s">
         <v>2934</v>
-      </c>
-      <c r="D1542" s="1" t="s">
-        <v>2935</v>
       </c>
       <c r="E1542" s="5" t="s">
         <v>28</v>
@@ -72072,10 +72097,10 @@
         <v>1985</v>
       </c>
       <c r="C1543" s="41" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D1543" s="1" t="s">
         <v>2936</v>
-      </c>
-      <c r="D1543" s="1" t="s">
-        <v>2937</v>
       </c>
       <c r="E1543" s="5" t="s">
         <v>68</v>
@@ -72098,10 +72123,10 @@
         <v>1985</v>
       </c>
       <c r="C1544" s="41" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D1544" s="1" t="s">
         <v>2938</v>
-      </c>
-      <c r="D1544" s="1" t="s">
-        <v>2939</v>
       </c>
       <c r="E1544" s="5" t="s">
         <v>108</v>
@@ -72124,10 +72149,10 @@
         <v>1985</v>
       </c>
       <c r="C1545" s="41" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D1545" s="1" t="s">
         <v>2940</v>
-      </c>
-      <c r="D1545" s="1" t="s">
-        <v>2941</v>
       </c>
       <c r="E1545" s="5" t="s">
         <v>108</v>
@@ -72150,10 +72175,10 @@
         <v>1985</v>
       </c>
       <c r="C1546" s="41" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D1546" s="1" t="s">
         <v>2942</v>
-      </c>
-      <c r="D1546" s="1" t="s">
-        <v>2943</v>
       </c>
       <c r="E1546" s="5" t="s">
         <v>207</v>
@@ -72179,7 +72204,7 @@
         <v>940</v>
       </c>
       <c r="D1547" s="1" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E1547" s="5" t="s">
         <v>24</v>
@@ -72202,10 +72227,10 @@
         <v>2063</v>
       </c>
       <c r="C1548" s="17" t="s">
+        <v>2944</v>
+      </c>
+      <c r="D1548" s="11" t="s">
         <v>2945</v>
-      </c>
-      <c r="D1548" s="11" t="s">
-        <v>2946</v>
       </c>
       <c r="E1548" s="42" t="s">
         <v>231</v>
@@ -72226,10 +72251,10 @@
         <v>1985</v>
       </c>
       <c r="C1549" s="41" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D1549" s="1" t="s">
         <v>2947</v>
-      </c>
-      <c r="D1549" s="1" t="s">
-        <v>2948</v>
       </c>
       <c r="E1549" s="5" t="s">
         <v>28</v>
@@ -72252,10 +72277,10 @@
         <v>1985</v>
       </c>
       <c r="C1550" s="41" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D1550" s="1" t="s">
         <v>2949</v>
-      </c>
-      <c r="D1550" s="1" t="s">
-        <v>2950</v>
       </c>
       <c r="E1550" s="5" t="s">
         <v>28</v>
@@ -72278,10 +72303,10 @@
         <v>1985</v>
       </c>
       <c r="C1551" s="41" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D1551" s="1" t="s">
         <v>2951</v>
-      </c>
-      <c r="D1551" s="1" t="s">
-        <v>2952</v>
       </c>
       <c r="E1551" s="5" t="s">
         <v>323</v>
@@ -72304,10 +72329,10 @@
         <v>1985</v>
       </c>
       <c r="C1552" s="41" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D1552" s="1" t="s">
         <v>2953</v>
-      </c>
-      <c r="D1552" s="1" t="s">
-        <v>2954</v>
       </c>
       <c r="E1552" s="5" t="s">
         <v>28</v>
@@ -72330,10 +72355,10 @@
         <v>1985</v>
       </c>
       <c r="C1553" s="41" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D1553" s="1" t="s">
         <v>2955</v>
-      </c>
-      <c r="D1553" s="1" t="s">
-        <v>2956</v>
       </c>
       <c r="E1553" s="5" t="s">
         <v>323</v>
@@ -72359,7 +72384,7 @@
         <v>2071</v>
       </c>
       <c r="D1554" s="1" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="E1554" s="5" t="s">
         <v>28</v>
@@ -72382,7 +72407,7 @@
         <v>1985</v>
       </c>
       <c r="C1555" s="41" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="D1555" s="1" t="s">
         <v>576</v>
@@ -72408,10 +72433,10 @@
         <v>1985</v>
       </c>
       <c r="C1556" s="41" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D1556" s="1" t="s">
         <v>2959</v>
-      </c>
-      <c r="D1556" s="1" t="s">
-        <v>2960</v>
       </c>
       <c r="E1556" s="5" t="s">
         <v>28</v>
@@ -72434,7 +72459,7 @@
         <v>7</v>
       </c>
       <c r="C1557" s="41" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="D1557" s="1" t="s">
         <v>1745</v>
@@ -72460,10 +72485,10 @@
         <v>7</v>
       </c>
       <c r="C1558" s="41" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D1558" s="1" t="s">
         <v>2962</v>
-      </c>
-      <c r="D1558" s="1" t="s">
-        <v>2963</v>
       </c>
       <c r="E1558" s="5" t="s">
         <v>68</v>
@@ -72486,10 +72511,10 @@
         <v>1985</v>
       </c>
       <c r="C1559" s="41" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D1559" s="1" t="s">
         <v>2964</v>
-      </c>
-      <c r="D1559" s="1" t="s">
-        <v>2965</v>
       </c>
       <c r="E1559" s="5" t="s">
         <v>28</v>
@@ -72512,10 +72537,10 @@
         <v>7</v>
       </c>
       <c r="C1560" s="41" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D1560" s="1" t="s">
         <v>2966</v>
-      </c>
-      <c r="D1560" s="1" t="s">
-        <v>2967</v>
       </c>
       <c r="E1560" s="5" t="s">
         <v>28</v>
@@ -72538,10 +72563,10 @@
         <v>7</v>
       </c>
       <c r="C1561" s="41" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D1561" s="1" t="s">
         <v>2968</v>
-      </c>
-      <c r="D1561" s="1" t="s">
-        <v>2969</v>
       </c>
       <c r="E1561" s="5" t="s">
         <v>28</v>
@@ -72564,10 +72589,10 @@
         <v>7</v>
       </c>
       <c r="C1562" s="41" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D1562" s="1" t="s">
         <v>2970</v>
-      </c>
-      <c r="D1562" s="1" t="s">
-        <v>2971</v>
       </c>
       <c r="E1562" s="5" t="s">
         <v>28</v>
@@ -72590,10 +72615,10 @@
         <v>7</v>
       </c>
       <c r="C1563" s="41" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D1563" s="1" t="s">
         <v>2972</v>
-      </c>
-      <c r="D1563" s="1" t="s">
-        <v>2973</v>
       </c>
       <c r="E1563" s="5" t="s">
         <v>28</v>
@@ -72619,7 +72644,7 @@
         <v>106</v>
       </c>
       <c r="D1564" s="1" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="E1564" s="5" t="s">
         <v>28</v>
@@ -72642,10 +72667,10 @@
         <v>1985</v>
       </c>
       <c r="C1565" s="41" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D1565" s="54" t="s">
         <v>2975</v>
-      </c>
-      <c r="D1565" s="54" t="s">
-        <v>2976</v>
       </c>
       <c r="E1565" s="5" t="s">
         <v>28</v>
@@ -72668,10 +72693,10 @@
         <v>7</v>
       </c>
       <c r="C1566" s="17" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D1566" s="56" t="s">
         <v>2977</v>
-      </c>
-      <c r="D1566" s="56" t="s">
-        <v>2978</v>
       </c>
       <c r="E1566" s="39" t="s">
         <v>28</v>
@@ -72692,10 +72717,10 @@
         <v>1985</v>
       </c>
       <c r="C1567" s="41" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D1567" s="54" t="s">
         <v>2979</v>
-      </c>
-      <c r="D1567" s="54" t="s">
-        <v>2980</v>
       </c>
       <c r="E1567" s="5" t="s">
         <v>28</v>
@@ -72721,7 +72746,7 @@
         <v>586</v>
       </c>
       <c r="D1568" s="56" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="E1568" s="39" t="s">
         <v>28</v>
@@ -72742,10 +72767,10 @@
         <v>7</v>
       </c>
       <c r="C1569" s="17" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D1569" s="56" t="s">
         <v>2982</v>
-      </c>
-      <c r="D1569" s="56" t="s">
-        <v>2983</v>
       </c>
       <c r="E1569" s="39" t="s">
         <v>28</v>
@@ -72766,10 +72791,10 @@
         <v>1985</v>
       </c>
       <c r="C1570" s="41" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D1570" s="54" t="s">
         <v>2984</v>
-      </c>
-      <c r="D1570" s="54" t="s">
-        <v>2985</v>
       </c>
       <c r="E1570" s="5" t="s">
         <v>28</v>
@@ -72792,10 +72817,10 @@
         <v>1985</v>
       </c>
       <c r="C1571" s="41" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D1571" t="s">
         <v>2986</v>
-      </c>
-      <c r="D1571" t="s">
-        <v>2987</v>
       </c>
       <c r="E1571" s="5" t="s">
         <v>28</v>
@@ -72818,10 +72843,10 @@
         <v>1985</v>
       </c>
       <c r="C1572" s="41" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D1572" s="54" t="s">
         <v>2988</v>
-      </c>
-      <c r="D1572" s="54" t="s">
-        <v>2989</v>
       </c>
       <c r="E1572" s="5" t="s">
         <v>28</v>
@@ -72844,10 +72869,10 @@
         <v>7</v>
       </c>
       <c r="C1573" s="41" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1573" s="54" t="s">
         <v>2990</v>
-      </c>
-      <c r="D1573" s="54" t="s">
-        <v>2991</v>
       </c>
       <c r="E1573" s="5" t="s">
         <v>68</v>
@@ -72870,10 +72895,10 @@
         <v>7</v>
       </c>
       <c r="C1574" s="17" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D1574" s="56" t="s">
         <v>2992</v>
-      </c>
-      <c r="D1574" s="56" t="s">
-        <v>2993</v>
       </c>
       <c r="E1574" s="39" t="s">
         <v>68</v>
@@ -72894,10 +72919,10 @@
         <v>7</v>
       </c>
       <c r="C1575" s="41" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D1575" s="54" t="s">
         <v>2994</v>
-      </c>
-      <c r="D1575" s="54" t="s">
-        <v>2995</v>
       </c>
       <c r="E1575" s="5" t="s">
         <v>68</v>
@@ -72920,10 +72945,10 @@
         <v>7</v>
       </c>
       <c r="C1576" s="17" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D1576" s="56" t="s">
         <v>2996</v>
-      </c>
-      <c r="D1576" s="56" t="s">
-        <v>2997</v>
       </c>
       <c r="E1576" s="39" t="s">
         <v>20</v>
@@ -72944,10 +72969,10 @@
         <v>7</v>
       </c>
       <c r="C1577" s="41" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D1577" s="54" t="s">
         <v>2998</v>
-      </c>
-      <c r="D1577" s="54" t="s">
-        <v>2999</v>
       </c>
       <c r="E1577" s="5" t="s">
         <v>20</v>
@@ -72970,10 +72995,10 @@
         <v>7</v>
       </c>
       <c r="C1578" s="41" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D1578" s="54" t="s">
         <v>3000</v>
-      </c>
-      <c r="D1578" s="54" t="s">
-        <v>3001</v>
       </c>
       <c r="E1578" s="5" t="s">
         <v>20</v>
@@ -72989,29 +73014,29 @@
       </c>
     </row>
     <row r="1579" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1579" s="52">
+      <c r="A1579" s="55">
         <v>6485</v>
       </c>
-      <c r="B1579" s="18" t="s">
+      <c r="B1579" s="16" t="s">
         <v>1985</v>
       </c>
-      <c r="C1579" s="41" t="s">
-        <v>2833</v>
-      </c>
-      <c r="D1579" s="54" t="s">
-        <v>3002</v>
-      </c>
-      <c r="E1579" s="5" t="s">
+      <c r="C1579" s="17" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D1579" s="56" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E1579" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="F1579" s="43" t="s">
+      <c r="F1579" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="G1579" s="6">
+      <c r="G1579" s="13">
         <v>367100</v>
       </c>
-      <c r="H1579" s="21">
-        <v>1</v>
+      <c r="H1579" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="1580" spans="1:8" x14ac:dyDescent="0.25">
@@ -73022,10 +73047,10 @@
         <v>7</v>
       </c>
       <c r="C1580" s="17" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D1580" s="56" t="s">
         <v>3003</v>
-      </c>
-      <c r="D1580" s="56" t="s">
-        <v>3004</v>
       </c>
       <c r="E1580" s="39" t="s">
         <v>28</v>
@@ -73046,10 +73071,10 @@
         <v>1985</v>
       </c>
       <c r="C1581" s="41" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D1581" s="54" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="E1581" s="5" t="s">
         <v>28</v>
@@ -73072,10 +73097,10 @@
         <v>1985</v>
       </c>
       <c r="C1582" s="17" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D1582" s="56" t="s">
         <v>3006</v>
-      </c>
-      <c r="D1582" s="56" t="s">
-        <v>3007</v>
       </c>
       <c r="E1582" s="39" t="s">
         <v>116</v>
@@ -73096,10 +73121,10 @@
         <v>1929</v>
       </c>
       <c r="C1583" s="41" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D1583" t="s">
         <v>3008</v>
-      </c>
-      <c r="D1583" t="s">
-        <v>3009</v>
       </c>
       <c r="E1583" s="5" t="s">
         <v>207</v>
@@ -73122,10 +73147,10 @@
         <v>1985</v>
       </c>
       <c r="C1584" s="32" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D1584" s="54" t="s">
         <v>3010</v>
-      </c>
-      <c r="D1584" s="54" t="s">
-        <v>3011</v>
       </c>
       <c r="E1584" s="5" t="s">
         <v>28</v>
@@ -73148,10 +73173,10 @@
         <v>2063</v>
       </c>
       <c r="C1585" s="32" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D1585" s="54" t="s">
         <v>3012</v>
-      </c>
-      <c r="D1585" s="54" t="s">
-        <v>3013</v>
       </c>
       <c r="E1585" s="5" t="s">
         <v>28</v>
@@ -73174,10 +73199,10 @@
         <v>1985</v>
       </c>
       <c r="C1586" s="32" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D1586" s="54" t="s">
         <v>3014</v>
-      </c>
-      <c r="D1586" s="54" t="s">
-        <v>3015</v>
       </c>
       <c r="E1586" s="5" t="s">
         <v>28</v>
@@ -73200,10 +73225,10 @@
         <v>1985</v>
       </c>
       <c r="C1587" s="32" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D1587" s="54" t="s">
         <v>3016</v>
-      </c>
-      <c r="D1587" s="54" t="s">
-        <v>3017</v>
       </c>
       <c r="E1587" s="5" t="s">
         <v>28</v>
@@ -73226,10 +73251,10 @@
         <v>2063</v>
       </c>
       <c r="C1588" s="32" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D1588" s="54" t="s">
         <v>3018</v>
-      </c>
-      <c r="D1588" s="54" t="s">
-        <v>3019</v>
       </c>
       <c r="E1588" s="5" t="s">
         <v>28</v>
@@ -73252,10 +73277,10 @@
         <v>1985</v>
       </c>
       <c r="C1589" s="35" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D1589" s="56" t="s">
         <v>3020</v>
-      </c>
-      <c r="D1589" s="56" t="s">
-        <v>3021</v>
       </c>
       <c r="E1589" s="36" t="s">
         <v>28</v>
@@ -73279,7 +73304,7 @@
         <v>906</v>
       </c>
       <c r="D1590" s="54" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="E1590" s="5" t="s">
         <v>28</v>
@@ -73305,7 +73330,7 @@
         <v>214</v>
       </c>
       <c r="D1591" s="11" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="E1591" s="12" t="s">
         <v>28</v>
@@ -73326,10 +73351,10 @@
         <v>2063</v>
       </c>
       <c r="C1592" s="32" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D1592" s="54" t="s">
         <v>3024</v>
-      </c>
-      <c r="D1592" s="54" t="s">
-        <v>3025</v>
       </c>
       <c r="E1592" s="5" t="s">
         <v>28</v>
@@ -73352,10 +73377,10 @@
         <v>2063</v>
       </c>
       <c r="C1593" s="32" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D1593" s="54" t="s">
         <v>3026</v>
-      </c>
-      <c r="D1593" s="54" t="s">
-        <v>3027</v>
       </c>
       <c r="E1593" s="5" t="s">
         <v>68</v>
@@ -73381,7 +73406,7 @@
         <v>1422</v>
       </c>
       <c r="D1594" s="56" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="E1594" s="36" t="s">
         <v>68</v>
@@ -73402,10 +73427,10 @@
         <v>2063</v>
       </c>
       <c r="C1595" s="35" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D1595" s="56" t="s">
         <v>3029</v>
-      </c>
-      <c r="D1595" s="56" t="s">
-        <v>3030</v>
       </c>
       <c r="E1595" s="36" t="s">
         <v>68</v>
@@ -73426,10 +73451,10 @@
         <v>1985</v>
       </c>
       <c r="C1596" s="32" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D1596" s="54" t="s">
         <v>3031</v>
-      </c>
-      <c r="D1596" s="54" t="s">
-        <v>3032</v>
       </c>
       <c r="E1596" s="5" t="s">
         <v>242</v>
@@ -73452,10 +73477,10 @@
         <v>1985</v>
       </c>
       <c r="C1597" s="32" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D1597" s="54" t="s">
         <v>3033</v>
-      </c>
-      <c r="D1597" s="54" t="s">
-        <v>3034</v>
       </c>
       <c r="E1597" s="5" t="s">
         <v>186</v>
@@ -73481,7 +73506,7 @@
         <v>2159</v>
       </c>
       <c r="D1598" s="54" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="E1598" s="5" t="s">
         <v>116</v>
@@ -73501,10 +73526,10 @@
         <v>6507</v>
       </c>
       <c r="B1599" s="53" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C1599" s="32" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="D1599" s="54" t="s">
         <v>189</v>
@@ -73530,10 +73555,10 @@
         <v>2063</v>
       </c>
       <c r="C1600" s="32" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D1600" s="54" t="s">
         <v>3037</v>
-      </c>
-      <c r="D1600" s="54" t="s">
-        <v>3038</v>
       </c>
       <c r="E1600" s="5" t="s">
         <v>257</v>
@@ -73559,13 +73584,13 @@
         <v>32</v>
       </c>
       <c r="D1601" s="54" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="E1601" s="5" t="s">
         <v>249</v>
       </c>
       <c r="F1601" s="5" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="G1601" s="6">
         <v>322000</v>
@@ -73582,10 +73607,10 @@
         <v>1985</v>
       </c>
       <c r="C1602" s="35" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D1602" s="56" t="s">
         <v>3041</v>
-      </c>
-      <c r="D1602" s="56" t="s">
-        <v>3042</v>
       </c>
       <c r="E1602" s="36" t="s">
         <v>249</v>
@@ -73599,29 +73624,29 @@
       </c>
     </row>
     <row r="1603" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1603" s="57">
+      <c r="A1603" s="44">
         <v>6511</v>
       </c>
-      <c r="B1603" s="18" t="s">
+      <c r="B1603" s="16" t="s">
         <v>1985</v>
       </c>
-      <c r="C1603" s="32" t="s">
+      <c r="C1603" s="35" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D1603" s="56" t="s">
         <v>3043</v>
       </c>
-      <c r="D1603" s="54" t="s">
-        <v>3044</v>
-      </c>
-      <c r="E1603" s="5" t="s">
+      <c r="E1603" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F1603" s="37" t="s">
+      <c r="F1603" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="G1603" s="6">
+      <c r="G1603" s="13">
         <v>322000</v>
       </c>
-      <c r="H1603" s="46">
-        <v>1</v>
+      <c r="H1603" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="1604" spans="1:8" x14ac:dyDescent="0.25">
@@ -73632,7 +73657,7 @@
         <v>1985</v>
       </c>
       <c r="C1604" s="17" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="D1604" s="56" t="s">
         <v>1551</v>
@@ -73656,10 +73681,10 @@
         <v>1985</v>
       </c>
       <c r="C1605" s="41" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D1605" s="54" t="s">
         <v>3046</v>
-      </c>
-      <c r="D1605" s="54" t="s">
-        <v>3047</v>
       </c>
       <c r="E1605" s="5" t="s">
         <v>28</v>
@@ -73685,7 +73710,7 @@
         <v>925</v>
       </c>
       <c r="D1606" s="54" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="E1606" s="5" t="s">
         <v>28</v>
@@ -73708,10 +73733,10 @@
         <v>2063</v>
       </c>
       <c r="C1607" s="41" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D1607" s="54" t="s">
         <v>3049</v>
-      </c>
-      <c r="D1607" s="54" t="s">
-        <v>3050</v>
       </c>
       <c r="E1607" s="5" t="s">
         <v>28</v>
@@ -73734,10 +73759,10 @@
         <v>2063</v>
       </c>
       <c r="C1608" s="41" t="s">
+        <v>3050</v>
+      </c>
+      <c r="D1608" s="54" t="s">
         <v>3051</v>
-      </c>
-      <c r="D1608" s="54" t="s">
-        <v>3052</v>
       </c>
       <c r="E1608" s="5" t="s">
         <v>28</v>
@@ -73760,7 +73785,7 @@
         <v>2063</v>
       </c>
       <c r="C1609" s="17" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D1609" s="56" t="s">
         <v>93</v>
@@ -73784,10 +73809,10 @@
         <v>2063</v>
       </c>
       <c r="C1610" s="41" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D1610" s="54" t="s">
         <v>3054</v>
-      </c>
-      <c r="D1610" s="54" t="s">
-        <v>3055</v>
       </c>
       <c r="E1610" s="5" t="s">
         <v>28</v>
@@ -73810,10 +73835,10 @@
         <v>2063</v>
       </c>
       <c r="C1611" s="41" t="s">
+        <v>3055</v>
+      </c>
+      <c r="D1611" s="54" t="s">
         <v>3056</v>
-      </c>
-      <c r="D1611" s="54" t="s">
-        <v>3057</v>
       </c>
       <c r="E1611" s="5" t="s">
         <v>28</v>
@@ -73836,10 +73861,10 @@
         <v>1985</v>
       </c>
       <c r="C1612" s="41" t="s">
+        <v>3057</v>
+      </c>
+      <c r="D1612" s="54" t="s">
         <v>3058</v>
-      </c>
-      <c r="D1612" s="54" t="s">
-        <v>3059</v>
       </c>
       <c r="E1612" s="5" t="s">
         <v>28</v>
@@ -73855,29 +73880,29 @@
       </c>
     </row>
     <row r="1613" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1613" s="52">
+      <c r="A1613" s="55">
         <v>6522</v>
       </c>
-      <c r="B1613" s="18" t="s">
+      <c r="B1613" s="16" t="s">
         <v>1985</v>
       </c>
-      <c r="C1613" s="41" t="s">
+      <c r="C1613" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="D1613" s="54" t="s">
-        <v>3060</v>
-      </c>
-      <c r="E1613" s="5" t="s">
+      <c r="D1613" s="56" t="s">
+        <v>3059</v>
+      </c>
+      <c r="E1613" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F1613" s="43" t="s">
+      <c r="F1613" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="G1613" s="6">
+      <c r="G1613" s="13">
         <v>364600</v>
       </c>
-      <c r="H1613" s="21">
-        <v>1</v>
+      <c r="H1613" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="1614" spans="1:8" x14ac:dyDescent="0.25">
@@ -73888,10 +73913,10 @@
         <v>1985</v>
       </c>
       <c r="C1614" s="41" t="s">
+        <v>3060</v>
+      </c>
+      <c r="D1614" s="54" t="s">
         <v>3061</v>
-      </c>
-      <c r="D1614" s="54" t="s">
-        <v>3062</v>
       </c>
       <c r="E1614" s="5" t="s">
         <v>28</v>
@@ -73914,10 +73939,10 @@
         <v>2063</v>
       </c>
       <c r="C1615" s="41" t="s">
+        <v>3062</v>
+      </c>
+      <c r="D1615" s="54" t="s">
         <v>3063</v>
-      </c>
-      <c r="D1615" s="54" t="s">
-        <v>3064</v>
       </c>
       <c r="E1615" s="5" t="s">
         <v>68</v>
@@ -73940,10 +73965,10 @@
         <v>2063</v>
       </c>
       <c r="C1616" s="41" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D1616" s="54" t="s">
         <v>3065</v>
-      </c>
-      <c r="D1616" s="54" t="s">
-        <v>3066</v>
       </c>
       <c r="E1616" s="5" t="s">
         <v>68</v>
@@ -73969,7 +73994,7 @@
         <v>449</v>
       </c>
       <c r="D1617" s="54" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="E1617" s="5" t="s">
         <v>68</v>
@@ -73992,10 +74017,10 @@
         <v>1985</v>
       </c>
       <c r="C1618" s="41" t="s">
+        <v>3067</v>
+      </c>
+      <c r="D1618" s="54" t="s">
         <v>3068</v>
-      </c>
-      <c r="D1618" s="54" t="s">
-        <v>3069</v>
       </c>
       <c r="E1618" s="5" t="s">
         <v>242</v>
@@ -74018,10 +74043,10 @@
         <v>1985</v>
       </c>
       <c r="C1619" s="41" t="s">
+        <v>3069</v>
+      </c>
+      <c r="D1619" s="54" t="s">
         <v>3070</v>
-      </c>
-      <c r="D1619" s="54" t="s">
-        <v>3071</v>
       </c>
       <c r="E1619" s="5" t="s">
         <v>186</v>
@@ -74044,10 +74069,10 @@
         <v>1985</v>
       </c>
       <c r="C1620" s="41" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D1620" s="54" t="s">
         <v>3072</v>
-      </c>
-      <c r="D1620" s="54" t="s">
-        <v>3073</v>
       </c>
       <c r="E1620" s="5" t="s">
         <v>28</v>
@@ -74070,7 +74095,7 @@
         <v>2063</v>
       </c>
       <c r="C1621" s="41" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="D1621" s="54" t="s">
         <v>865</v>
@@ -74096,10 +74121,10 @@
         <v>2063</v>
       </c>
       <c r="C1622" s="41" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D1622" s="54" t="s">
         <v>3074</v>
-      </c>
-      <c r="D1622" s="54" t="s">
-        <v>3075</v>
       </c>
       <c r="E1622" s="5" t="s">
         <v>20</v>
@@ -74122,10 +74147,10 @@
         <v>2063</v>
       </c>
       <c r="C1623" s="41" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D1623" s="54" t="s">
         <v>3076</v>
-      </c>
-      <c r="D1623" s="54" t="s">
-        <v>3077</v>
       </c>
       <c r="E1623" s="5" t="s">
         <v>20</v>
@@ -74148,10 +74173,10 @@
         <v>2063</v>
       </c>
       <c r="C1624" s="41" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D1624" s="54" t="s">
         <v>3078</v>
-      </c>
-      <c r="D1624" s="54" t="s">
-        <v>3079</v>
       </c>
       <c r="E1624" s="5" t="s">
         <v>2188</v>
@@ -74174,10 +74199,10 @@
         <v>2063</v>
       </c>
       <c r="C1625" s="17" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D1625" s="56" t="s">
         <v>3080</v>
-      </c>
-      <c r="D1625" s="56" t="s">
-        <v>3081</v>
       </c>
       <c r="E1625" s="39" t="s">
         <v>249</v>
@@ -74198,7 +74223,7 @@
         <v>2063</v>
       </c>
       <c r="C1626" s="41" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
       <c r="D1626" s="54" t="s">
         <v>575</v>
@@ -74224,7 +74249,7 @@
         <v>2063</v>
       </c>
       <c r="C1627" s="41" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="D1627" s="54" t="s">
         <v>575</v>
@@ -74250,7 +74275,7 @@
         <v>1929</v>
       </c>
       <c r="C1628" s="41" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="D1628" s="54" t="s">
         <v>575</v>
@@ -74276,7 +74301,7 @@
         <v>1929</v>
       </c>
       <c r="C1629" s="41" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="D1629" s="54" t="s">
         <v>575</v>
@@ -74302,7 +74327,7 @@
         <v>1929</v>
       </c>
       <c r="C1630" s="41" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="D1630" s="54" t="s">
         <v>575</v>
@@ -74328,7 +74353,7 @@
         <v>1929</v>
       </c>
       <c r="C1631" s="41" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="D1631" s="54" t="s">
         <v>575</v>
@@ -74354,7 +74379,7 @@
         <v>1929</v>
       </c>
       <c r="C1632" s="41" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="D1632" s="54" t="s">
         <v>575</v>
@@ -74380,7 +74405,7 @@
         <v>1929</v>
       </c>
       <c r="C1633" s="41" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="D1633" s="54" t="s">
         <v>575</v>
@@ -74406,10 +74431,10 @@
         <v>1985</v>
       </c>
       <c r="C1634" s="41" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D1634" s="41" t="s">
         <v>3090</v>
-      </c>
-      <c r="D1634" s="41" t="s">
-        <v>3091</v>
       </c>
       <c r="E1634" s="5" t="s">
         <v>28</v>
@@ -74432,10 +74457,10 @@
         <v>7</v>
       </c>
       <c r="C1635" s="41" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D1635" s="41" t="s">
         <v>3092</v>
-      </c>
-      <c r="D1635" s="41" t="s">
-        <v>3093</v>
       </c>
       <c r="E1635" s="5" t="s">
         <v>28</v>
@@ -74455,13 +74480,13 @@
         <v>6545</v>
       </c>
       <c r="B1636" s="18" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C1636" s="41" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D1636" s="41" t="s">
         <v>3094</v>
-      </c>
-      <c r="D1636" s="41" t="s">
-        <v>3095</v>
       </c>
       <c r="E1636" s="5" t="s">
         <v>28</v>
@@ -74484,10 +74509,10 @@
         <v>7</v>
       </c>
       <c r="C1637" s="41" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D1637" s="41" t="s">
         <v>3096</v>
-      </c>
-      <c r="D1637" s="41" t="s">
-        <v>3097</v>
       </c>
       <c r="E1637" s="5" t="s">
         <v>28</v>
@@ -74510,10 +74535,10 @@
         <v>1985</v>
       </c>
       <c r="C1638" s="17" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D1638" s="17" t="s">
         <v>3098</v>
-      </c>
-      <c r="D1638" s="17" t="s">
-        <v>3099</v>
       </c>
       <c r="E1638" s="39" t="s">
         <v>28</v>
@@ -74534,10 +74559,10 @@
         <v>1985</v>
       </c>
       <c r="C1639" s="41" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D1639" s="41" t="s">
         <v>3100</v>
-      </c>
-      <c r="D1639" s="41" t="s">
-        <v>3101</v>
       </c>
       <c r="E1639" s="5" t="s">
         <v>28</v>
@@ -74560,10 +74585,10 @@
         <v>1985</v>
       </c>
       <c r="C1640" s="41" t="s">
+        <v>3101</v>
+      </c>
+      <c r="D1640" s="41" t="s">
         <v>3102</v>
-      </c>
-      <c r="D1640" s="41" t="s">
-        <v>3103</v>
       </c>
       <c r="E1640" s="5" t="s">
         <v>186</v>
@@ -74586,10 +74611,10 @@
         <v>1985</v>
       </c>
       <c r="C1641" s="41" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D1641" s="41" t="s">
         <v>3104</v>
-      </c>
-      <c r="D1641" s="41" t="s">
-        <v>3105</v>
       </c>
       <c r="E1641" s="5" t="s">
         <v>28</v>
@@ -74612,7 +74637,7 @@
         <v>1985</v>
       </c>
       <c r="C1642" s="41" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="D1642" s="41" t="s">
         <v>575</v>
@@ -74638,10 +74663,10 @@
         <v>1985</v>
       </c>
       <c r="C1643" s="41" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D1643" s="41" t="s">
         <v>3107</v>
-      </c>
-      <c r="D1643" s="41" t="s">
-        <v>3108</v>
       </c>
       <c r="E1643" s="5" t="s">
         <v>28</v>
@@ -74664,10 +74689,10 @@
         <v>1985</v>
       </c>
       <c r="C1644" s="41" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D1644" s="41" t="s">
         <v>3109</v>
-      </c>
-      <c r="D1644" s="41" t="s">
-        <v>3110</v>
       </c>
       <c r="E1644" s="5" t="s">
         <v>28</v>
@@ -74690,10 +74715,10 @@
         <v>7</v>
       </c>
       <c r="C1645" s="41" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D1645" s="41" t="s">
         <v>3111</v>
-      </c>
-      <c r="D1645" s="41" t="s">
-        <v>3112</v>
       </c>
       <c r="E1645" s="5" t="s">
         <v>28</v>
@@ -74716,10 +74741,10 @@
         <v>1985</v>
       </c>
       <c r="C1646" s="41" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D1646" s="41" t="s">
         <v>3113</v>
-      </c>
-      <c r="D1646" s="41" t="s">
-        <v>3114</v>
       </c>
       <c r="E1646" s="5" t="s">
         <v>28</v>
@@ -74745,7 +74770,7 @@
         <v>8</v>
       </c>
       <c r="D1647" s="11" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="E1647" s="12" t="s">
         <v>28</v>
@@ -74765,7 +74790,7 @@
         <v>6573</v>
       </c>
       <c r="B1648" s="18" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C1648" s="41" t="s">
         <v>2076</v>
@@ -74794,10 +74819,10 @@
         <v>1985</v>
       </c>
       <c r="C1649" s="41" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D1649" s="41" t="s">
         <v>3116</v>
-      </c>
-      <c r="D1649" s="41" t="s">
-        <v>3117</v>
       </c>
       <c r="E1649" s="5" t="s">
         <v>28</v>
@@ -74820,10 +74845,10 @@
         <v>1985</v>
       </c>
       <c r="C1650" s="41" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D1650" s="41" t="s">
         <v>3118</v>
-      </c>
-      <c r="D1650" s="41" t="s">
-        <v>3119</v>
       </c>
       <c r="E1650" s="5" t="s">
         <v>28</v>
@@ -74846,10 +74871,10 @@
         <v>1985</v>
       </c>
       <c r="C1651" s="17" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D1651" s="17" t="s">
         <v>3120</v>
-      </c>
-      <c r="D1651" s="17" t="s">
-        <v>3121</v>
       </c>
       <c r="E1651" s="39" t="s">
         <v>28</v>
@@ -74872,10 +74897,10 @@
         <v>7</v>
       </c>
       <c r="C1652" s="41" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D1652" s="41" t="s">
         <v>3122</v>
-      </c>
-      <c r="D1652" s="41" t="s">
-        <v>3123</v>
       </c>
       <c r="E1652" s="5" t="s">
         <v>28</v>
@@ -74898,10 +74923,10 @@
         <v>1985</v>
       </c>
       <c r="C1653" s="41" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D1653" s="41" t="s">
         <v>3124</v>
-      </c>
-      <c r="D1653" s="41" t="s">
-        <v>3125</v>
       </c>
       <c r="E1653" s="5" t="s">
         <v>28</v>
@@ -74924,10 +74949,10 @@
         <v>7</v>
       </c>
       <c r="C1654" s="17" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D1654" s="17" t="s">
         <v>3126</v>
-      </c>
-      <c r="D1654" s="17" t="s">
-        <v>3127</v>
       </c>
       <c r="E1654" s="39" t="s">
         <v>28</v>
@@ -74950,10 +74975,10 @@
         <v>1985</v>
       </c>
       <c r="C1655" s="41" t="s">
+        <v>3127</v>
+      </c>
+      <c r="D1655" s="41" t="s">
         <v>3128</v>
-      </c>
-      <c r="D1655" s="41" t="s">
-        <v>3129</v>
       </c>
       <c r="E1655" s="5" t="s">
         <v>28</v>
@@ -74976,7 +75001,7 @@
         <v>7</v>
       </c>
       <c r="C1656" s="41" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="D1656" s="41" t="s">
         <v>2150</v>
@@ -75002,10 +75027,10 @@
         <v>1985</v>
       </c>
       <c r="C1657" s="41" t="s">
+        <v>3130</v>
+      </c>
+      <c r="D1657" s="41" t="s">
         <v>3131</v>
-      </c>
-      <c r="D1657" s="41" t="s">
-        <v>3132</v>
       </c>
       <c r="E1657" s="5" t="s">
         <v>28</v>
@@ -75028,10 +75053,10 @@
         <v>1985</v>
       </c>
       <c r="C1658" s="41" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D1658" s="41" t="s">
         <v>3133</v>
-      </c>
-      <c r="D1658" s="41" t="s">
-        <v>3134</v>
       </c>
       <c r="E1658" s="5" t="s">
         <v>28</v>
@@ -75054,10 +75079,10 @@
         <v>1985</v>
       </c>
       <c r="C1659" s="41" t="s">
+        <v>3134</v>
+      </c>
+      <c r="D1659" s="41" t="s">
         <v>3135</v>
-      </c>
-      <c r="D1659" s="41" t="s">
-        <v>3136</v>
       </c>
       <c r="E1659" s="5" t="s">
         <v>28</v>
@@ -75080,10 +75105,10 @@
         <v>1985</v>
       </c>
       <c r="C1660" s="41" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D1660" s="41" t="s">
         <v>3137</v>
-      </c>
-      <c r="D1660" s="41" t="s">
-        <v>3138</v>
       </c>
       <c r="E1660" s="5" t="s">
         <v>28</v>
@@ -75106,10 +75131,10 @@
         <v>7</v>
       </c>
       <c r="C1661" s="41" t="s">
+        <v>3138</v>
+      </c>
+      <c r="D1661" s="41" t="s">
         <v>3139</v>
-      </c>
-      <c r="D1661" s="41" t="s">
-        <v>3140</v>
       </c>
       <c r="E1661" s="5" t="s">
         <v>28</v>
@@ -75135,7 +75160,7 @@
         <v>892</v>
       </c>
       <c r="D1662" s="41" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="E1662" s="5" t="s">
         <v>116</v>
@@ -75158,10 +75183,10 @@
         <v>1985</v>
       </c>
       <c r="C1663" s="41" t="s">
+        <v>3141</v>
+      </c>
+      <c r="D1663" s="41" t="s">
         <v>3142</v>
-      </c>
-      <c r="D1663" s="41" t="s">
-        <v>3143</v>
       </c>
       <c r="E1663" s="5" t="s">
         <v>186</v>
@@ -75187,7 +75212,7 @@
         <v>260</v>
       </c>
       <c r="D1664" s="41" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="E1664" s="5" t="s">
         <v>20</v>
@@ -75239,7 +75264,7 @@
         <v>1864</v>
       </c>
       <c r="D1666" s="41" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="E1666" s="5" t="s">
         <v>68</v>
@@ -75262,10 +75287,10 @@
         <v>7</v>
       </c>
       <c r="C1667" s="41" t="s">
+        <v>3145</v>
+      </c>
+      <c r="D1667" s="41" t="s">
         <v>3146</v>
-      </c>
-      <c r="D1667" s="41" t="s">
-        <v>3147</v>
       </c>
       <c r="E1667" s="5" t="s">
         <v>28</v>
@@ -75288,7 +75313,7 @@
         <v>1985</v>
       </c>
       <c r="C1668" s="41" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="D1668" s="41" t="s">
         <v>575</v>
@@ -75314,7 +75339,7 @@
         <v>14</v>
       </c>
       <c r="C1669" s="41" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="D1669" s="41" t="s">
         <v>575</v>
@@ -75323,10 +75348,10 @@
         <v>144</v>
       </c>
       <c r="F1669" s="5" t="s">
+        <v>3149</v>
+      </c>
+      <c r="G1669" s="43" t="s">
         <v>3150</v>
-      </c>
-      <c r="G1669" s="43" t="s">
-        <v>3151</v>
       </c>
       <c r="H1669" s="21">
         <v>1</v>
@@ -75340,7 +75365,7 @@
         <v>7</v>
       </c>
       <c r="C1670" s="41" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="D1670" s="41" t="s">
         <v>575</v>
@@ -75366,10 +75391,10 @@
         <v>7</v>
       </c>
       <c r="C1671" s="32" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D1671" s="32" t="s">
         <v>3153</v>
-      </c>
-      <c r="D1671" s="32" t="s">
-        <v>3154</v>
       </c>
       <c r="E1671" s="5" t="s">
         <v>144</v>
@@ -75392,10 +75417,10 @@
         <v>7</v>
       </c>
       <c r="C1672" s="10" t="s">
+        <v>3154</v>
+      </c>
+      <c r="D1672" s="11" t="s">
         <v>3155</v>
-      </c>
-      <c r="D1672" s="11" t="s">
-        <v>3156</v>
       </c>
       <c r="E1672" s="12" t="s">
         <v>24</v>
@@ -75415,7 +75440,7 @@
         <v>90006598</v>
       </c>
       <c r="B1673" s="18" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C1673" s="41" t="s">
         <v>2319</v>
@@ -75442,10 +75467,10 @@
         <v>1985</v>
       </c>
       <c r="C1674" s="41" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D1674" s="41" t="s">
         <v>3157</v>
-      </c>
-      <c r="D1674" s="41" t="s">
-        <v>3158</v>
       </c>
       <c r="E1674" s="5" t="s">
         <v>28</v>
@@ -75468,10 +75493,10 @@
         <v>7</v>
       </c>
       <c r="C1675" s="41" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D1675" s="41" t="s">
         <v>3159</v>
-      </c>
-      <c r="D1675" s="41" t="s">
-        <v>3160</v>
       </c>
       <c r="E1675" s="5" t="s">
         <v>28</v>
@@ -75494,10 +75519,10 @@
         <v>1985</v>
       </c>
       <c r="C1676" s="41" t="s">
+        <v>3160</v>
+      </c>
+      <c r="D1676" s="41" t="s">
         <v>3161</v>
-      </c>
-      <c r="D1676" s="41" t="s">
-        <v>3162</v>
       </c>
       <c r="E1676" s="5" t="s">
         <v>28</v>
@@ -75520,10 +75545,10 @@
         <v>1985</v>
       </c>
       <c r="C1677" s="41" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D1677" s="41" t="s">
         <v>3163</v>
-      </c>
-      <c r="D1677" s="41" t="s">
-        <v>3164</v>
       </c>
       <c r="E1677" s="5" t="s">
         <v>28</v>
@@ -75546,10 +75571,10 @@
         <v>7</v>
       </c>
       <c r="C1678" s="41" t="s">
+        <v>3164</v>
+      </c>
+      <c r="D1678" s="41" t="s">
         <v>3165</v>
-      </c>
-      <c r="D1678" s="41" t="s">
-        <v>3166</v>
       </c>
       <c r="E1678" s="5" t="s">
         <v>28</v>
@@ -75572,10 +75597,10 @@
         <v>1985</v>
       </c>
       <c r="C1679" s="41" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D1679" s="41" t="s">
         <v>3167</v>
-      </c>
-      <c r="D1679" s="41" t="s">
-        <v>3168</v>
       </c>
       <c r="E1679" s="5" t="s">
         <v>28</v>
@@ -75598,10 +75623,10 @@
         <v>1985</v>
       </c>
       <c r="C1680" s="41" t="s">
+        <v>3168</v>
+      </c>
+      <c r="D1680" s="41" t="s">
         <v>3169</v>
-      </c>
-      <c r="D1680" s="41" t="s">
-        <v>3170</v>
       </c>
       <c r="E1680" s="5" t="s">
         <v>68</v>
@@ -75624,10 +75649,10 @@
         <v>1985</v>
       </c>
       <c r="C1681" s="41" t="s">
+        <v>3170</v>
+      </c>
+      <c r="D1681" s="41" t="s">
         <v>3171</v>
-      </c>
-      <c r="D1681" s="41" t="s">
-        <v>3172</v>
       </c>
       <c r="E1681" s="5" t="s">
         <v>68</v>
@@ -75653,7 +75678,7 @@
         <v>1420</v>
       </c>
       <c r="D1682" s="41" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="E1682" s="5" t="s">
         <v>68</v>
@@ -75679,7 +75704,7 @@
         <v>419</v>
       </c>
       <c r="D1683" s="17" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="E1683" s="39" t="s">
         <v>68</v>
@@ -75705,7 +75730,7 @@
         <v>1783</v>
       </c>
       <c r="D1684" s="41" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="E1684" s="5" t="s">
         <v>28</v>
@@ -75728,10 +75753,10 @@
         <v>1985</v>
       </c>
       <c r="C1685" s="41" t="s">
+        <v>3174</v>
+      </c>
+      <c r="D1685" s="41" t="s">
         <v>3175</v>
-      </c>
-      <c r="D1685" s="41" t="s">
-        <v>3176</v>
       </c>
       <c r="E1685" s="5" t="s">
         <v>28</v>
@@ -75754,10 +75779,10 @@
         <v>1985</v>
       </c>
       <c r="C1686" s="41" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="D1686" s="41" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="E1686" s="5" t="s">
         <v>242</v>
@@ -75780,10 +75805,10 @@
         <v>7</v>
       </c>
       <c r="C1687" s="41" t="s">
+        <v>3177</v>
+      </c>
+      <c r="D1687" s="41" t="s">
         <v>3178</v>
-      </c>
-      <c r="D1687" s="41" t="s">
-        <v>3179</v>
       </c>
       <c r="E1687" s="5" t="s">
         <v>28</v>
@@ -75806,10 +75831,10 @@
         <v>1985</v>
       </c>
       <c r="C1688" s="10" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D1688" s="11" t="s">
         <v>3180</v>
-      </c>
-      <c r="D1688" s="11" t="s">
-        <v>3181</v>
       </c>
       <c r="E1688" s="12" t="s">
         <v>28</v>
@@ -75832,10 +75857,10 @@
         <v>7</v>
       </c>
       <c r="C1689" s="32" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D1689" s="32" t="s">
         <v>3182</v>
-      </c>
-      <c r="D1689" s="32" t="s">
-        <v>3183</v>
       </c>
       <c r="E1689" s="5" t="s">
         <v>20</v>
@@ -75858,10 +75883,10 @@
         <v>1985</v>
       </c>
       <c r="C1690" s="32" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="D1690" s="32" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="E1690" s="5" t="s">
         <v>28</v>
@@ -75884,10 +75909,10 @@
         <v>7</v>
       </c>
       <c r="C1691" s="32" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D1691" s="32" t="s">
         <v>3185</v>
-      </c>
-      <c r="D1691" s="32" t="s">
-        <v>3186</v>
       </c>
       <c r="E1691" s="5" t="s">
         <v>24</v>
@@ -75910,10 +75935,10 @@
         <v>7</v>
       </c>
       <c r="C1692" s="32" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D1692" s="32" t="s">
         <v>3187</v>
-      </c>
-      <c r="D1692" s="32" t="s">
-        <v>3188</v>
       </c>
       <c r="E1692" s="5" t="s">
         <v>68</v>
@@ -75933,13 +75958,13 @@
         <v>6618</v>
       </c>
       <c r="B1693" s="31" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C1693" s="32" t="s">
         <v>3189</v>
       </c>
-      <c r="C1693" s="32" t="s">
+      <c r="D1693" s="32" t="s">
         <v>3190</v>
-      </c>
-      <c r="D1693" s="32" t="s">
-        <v>3191</v>
       </c>
       <c r="E1693" s="5" t="s">
         <v>68</v>
@@ -75962,10 +75987,10 @@
         <v>7</v>
       </c>
       <c r="C1694" s="32" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="D1694" s="32" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="E1694" s="5" t="s">
         <v>68</v>
@@ -75988,10 +76013,10 @@
         <v>14</v>
       </c>
       <c r="C1695" s="32" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D1695" s="32" t="s">
         <v>3193</v>
-      </c>
-      <c r="D1695" s="32" t="s">
-        <v>3194</v>
       </c>
       <c r="E1695" s="5" t="s">
         <v>46</v>
@@ -76014,10 +76039,10 @@
         <v>7</v>
       </c>
       <c r="C1696" s="32" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D1696" s="32" t="s">
         <v>3195</v>
-      </c>
-      <c r="D1696" s="32" t="s">
-        <v>3196</v>
       </c>
       <c r="E1696" s="5" t="s">
         <v>28</v>
@@ -76043,7 +76068,7 @@
         <v>216</v>
       </c>
       <c r="D1697" s="32" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="E1697" s="5" t="s">
         <v>28</v>
@@ -76066,10 +76091,10 @@
         <v>14</v>
       </c>
       <c r="C1698" s="32" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D1698" s="32" t="s">
         <v>3198</v>
-      </c>
-      <c r="D1698" s="32" t="s">
-        <v>3199</v>
       </c>
       <c r="E1698" s="5" t="s">
         <v>28</v>
@@ -76092,10 +76117,10 @@
         <v>1985</v>
       </c>
       <c r="C1699" s="32" t="s">
+        <v>3199</v>
+      </c>
+      <c r="D1699" s="32" t="s">
         <v>3200</v>
-      </c>
-      <c r="D1699" s="32" t="s">
-        <v>3201</v>
       </c>
       <c r="E1699" s="5" t="s">
         <v>28</v>
@@ -76118,10 +76143,10 @@
         <v>7</v>
       </c>
       <c r="C1700" s="32" t="s">
+        <v>3201</v>
+      </c>
+      <c r="D1700" s="32" t="s">
         <v>3202</v>
-      </c>
-      <c r="D1700" s="32" t="s">
-        <v>3203</v>
       </c>
       <c r="E1700" s="5" t="s">
         <v>28</v>
@@ -76147,7 +76172,7 @@
         <v>1945</v>
       </c>
       <c r="D1701" s="32" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="E1701" s="5" t="s">
         <v>28</v>
@@ -76170,10 +76195,10 @@
         <v>7</v>
       </c>
       <c r="C1702" s="32" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D1702" s="32" t="s">
         <v>3205</v>
-      </c>
-      <c r="D1702" s="32" t="s">
-        <v>3206</v>
       </c>
       <c r="E1702" s="5" t="s">
         <v>28</v>
@@ -76196,10 +76221,10 @@
         <v>14</v>
       </c>
       <c r="C1703" s="32" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D1703" s="32" t="s">
         <v>3207</v>
-      </c>
-      <c r="D1703" s="32" t="s">
-        <v>3208</v>
       </c>
       <c r="E1703" s="5" t="s">
         <v>28</v>
@@ -76222,10 +76247,10 @@
         <v>14</v>
       </c>
       <c r="C1704" s="32" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D1704" s="32" t="s">
         <v>3209</v>
-      </c>
-      <c r="D1704" s="32" t="s">
-        <v>3210</v>
       </c>
       <c r="E1704" s="5" t="s">
         <v>28</v>
@@ -76248,10 +76273,10 @@
         <v>14</v>
       </c>
       <c r="C1705" s="31" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D1705" s="32" t="s">
         <v>3211</v>
-      </c>
-      <c r="D1705" s="32" t="s">
-        <v>3212</v>
       </c>
       <c r="E1705" s="5" t="s">
         <v>28</v>
@@ -76274,10 +76299,10 @@
         <v>14</v>
       </c>
       <c r="C1706" s="31" t="s">
+        <v>3212</v>
+      </c>
+      <c r="D1706" s="32" t="s">
         <v>3213</v>
-      </c>
-      <c r="D1706" s="32" t="s">
-        <v>3214</v>
       </c>
       <c r="E1706" s="5" t="s">
         <v>28</v>
@@ -76300,10 +76325,10 @@
         <v>14</v>
       </c>
       <c r="C1707" s="31" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D1707" s="32" t="s">
         <v>3215</v>
-      </c>
-      <c r="D1707" s="32" t="s">
-        <v>3216</v>
       </c>
       <c r="E1707" s="5" t="s">
         <v>28</v>
@@ -76329,7 +76354,7 @@
         <v>2362</v>
       </c>
       <c r="D1708" s="1" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="E1708" s="5" t="s">
         <v>28</v>
@@ -76352,10 +76377,10 @@
         <v>1985</v>
       </c>
       <c r="C1709" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D1709" s="1" t="s">
         <v>3218</v>
-      </c>
-      <c r="D1709" s="1" t="s">
-        <v>3219</v>
       </c>
       <c r="E1709" s="5" t="s">
         <v>28</v>
@@ -76378,7 +76403,7 @@
         <v>7</v>
       </c>
       <c r="C1710" s="1" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="D1710" s="1" t="s">
         <v>1865</v>
@@ -76404,10 +76429,10 @@
         <v>7</v>
       </c>
       <c r="C1711" s="11" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D1711" s="11" t="s">
         <v>3221</v>
-      </c>
-      <c r="D1711" s="11" t="s">
-        <v>3222</v>
       </c>
       <c r="E1711" s="13" t="s">
         <v>28</v>
@@ -76430,10 +76455,10 @@
         <v>1985</v>
       </c>
       <c r="C1712" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D1712" s="1" t="s">
         <v>3223</v>
-      </c>
-      <c r="D1712" s="1" t="s">
-        <v>3224</v>
       </c>
       <c r="E1712" s="5" t="s">
         <v>28</v>
@@ -76456,10 +76481,10 @@
         <v>1985</v>
       </c>
       <c r="C1713" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="D1713" s="1" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="E1713" s="5" t="s">
         <v>28</v>
@@ -76482,10 +76507,10 @@
         <v>7</v>
       </c>
       <c r="C1714" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="D1714" s="1" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="E1714" s="5" t="s">
         <v>28</v>
@@ -76508,10 +76533,10 @@
         <v>7</v>
       </c>
       <c r="C1715" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="D1715" s="1" t="s">
         <v>3227</v>
-      </c>
-      <c r="D1715" s="1" t="s">
-        <v>3228</v>
       </c>
       <c r="E1715" s="5" t="s">
         <v>28</v>
@@ -76534,10 +76559,10 @@
         <v>1985</v>
       </c>
       <c r="C1716" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D1716" s="1" t="s">
         <v>3229</v>
-      </c>
-      <c r="D1716" s="1" t="s">
-        <v>3230</v>
       </c>
       <c r="E1716" s="5" t="s">
         <v>28</v>
@@ -76560,10 +76585,10 @@
         <v>7</v>
       </c>
       <c r="C1717" s="11" t="s">
+        <v>3230</v>
+      </c>
+      <c r="D1717" s="11" t="s">
         <v>3231</v>
-      </c>
-      <c r="D1717" s="11" t="s">
-        <v>3232</v>
       </c>
       <c r="E1717" s="13" t="s">
         <v>68</v>
@@ -76586,10 +76611,10 @@
         <v>1985</v>
       </c>
       <c r="C1718" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D1718" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="D1718" s="1" t="s">
-        <v>2734</v>
       </c>
       <c r="E1718" s="5" t="s">
         <v>68</v>
@@ -76612,10 +76637,10 @@
         <v>1985</v>
       </c>
       <c r="C1719" s="11" t="s">
+        <v>3232</v>
+      </c>
+      <c r="D1719" s="11" t="s">
         <v>3233</v>
-      </c>
-      <c r="D1719" s="11" t="s">
-        <v>3234</v>
       </c>
       <c r="E1719" s="13" t="s">
         <v>68</v>
@@ -76667,7 +76692,7 @@
         <v>1842</v>
       </c>
       <c r="D1721" s="1" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="E1721" s="5" t="s">
         <v>10</v>
@@ -76716,10 +76741,10 @@
         <v>7</v>
       </c>
       <c r="C1723" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="D1723" s="1" t="s">
         <v>3236</v>
-      </c>
-      <c r="D1723" s="1" t="s">
-        <v>3237</v>
       </c>
       <c r="E1723" s="5" t="s">
         <v>10</v>
@@ -76742,10 +76767,10 @@
         <v>7</v>
       </c>
       <c r="C1724" s="1" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D1724" s="1" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="E1724" s="5" t="s">
         <v>28</v>
@@ -76768,10 +76793,10 @@
         <v>7</v>
       </c>
       <c r="C1725" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="D1725" s="1" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
       <c r="E1725" s="5" t="s">
         <v>28</v>
@@ -76797,7 +76822,7 @@
         <v>1582</v>
       </c>
       <c r="D1726" s="1" t="s">
-        <v>3240</v>
+        <v>3239</v>
       </c>
       <c r="E1726" s="5" t="s">
         <v>28</v>
@@ -76820,10 +76845,10 @@
         <v>7</v>
       </c>
       <c r="C1727" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="D1727" s="1" t="s">
         <v>3241</v>
-      </c>
-      <c r="D1727" s="1" t="s">
-        <v>3242</v>
       </c>
       <c r="E1727" s="5" t="s">
         <v>28</v>
@@ -76846,10 +76871,10 @@
         <v>7</v>
       </c>
       <c r="C1728" s="11" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D1728" s="11" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="E1728" s="13" t="s">
         <v>28</v>
@@ -76872,10 +76897,10 @@
         <v>1985</v>
       </c>
       <c r="C1729" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D1729" s="1" t="s">
         <v>3244</v>
-      </c>
-      <c r="D1729" s="1" t="s">
-        <v>3245</v>
       </c>
       <c r="E1729" s="5" t="s">
         <v>28</v>
@@ -76898,10 +76923,10 @@
         <v>7</v>
       </c>
       <c r="C1730" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D1730" s="1" t="s">
         <v>3246</v>
-      </c>
-      <c r="D1730" s="1" t="s">
-        <v>3247</v>
       </c>
       <c r="E1730" s="5" t="s">
         <v>28</v>
@@ -76924,10 +76949,10 @@
         <v>1985</v>
       </c>
       <c r="C1731" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="D1731" s="1" t="s">
         <v>3248</v>
-      </c>
-      <c r="D1731" s="1" t="s">
-        <v>3249</v>
       </c>
       <c r="E1731" s="5" t="s">
         <v>28</v>
@@ -76953,7 +76978,7 @@
         <v>1373</v>
       </c>
       <c r="D1732" s="1" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="E1732" s="5" t="s">
         <v>28</v>
@@ -76976,10 +77001,10 @@
         <v>1985</v>
       </c>
       <c r="C1733" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="D1733" s="1" t="s">
         <v>3251</v>
-      </c>
-      <c r="D1733" s="1" t="s">
-        <v>3252</v>
       </c>
       <c r="E1733" s="5" t="s">
         <v>28</v>
@@ -77002,10 +77027,10 @@
         <v>7</v>
       </c>
       <c r="C1734" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="D1734" s="1" t="s">
         <v>3253</v>
-      </c>
-      <c r="D1734" s="1" t="s">
-        <v>3254</v>
       </c>
       <c r="E1734" s="5" t="s">
         <v>28</v>
@@ -77028,10 +77053,10 @@
         <v>1985</v>
       </c>
       <c r="C1735" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="D1735" s="1" t="s">
         <v>3255</v>
-      </c>
-      <c r="D1735" s="1" t="s">
-        <v>3256</v>
       </c>
       <c r="E1735" s="5" t="s">
         <v>28</v>
@@ -77054,10 +77079,10 @@
         <v>1985</v>
       </c>
       <c r="C1736" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="D1736" s="1" t="s">
         <v>2724</v>
-      </c>
-      <c r="D1736" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="E1736" s="5" t="s">
         <v>28</v>
@@ -77080,7 +77105,7 @@
         <v>7</v>
       </c>
       <c r="C1737" s="1" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="D1737" s="1" t="s">
         <v>2237</v>
@@ -77109,7 +77134,7 @@
         <v>1455</v>
       </c>
       <c r="D1738" s="1" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="E1738" s="5" t="s">
         <v>28</v>
@@ -77135,7 +77160,7 @@
         <v>1920</v>
       </c>
       <c r="D1739" s="1" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E1739" s="5" t="s">
         <v>20</v>
@@ -77158,10 +77183,10 @@
         <v>1985</v>
       </c>
       <c r="C1740" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D1740" s="1" t="s">
         <v>3260</v>
-      </c>
-      <c r="D1740" s="1" t="s">
-        <v>3261</v>
       </c>
       <c r="E1740" s="5" t="s">
         <v>20</v>
@@ -77184,10 +77209,10 @@
         <v>1985</v>
       </c>
       <c r="C1741" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D1741" s="1" t="s">
         <v>3262</v>
-      </c>
-      <c r="D1741" s="1" t="s">
-        <v>3263</v>
       </c>
       <c r="E1741" s="5" t="s">
         <v>68</v>
@@ -77213,7 +77238,7 @@
         <v>153</v>
       </c>
       <c r="D1742" s="1" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="E1742" s="5" t="s">
         <v>68</v>
@@ -77236,10 +77261,10 @@
         <v>1985</v>
       </c>
       <c r="C1743" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D1743" s="1" t="s">
         <v>3264</v>
-      </c>
-      <c r="D1743" s="1" t="s">
-        <v>3265</v>
       </c>
       <c r="E1743" s="5" t="s">
         <v>68</v>
@@ -77265,7 +77290,7 @@
         <v>1669</v>
       </c>
       <c r="D1744" s="1" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="E1744" s="5" t="s">
         <v>68</v>
@@ -77288,10 +77313,10 @@
         <v>1985</v>
       </c>
       <c r="C1745" s="1" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D1745" s="1" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="E1745" s="5" t="s">
         <v>68</v>
@@ -77314,10 +77339,10 @@
         <v>1985</v>
       </c>
       <c r="C1746" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D1746" s="1" t="s">
         <v>3268</v>
-      </c>
-      <c r="D1746" s="1" t="s">
-        <v>3269</v>
       </c>
       <c r="E1746" s="5" t="s">
         <v>68</v>
@@ -77340,10 +77365,10 @@
         <v>1985</v>
       </c>
       <c r="C1747" s="1" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="D1747" s="1" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="E1747" s="5" t="s">
         <v>68</v>
@@ -77366,7 +77391,7 @@
         <v>1985</v>
       </c>
       <c r="C1748" s="1" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="D1748" s="1" t="s">
         <v>210</v>
@@ -77392,10 +77417,10 @@
         <v>1985</v>
       </c>
       <c r="C1749" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="D1749" s="1" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="E1749" s="5" t="s">
         <v>108</v>
@@ -77418,10 +77443,10 @@
         <v>1985</v>
       </c>
       <c r="C1750" s="1" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="D1750" s="1" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="E1750" s="5" t="s">
         <v>28</v>
@@ -77444,10 +77469,10 @@
         <v>1985</v>
       </c>
       <c r="C1751" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D1751" s="1" t="s">
         <v>3274</v>
-      </c>
-      <c r="D1751" s="1" t="s">
-        <v>3275</v>
       </c>
       <c r="E1751" s="5" t="s">
         <v>28</v>
@@ -77473,7 +77498,7 @@
         <v>125</v>
       </c>
       <c r="D1752" s="1" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="E1752" s="5" t="s">
         <v>28</v>
@@ -77496,10 +77521,10 @@
         <v>1985</v>
       </c>
       <c r="C1753" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D1753" s="1" t="s">
         <v>3277</v>
-      </c>
-      <c r="D1753" s="1" t="s">
-        <v>3278</v>
       </c>
       <c r="E1753" s="5" t="s">
         <v>28</v>
@@ -77522,7 +77547,7 @@
         <v>1929</v>
       </c>
       <c r="C1754" s="1" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="E1754" s="5" t="s">
         <v>28</v>
@@ -77542,10 +77567,10 @@
         <v>90006675</v>
       </c>
       <c r="B1755" s="3" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C1755" s="1" t="s">
         <v>3280</v>
-      </c>
-      <c r="C1755" s="1" t="s">
-        <v>3281</v>
       </c>
       <c r="E1755" s="5" t="s">
         <v>28</v>
@@ -77568,10 +77593,10 @@
         <v>7</v>
       </c>
       <c r="C1756" s="1" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D1756" s="1" t="s">
         <v>3282</v>
-      </c>
-      <c r="D1756" s="1" t="s">
-        <v>3283</v>
       </c>
       <c r="E1756" s="5" t="s">
         <v>28</v>
@@ -77594,10 +77619,10 @@
         <v>7</v>
       </c>
       <c r="C1757" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D1757" s="1" t="s">
         <v>3284</v>
-      </c>
-      <c r="D1757" s="1" t="s">
-        <v>3285</v>
       </c>
       <c r="E1757" s="5" t="s">
         <v>28</v>
@@ -77613,29 +77638,29 @@
       </c>
     </row>
     <row r="1758" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1758" s="59">
+      <c r="A1758" s="60">
         <v>6679</v>
       </c>
-      <c r="B1758" s="3" t="s">
+      <c r="B1758" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1758" s="1" t="s">
+      <c r="C1758" s="11" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D1758" s="11" t="s">
         <v>3286</v>
       </c>
-      <c r="D1758" s="1" t="s">
-        <v>3287</v>
-      </c>
-      <c r="E1758" s="5" t="s">
+      <c r="E1758" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F1758" s="5" t="s">
+      <c r="F1758" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G1758" s="6">
+      <c r="G1758" s="13">
         <v>364400</v>
       </c>
-      <c r="H1758" s="62">
-        <v>1</v>
+      <c r="H1758" s="63">
+        <v>0</v>
       </c>
     </row>
     <row r="1759" spans="1:8" x14ac:dyDescent="0.25">
@@ -77646,10 +77671,10 @@
         <v>1985</v>
       </c>
       <c r="C1759" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D1759" s="1" t="s">
         <v>3288</v>
-      </c>
-      <c r="D1759" s="1" t="s">
-        <v>3289</v>
       </c>
       <c r="E1759" s="5" t="s">
         <v>68</v>
@@ -77672,10 +77697,10 @@
         <v>7</v>
       </c>
       <c r="C1760" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D1760" s="1" t="s">
         <v>3290</v>
-      </c>
-      <c r="D1760" s="1" t="s">
-        <v>3291</v>
       </c>
       <c r="E1760" s="5" t="s">
         <v>68</v>
@@ -77698,10 +77723,10 @@
         <v>1985</v>
       </c>
       <c r="C1761" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D1761" s="1" t="s">
         <v>3292</v>
-      </c>
-      <c r="D1761" s="1" t="s">
-        <v>3293</v>
       </c>
       <c r="E1761" s="5" t="s">
         <v>28</v>
@@ -77724,10 +77749,10 @@
         <v>1985</v>
       </c>
       <c r="C1762" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D1762" s="1" t="s">
         <v>3294</v>
-      </c>
-      <c r="D1762" s="1" t="s">
-        <v>3295</v>
       </c>
       <c r="E1762" s="5" t="s">
         <v>28</v>
@@ -77750,10 +77775,10 @@
         <v>1985</v>
       </c>
       <c r="C1763" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D1763" s="1" t="s">
         <v>3296</v>
-      </c>
-      <c r="D1763" s="1" t="s">
-        <v>3297</v>
       </c>
       <c r="E1763" s="5" t="s">
         <v>28</v>
@@ -77799,10 +77824,10 @@
         <v>90006686</v>
       </c>
       <c r="B1765" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="C1765" s="3" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="D1765" s="1" t="s">
         <v>575</v>
@@ -77828,7 +77853,7 @@
         <v>1985</v>
       </c>
       <c r="C1766" s="3" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="D1766" s="1" t="s">
         <v>575</v>
@@ -77847,241 +77872,398 @@
       </c>
     </row>
     <row r="1767" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1767" s="64">
+      <c r="A1767" s="59">
         <v>6688</v>
       </c>
-      <c r="B1767" s="64" t="s">
+      <c r="B1767" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1767" s="65" t="s">
+      <c r="C1767" s="3" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D1767" s="1" t="s">
         <v>3300</v>
       </c>
-      <c r="D1767" s="66" t="s">
+      <c r="E1767" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1767" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1767" s="6">
+        <v>364800</v>
+      </c>
+      <c r="H1767" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1768" s="59">
+        <v>6689</v>
+      </c>
+      <c r="B1768" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1768" s="3" t="s">
         <v>3301</v>
       </c>
-      <c r="E1767" s="67" t="s">
+      <c r="D1768" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="E1768" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1767" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1767" s="69">
-        <v>364800</v>
-      </c>
-      <c r="H1767" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1768" s="64">
-        <v>6689</v>
-      </c>
-      <c r="B1768" s="64" t="s">
+      <c r="F1768" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1768" s="6">
+        <v>364100</v>
+      </c>
+      <c r="H1768" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1769" s="59">
+        <v>6690</v>
+      </c>
+      <c r="B1769" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1769" s="3" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D1769" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="E1769" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1769" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1769" s="6">
+        <v>364300</v>
+      </c>
+      <c r="H1769" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1770" s="59">
+        <v>6691</v>
+      </c>
+      <c r="B1770" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1770" s="3" t="s">
+        <v>3305</v>
+      </c>
+      <c r="D1770" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="E1770" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1770" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1770" s="6">
+        <v>364300</v>
+      </c>
+      <c r="H1770" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1771" s="59">
+        <v>6692</v>
+      </c>
+      <c r="B1771" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1771" s="3" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D1771" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="E1771" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1771" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1771" s="6">
+        <v>364400</v>
+      </c>
+      <c r="H1771" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1772" s="59">
+        <v>6693</v>
+      </c>
+      <c r="B1772" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1772" s="3" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D1772" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="E1772" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1772" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1772" s="6">
+        <v>364400</v>
+      </c>
+      <c r="H1772" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1773" s="59">
+        <v>6694</v>
+      </c>
+      <c r="B1773" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1773" s="3" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D1773" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E1773" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1773" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1773" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1773" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1774" s="59">
+        <v>6695</v>
+      </c>
+      <c r="B1774" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1774" s="3" t="s">
+        <v>3310</v>
+      </c>
+      <c r="D1774" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="E1774" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1774" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1774" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1774" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1775" s="59">
+        <v>6696</v>
+      </c>
+      <c r="B1775" s="3" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C1775" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D1775" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E1775" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1775" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1775" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1775" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1776" s="60">
+        <v>81020</v>
+      </c>
+      <c r="B1776" s="9" t="s">
         <v>1985</v>
       </c>
-      <c r="C1768" s="65" t="s">
-        <v>3302</v>
-      </c>
-      <c r="D1768" s="66" t="s">
-        <v>3303</v>
-      </c>
-      <c r="E1768" s="67" t="s">
+      <c r="C1776" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1776" s="11" t="s">
+        <v>3319</v>
+      </c>
+      <c r="E1776" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1776" s="12" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1776" s="13">
+        <v>368000</v>
+      </c>
+      <c r="H1776" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1777" s="60">
+        <v>81021</v>
+      </c>
+      <c r="B1777" s="9" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1777" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1777" s="11" t="s">
+        <v>3320</v>
+      </c>
+      <c r="E1777" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1777" s="12" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1777" s="13">
+        <v>368000</v>
+      </c>
+      <c r="H1777" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1778" s="68">
+        <v>81022</v>
+      </c>
+      <c r="B1778" s="69" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1778" s="69" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D1778" s="69" t="s">
+        <v>3312</v>
+      </c>
+      <c r="E1778" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1778" s="70" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1778" s="70">
+        <v>368000</v>
+      </c>
+      <c r="H1778" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1779" s="68">
+        <v>6644</v>
+      </c>
+      <c r="B1779" s="69" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1779" s="69" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D1779" s="69" t="s">
+        <v>3314</v>
+      </c>
+      <c r="E1779" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F1768" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1768" s="68">
-        <v>364100</v>
-      </c>
-      <c r="H1768" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1769" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1769" s="64">
-        <v>6690</v>
-      </c>
-      <c r="B1769" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1769" s="65" t="s">
-        <v>3304</v>
-      </c>
-      <c r="D1769" s="66" t="s">
-        <v>3305</v>
-      </c>
-      <c r="E1769" s="67" t="s">
+      <c r="F1779" s="70" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G1779" s="70">
+        <v>364610</v>
+      </c>
+      <c r="H1779" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1780" s="68">
+        <v>6646</v>
+      </c>
+      <c r="B1780" s="69" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1780" s="69" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D1780" s="69" t="s">
+        <v>3316</v>
+      </c>
+      <c r="E1780" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F1769" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1769" s="69">
-        <v>364300</v>
-      </c>
-      <c r="H1769" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1770" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1770" s="64">
-        <v>6691</v>
-      </c>
-      <c r="B1770" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1770" s="65" t="s">
-        <v>3306</v>
-      </c>
-      <c r="D1770" s="66" t="s">
-        <v>3307</v>
-      </c>
-      <c r="E1770" s="67" t="s">
+      <c r="F1780" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1780" s="70">
+        <v>364600</v>
+      </c>
+      <c r="H1780" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1781" s="68">
+        <v>6676</v>
+      </c>
+      <c r="B1781" s="69" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1781" s="69" t="s">
+        <v>3317</v>
+      </c>
+      <c r="D1781" s="69" t="s">
+        <v>3318</v>
+      </c>
+      <c r="E1781" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="F1770" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1770" s="69">
-        <v>364300</v>
-      </c>
-      <c r="H1770" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1771" s="64">
-        <v>6692</v>
-      </c>
-      <c r="B1771" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1771" s="65" t="s">
-        <v>3284</v>
-      </c>
-      <c r="D1771" s="66" t="s">
-        <v>3308</v>
-      </c>
-      <c r="E1771" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1771" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1771" s="69">
-        <v>364400</v>
-      </c>
-      <c r="H1771" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1772" s="64">
-        <v>6693</v>
-      </c>
-      <c r="B1772" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1772" s="65" t="s">
-        <v>1946</v>
-      </c>
-      <c r="D1772" s="66" t="s">
-        <v>3309</v>
-      </c>
-      <c r="E1772" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1772" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1772" s="69">
-        <v>364400</v>
-      </c>
-      <c r="H1772" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1773" s="64">
-        <v>6694</v>
-      </c>
-      <c r="B1773" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1773" s="65" t="s">
-        <v>3310</v>
-      </c>
-      <c r="D1773" s="66" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E1773" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1773" s="68" t="s">
-        <v>1511</v>
-      </c>
-      <c r="G1773" s="69">
-        <v>368000</v>
-      </c>
-      <c r="H1773" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1774" s="64">
-        <v>6695</v>
-      </c>
-      <c r="B1774" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1774" s="65" t="s">
-        <v>3311</v>
-      </c>
-      <c r="D1774" s="66" t="s">
-        <v>3312</v>
-      </c>
-      <c r="E1774" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1774" s="68" t="s">
-        <v>1511</v>
-      </c>
-      <c r="G1774" s="69">
-        <v>368000</v>
-      </c>
-      <c r="H1774" s="70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1775" s="64">
-        <v>6696</v>
-      </c>
-      <c r="B1775" s="64" t="s">
-        <v>2557</v>
-      </c>
-      <c r="C1775" s="65" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D1775" s="66" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E1775" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1775" s="68" t="s">
-        <v>1511</v>
-      </c>
-      <c r="G1775" s="69">
-        <v>368000</v>
-      </c>
-      <c r="H1775" s="70">
+      <c r="F1781" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1781" s="70">
+        <v>364600</v>
+      </c>
+      <c r="H1781" s="71">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1775" xr:uid="{913E7405-EFEC-4ED2-9529-41DAFD13DC4A}"/>
+  <autoFilter ref="A1:H1778" xr:uid="{913E7405-EFEC-4ED2-9529-41DAFD13DC4A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apinya.non\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EAC543-21C0-42D3-8162-55D4F7DCF5A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18178896-8E2F-46BF-A956-4DE1559C54D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{3239BD44-5DF0-4EE3-8C46-705090AA855C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1778</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1781</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7685" uniqueCount="3321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7745" uniqueCount="3343">
   <si>
     <t>Emp ID</t>
   </si>
@@ -9994,13 +9994,79 @@
   </si>
   <si>
     <t>POSU</t>
+  </si>
+  <si>
+    <t>DATRID</t>
+  </si>
+  <si>
+    <t>KHUNSRIRAKSORN</t>
+  </si>
+  <si>
+    <t>BENJASIN</t>
+  </si>
+  <si>
+    <t>CHANITA</t>
+  </si>
+  <si>
+    <t>DUANGSUNTHORN</t>
+  </si>
+  <si>
+    <t>RUNGNAPA</t>
+  </si>
+  <si>
+    <t>SANANOLIT</t>
+  </si>
+  <si>
+    <t>WARAYUT</t>
+  </si>
+  <si>
+    <t>CHANTHAKHAM</t>
+  </si>
+  <si>
+    <t>THIKHAMPORN</t>
+  </si>
+  <si>
+    <t>KONGSUI</t>
+  </si>
+  <si>
+    <t>MUHAMMAT</t>
+  </si>
+  <si>
+    <t>DONRAMAN</t>
+  </si>
+  <si>
+    <t>ARNAT</t>
+  </si>
+  <si>
+    <t>TOH-ARLI</t>
+  </si>
+  <si>
+    <t>BUNGORN</t>
+  </si>
+  <si>
+    <t>SRITONGON</t>
+  </si>
+  <si>
+    <t>PHIMNIPHA</t>
+  </si>
+  <si>
+    <t>ON-UAN</t>
+  </si>
+  <si>
+    <t>NOMKLAW</t>
+  </si>
+  <si>
+    <t>WIMONRAT</t>
+  </si>
+  <si>
+    <t>ROEKCHAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10023,20 +10089,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10086,9 +10138,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10235,26 +10287,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32003,10 +32045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D74ABB-BE42-4216-819B-7D7916272FCF}">
-  <dimension ref="A1:H1781"/>
+  <dimension ref="A1:H1793"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1758" workbookViewId="0">
-      <selection activeCell="P1771" sqref="P1771"/>
+    <sheetView tabSelected="1" topLeftCell="A1768" workbookViewId="0">
+      <selection activeCell="D1786" sqref="D1786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -38356,30 +38398,30 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+      <c r="A238" s="8">
         <v>3118</v>
       </c>
-      <c r="B238" s="3" t="str">
+      <c r="B238" s="9" t="str">
         <f>VLOOKUP(A238,[1]พนัดงานแจจุบัน!$A$3:$D$110000,3,0)</f>
         <v>MR</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="E238" s="5" t="s">
+      <c r="E238" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F238" s="5" t="s">
+      <c r="F238" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G238" s="6">
+      <c r="G238" s="13">
         <v>364600</v>
       </c>
-      <c r="H238" s="7">
-        <v>1</v>
+      <c r="H238" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -73360,10 +73402,10 @@
         <v>28</v>
       </c>
       <c r="F1592" s="5" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="G1592" s="6">
-        <v>364100</v>
+        <v>364400</v>
       </c>
       <c r="H1592" s="46">
         <v>1</v>
@@ -74023,13 +74065,13 @@
         <v>3068</v>
       </c>
       <c r="E1618" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F1618" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G1618" s="6">
-        <v>343100</v>
+        <v>354000</v>
       </c>
       <c r="H1618" s="21">
         <v>1</v>
@@ -75296,10 +75338,10 @@
         <v>28</v>
       </c>
       <c r="F1667" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G1667" s="6">
-        <v>364300</v>
+        <v>364400</v>
       </c>
       <c r="H1667" s="21">
         <v>1</v>
@@ -77602,10 +77644,10 @@
         <v>28</v>
       </c>
       <c r="F1756" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G1756" s="6">
-        <v>364300</v>
+        <v>364400</v>
       </c>
       <c r="H1756" s="62">
         <v>1</v>
@@ -77940,10 +77982,10 @@
         <v>28</v>
       </c>
       <c r="F1769" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G1769" s="6">
-        <v>364300</v>
+        <v>364400</v>
       </c>
       <c r="H1769" s="62">
         <v>1</v>
@@ -77966,10 +78008,10 @@
         <v>28</v>
       </c>
       <c r="F1770" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G1770" s="6">
-        <v>364300</v>
+        <v>364400</v>
       </c>
       <c r="H1770" s="62">
         <v>1</v>
@@ -78158,111 +78200,423 @@
       </c>
     </row>
     <row r="1778" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1778" s="68">
+      <c r="A1778" s="59">
         <v>81022</v>
       </c>
-      <c r="B1778" s="69" t="s">
+      <c r="B1778" s="3" t="s">
         <v>1985</v>
       </c>
-      <c r="C1778" s="69" t="s">
+      <c r="C1778" s="3" t="s">
         <v>1694</v>
       </c>
-      <c r="D1778" s="69" t="s">
+      <c r="D1778" s="1" t="s">
         <v>3312</v>
       </c>
-      <c r="E1778" s="70" t="s">
+      <c r="E1778" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F1778" s="70" t="s">
+      <c r="F1778" s="5" t="s">
         <v>1511</v>
       </c>
-      <c r="G1778" s="70">
+      <c r="G1778" s="6">
         <v>368000</v>
       </c>
-      <c r="H1778" s="71">
+      <c r="H1778" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="1779" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1779" s="68">
+      <c r="A1779" s="59">
         <v>6644</v>
       </c>
-      <c r="B1779" s="69" t="s">
+      <c r="B1779" s="3" t="s">
         <v>1985</v>
       </c>
-      <c r="C1779" s="69" t="s">
+      <c r="C1779" s="3" t="s">
         <v>3313</v>
       </c>
-      <c r="D1779" s="69" t="s">
+      <c r="D1779" s="1" t="s">
         <v>3314</v>
       </c>
-      <c r="E1779" s="70" t="s">
+      <c r="E1779" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1779" s="70" t="s">
+      <c r="F1779" s="5" t="s">
         <v>2039</v>
       </c>
-      <c r="G1779" s="70">
+      <c r="G1779" s="6">
         <v>364610</v>
       </c>
-      <c r="H1779" s="71">
+      <c r="H1779" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="1780" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1780" s="68">
+      <c r="A1780" s="59">
         <v>6646</v>
       </c>
-      <c r="B1780" s="69" t="s">
+      <c r="B1780" s="3" t="s">
         <v>1985</v>
       </c>
-      <c r="C1780" s="69" t="s">
+      <c r="C1780" s="3" t="s">
         <v>3315</v>
       </c>
-      <c r="D1780" s="69" t="s">
+      <c r="D1780" s="1" t="s">
         <v>3316</v>
       </c>
-      <c r="E1780" s="70" t="s">
+      <c r="E1780" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1780" s="70" t="s">
+      <c r="F1780" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1780" s="70">
+      <c r="G1780" s="6">
         <v>364600</v>
       </c>
-      <c r="H1780" s="71">
+      <c r="H1780" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="1781" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1781" s="68">
+      <c r="A1781" s="59">
         <v>6676</v>
       </c>
-      <c r="B1781" s="69" t="s">
+      <c r="B1781" s="3" t="s">
         <v>1985</v>
       </c>
-      <c r="C1781" s="69" t="s">
+      <c r="C1781" s="3" t="s">
         <v>3317</v>
       </c>
-      <c r="D1781" s="69" t="s">
+      <c r="D1781" s="1" t="s">
         <v>3318</v>
       </c>
-      <c r="E1781" s="70" t="s">
+      <c r="E1781" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1781" s="70" t="s">
+      <c r="F1781" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1781" s="70">
+      <c r="G1781" s="6">
         <v>364600</v>
       </c>
-      <c r="H1781" s="71">
+      <c r="H1781" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1782" s="59">
+        <v>6700</v>
+      </c>
+      <c r="B1782" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1782" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="D1782" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="E1782" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1782" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1782" s="6">
+        <v>393000</v>
+      </c>
+      <c r="H1782" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1783" s="59">
+        <v>6701</v>
+      </c>
+      <c r="B1783" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1783" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D1783" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="E1783" s="6" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F1783" s="6" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G1783" s="6">
+        <v>395000</v>
+      </c>
+      <c r="H1783" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1784" s="59">
+        <v>6702</v>
+      </c>
+      <c r="B1784" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1784" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="D1784" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="E1784" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1784" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1784" s="6">
+        <v>364400</v>
+      </c>
+      <c r="H1784" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1785" s="59">
+        <v>6703</v>
+      </c>
+      <c r="B1785" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1785" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="D1785" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="E1785" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1785" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1785" s="6">
+        <v>364400</v>
+      </c>
+      <c r="H1785" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1786" s="59">
+        <v>6704</v>
+      </c>
+      <c r="B1786" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1786" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="D1786" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="E1786" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1786" s="6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G1786" s="6">
+        <v>369100</v>
+      </c>
+      <c r="H1786" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1787" s="59">
+        <v>6705</v>
+      </c>
+      <c r="B1787" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1787" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D1787" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="E1787" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1787" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1787" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1787" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1788" s="59">
+        <v>6706</v>
+      </c>
+      <c r="B1788" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1788" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="D1788" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="E1788" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1788" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1788" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1788" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1789" s="59">
+        <v>6707</v>
+      </c>
+      <c r="B1789" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1789" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D1789" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="E1789" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1789" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1789" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1789" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1790" s="59">
+        <v>6708</v>
+      </c>
+      <c r="B1790" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1790" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="D1790" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="E1790" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1790" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1790" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1790" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1791" s="59">
+        <v>6709</v>
+      </c>
+      <c r="B1791" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1791" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D1791" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="E1791" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1791" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1791" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1791" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1792" s="59">
+        <v>6710</v>
+      </c>
+      <c r="B1792" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1792" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="D1792" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E1792" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1792" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1792" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1792" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1793" s="59">
+        <v>6711</v>
+      </c>
+      <c r="B1793" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1793" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D1793" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="E1793" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1793" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1793" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1793" s="62">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1778" xr:uid="{913E7405-EFEC-4ED2-9529-41DAFD13DC4A}"/>
+  <autoFilter ref="A1:H1781" xr:uid="{913E7405-EFEC-4ED2-9529-41DAFD13DC4A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/media/Employee.xlsx
+++ b/media/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apinya.non\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18178896-8E2F-46BF-A956-4DE1559C54D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF5E7F-E3B1-4952-AA35-DD7EED131362}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{3239BD44-5DF0-4EE3-8C46-705090AA855C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1781</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1805</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7745" uniqueCount="3343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7810" uniqueCount="3369">
   <si>
     <t>Emp ID</t>
   </si>
@@ -10060,6 +10060,84 @@
   </si>
   <si>
     <t>ROEKCHAI</t>
+  </si>
+  <si>
+    <t>PLAYRUETHAI</t>
+  </si>
+  <si>
+    <t>BUNPENG</t>
+  </si>
+  <si>
+    <t>AREEPORN</t>
+  </si>
+  <si>
+    <t>BOONROD</t>
+  </si>
+  <si>
+    <t>YANIYA</t>
+  </si>
+  <si>
+    <t>SAENGJAN</t>
+  </si>
+  <si>
+    <t>KEDSANEE</t>
+  </si>
+  <si>
+    <t>MEEKAEW</t>
+  </si>
+  <si>
+    <t>THANATCHAPHON</t>
+  </si>
+  <si>
+    <t>KULAPHOM</t>
+  </si>
+  <si>
+    <t>TITINAT</t>
+  </si>
+  <si>
+    <t>BUKAJAMPA</t>
+  </si>
+  <si>
+    <t>PORNPAT</t>
+  </si>
+  <si>
+    <t>SALATHONG</t>
+  </si>
+  <si>
+    <t>BOONNAK</t>
+  </si>
+  <si>
+    <t>VONGSAKORN</t>
+  </si>
+  <si>
+    <t>PHIKUNKHAO</t>
+  </si>
+  <si>
+    <t>PEERAYA</t>
+  </si>
+  <si>
+    <t>THANGKAMPLEW</t>
+  </si>
+  <si>
+    <t>DECHATHORN</t>
+  </si>
+  <si>
+    <t>PHUWASIRAKAJOHN</t>
+  </si>
+  <si>
+    <t>YAOWALAK</t>
+  </si>
+  <si>
+    <t>PALAD</t>
+  </si>
+  <si>
+    <t>APHILAK</t>
+  </si>
+  <si>
+    <t>JAYARAM</t>
+  </si>
+  <si>
+    <t>KOLIHALLI MUDDARAMAIAN</t>
   </si>
 </sst>
 </file>
@@ -32045,10 +32123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D74ABB-BE42-4216-819B-7D7916272FCF}">
-  <dimension ref="A1:H1793"/>
+  <dimension ref="A1:H1806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1768" workbookViewId="0">
-      <selection activeCell="D1786" sqref="D1786"/>
+    <sheetView tabSelected="1" topLeftCell="A1782" workbookViewId="0">
+      <selection activeCell="L1803" sqref="L1803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -56112,13 +56190,13 @@
         <v>1870</v>
       </c>
       <c r="E914" s="5" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="F914" s="5" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="G914" s="6">
-        <v>364600</v>
+        <v>348100</v>
       </c>
       <c r="H914" s="7">
         <v>1</v>
@@ -78615,8 +78693,346 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1794" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1794" s="59">
+        <v>6712</v>
+      </c>
+      <c r="B1794" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1794" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D1794" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="E1794" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1794" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1794" s="6">
+        <v>364800</v>
+      </c>
+      <c r="H1794" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1795" s="59">
+        <v>6713</v>
+      </c>
+      <c r="B1795" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1795" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D1795" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="E1795" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1795" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1795" s="6">
+        <v>364800</v>
+      </c>
+      <c r="H1795" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1796" s="59">
+        <v>6714</v>
+      </c>
+      <c r="B1796" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1796" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D1796" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E1796" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1796" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1796" s="6">
+        <v>364800</v>
+      </c>
+      <c r="H1796" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1797" s="59">
+        <v>6715</v>
+      </c>
+      <c r="B1797" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1797" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D1797" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="E1797" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1797" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1797" s="6">
+        <v>364400</v>
+      </c>
+      <c r="H1797" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1798" s="59">
+        <v>6716</v>
+      </c>
+      <c r="B1798" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1798" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D1798" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="E1798" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1798" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1798" s="6">
+        <v>364400</v>
+      </c>
+      <c r="H1798" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1799" s="59">
+        <v>6717</v>
+      </c>
+      <c r="B1799" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1799" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D1799" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="E1799" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1799" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1799" s="6">
+        <v>364400</v>
+      </c>
+      <c r="H1799" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1800" s="59">
+        <v>6718</v>
+      </c>
+      <c r="B1800" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1800" s="1" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D1800" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="E1800" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1800" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1800" s="6">
+        <v>348100</v>
+      </c>
+      <c r="H1800" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1801" s="59">
+        <v>6719</v>
+      </c>
+      <c r="B1801" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1801" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D1801" s="1" t="s">
+        <v>3357</v>
+      </c>
+      <c r="E1801" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1801" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="G1801" s="6">
+        <v>369100</v>
+      </c>
+      <c r="H1801" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1802" s="59">
+        <v>6720</v>
+      </c>
+      <c r="B1802" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1802" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D1802" s="1" t="s">
+        <v>3359</v>
+      </c>
+      <c r="E1802" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1802" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1802" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1802" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1803" s="59">
+        <v>6721</v>
+      </c>
+      <c r="B1803" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1803" s="1" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D1803" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E1803" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1803" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1803" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1803" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1804" s="59">
+        <v>6722</v>
+      </c>
+      <c r="B1804" s="3" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1804" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D1804" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="E1804" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1804" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1804" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1804" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1805" s="59">
+        <v>6723</v>
+      </c>
+      <c r="B1805" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1805" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D1805" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="E1805" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1805" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="G1805" s="6">
+        <v>368000</v>
+      </c>
+      <c r="H1805" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1806" s="59">
+        <v>6684</v>
+      </c>
+      <c r="B1806" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C1806" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D1806" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E1806" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1806" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1806" s="6">
+        <v>364600</v>
+      </c>
+      <c r="H1806" s="62">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1781" xr:uid="{913E7405-EFEC-4ED2-9529-41DAFD13DC4A}"/>
+  <autoFilter ref="A1:H1805" xr:uid="{913E7405-EFEC-4ED2-9529-41DAFD13DC4A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
